--- a/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
+++ b/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nesh/Documents/Repositories/icecontinuum/nesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B41A354-0BC0-7C4A-B3CB-E1F077F50409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086AF7FD-A0E3-0143-BEE2-721ADC77F1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10100" yWindow="500" windowWidth="18200" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
   </bookViews>

--- a/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
+++ b/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nesh/Documents/Repositories/icecontinuum/nesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086AF7FD-A0E3-0143-BEE2-721ADC77F1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B7EA9C-F198-D743-BD7C-1CA2007DA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="500" windowWidth="18200" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
+    <workbookView xWindow="10260" yWindow="500" windowWidth="18040" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>D (um^2/us)</t>
   </si>
@@ -91,13 +91,7 @@
     <t>Range ratios</t>
   </si>
   <si>
-    <t>c_r(0)</t>
-  </si>
-  <si>
     <t>c_r(1)</t>
-  </si>
-  <si>
-    <t>Time needed (ms)</t>
   </si>
   <si>
     <t>z</t>
@@ -129,6 +123,24 @@
   <si>
     <t>lambda (predicted)</t>
   </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>c_r %</t>
+  </si>
+  <si>
+    <t>Scale for z</t>
+  </si>
+  <si>
+    <t>T_cr</t>
+  </si>
+  <si>
+    <t>Time used (ms)</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
 </sst>
 </file>
 
@@ -138,9 +150,9 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +225,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -264,12 +303,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,132 +489,174 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.4253562503633295</c:v>
+                  <c:v>25.424641809046072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8284271247461894</c:v>
+                  <c:v>7.1895946958663917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1622776601683786</c:v>
+                  <c:v>13.13019052858764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2874646285627209</c:v>
+                  <c:v>16.062314155080887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4280744277004764</c:v>
+                  <c:v>19.67223688411584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9507377148833704</c:v>
+                  <c:v>3.2181136055347066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4232614454664034</c:v>
+                  <c:v>3.7529331252040077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4232614454664034</c:v>
+                  <c:v>4.1959067914834458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6696498884737023</c:v>
+                  <c:v>10.176568762666319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9014754297667409</c:v>
+                  <c:v>14.391841562585093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.846522890932807</c:v>
+                  <c:v>15.321285325897389</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.547005383792515</c:v>
+                  <c:v>17.129717745688293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.126781251816645</c:v>
+                  <c:v>22.75549953102281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.909944487358056</c:v>
+                  <c:v>26.924670145963368</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.852213144650111</c:v>
+                  <c:v>28.783683125170185</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.149858514250884</c:v>
+                  <c:v>7.1895946958663899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.174124721184256</c:v>
+                  <c:v>6.5622109871109169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.291986247835695</c:v>
+                  <c:v>5.8719997158891726</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.693045781865614</c:v>
+                  <c:v>5.6851227388610237</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4655216854484117</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4787794392833309</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9932607767732864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5464074222856494</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0439665689090836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2461061118655543</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0434361758540334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>23.52941176470588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.096774193548388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.705882352941176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.018018018018015</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.8441410693970424</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>2.8200789622109417</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>3.3046926635822866</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0939191340337473</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2521008403361344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9142434696895023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5061808718282368</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9.2936802973977706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.096774193548388</c:v>
+                  <c:v>13.157894736842106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.157894736842106</c:v>
+                  <c:v>14.326647564469914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.326647564469914</c:v>
+                  <c:v>16.129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.705882352941176</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.129032258064516</c:v>
+                  <c:v>24.630541871921185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.018018018018015</c:v>
+                  <c:v>26.315789473684212</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.833333333333336</c:v>
+                  <c:v>6.5061808718282368</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.52941176470588</c:v>
+                  <c:v>5.9142434696895023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.630541871921185</c:v>
+                  <c:v>5.2521008403361344</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.315789473684212</c:v>
+                  <c:v>5.0939191340337473</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.6058519793459567</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2372322899505761</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6123301985370948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0816326530612246</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4270047978067169</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2894736842105261</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8740157480314963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +913,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$B$83</c:f>
+              <c:f>Sheet1!$B$82:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="44"/>
@@ -963,7 +1051,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$40:$E$83</c:f>
+              <c:f>Sheet1!$E$82:$E$125</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="44"/>
@@ -1398,126 +1486,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$20</c:f>
+              <c:f>Sheet1!$O$3:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$20</c:f>
+              <c:f>Sheet1!$P$3:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>316.22776601683796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.20508075688772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.42135623730951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.47005383792515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>707.10678118654755</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>223.60679774997897</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>223.60679774997897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>387.29833462074168</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>346.41016151377545</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>316.22776601683796</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>316.22776601683796</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>223.60679774997897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>173.20508075688772</c:v>
+                  <c:v>158.11388300841898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158.11388300841898</c:v>
+                  <c:v>223.60679774997897</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>223.60679774997897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>141.42135623730951</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>223.60679774997897</c:v>
+                  <c:v>84.515425472851661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115.47005383792515</c:v>
+                  <c:v>79.05694150420949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>316.22776601683796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89.442719099991592</c:v>
+                  <c:v>346.41016151377545</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84.515425472851661</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>79.05694150420949</c:v>
+                  <c:v>387.29833462074168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,134 +1902,221 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>23.52941176470588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.096774193548388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.705882352941176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.018018018018015</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.8441410693970424</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>2.8200789622109417</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>3.3046926635822866</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0939191340337473</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2521008403361344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9142434696895023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5061808718282368</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9.2936802973977706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.096774193548388</c:v>
+                  <c:v>13.157894736842106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.157894736842106</c:v>
+                  <c:v>14.326647564469914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.326647564469914</c:v>
+                  <c:v>16.129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.705882352941176</c:v>
+                  <c:v>20.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.129032258064516</c:v>
+                  <c:v>24.630541871921185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.018018018018015</c:v>
+                  <c:v>26.315789473684212</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.833333333333336</c:v>
+                  <c:v>6.5061808718282368</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.52941176470588</c:v>
+                  <c:v>5.9142434696895023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.630541871921185</c:v>
+                  <c:v>5.2521008403361344</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.315789473684212</c:v>
+                  <c:v>5.0939191340337473</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.6058519793459567</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2372322899505761</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6123301985370948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0816326530612246</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4270047978067169</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2894736842105261</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8740157480314963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$20</c:f>
+              <c:f>Sheet1!$R$2:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.879923617760733</c:v>
+                  <c:v>32.549794949373215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3998989426440396</c:v>
+                  <c:v>9.0259554721212236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8305776437146832</c:v>
+                  <c:v>16.68952891401068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2821076267260034</c:v>
+                  <c:v>20.472069484867362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.463499115506667</c:v>
+                  <c:v>25.128994266911103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1377527761652582</c:v>
+                  <c:v>3.9026079383284422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7473246801168285</c:v>
+                  <c:v>4.5925435580126122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7473246801168285</c:v>
+                  <c:v>5.1639948601962935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6452432217510911</c:v>
+                  <c:v>12.879255002086836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.52437511807959</c:v>
+                  <c:v>18.317102246607895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.74351892598273</c:v>
+                  <c:v>19.516116746301115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.647165492749608</c:v>
+                  <c:v>21.849056918299478</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.395096351799957</c:v>
+                  <c:v>29.106509385017066</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.40540392726248</c:v>
+                  <c:v>34.484883221422045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.910997459993919</c:v>
+                  <c:v>36.883074058964866</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.875039204151232</c:v>
+                  <c:v>9.0259554721212218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.486412403001339</c:v>
+                  <c:v>8.2166088571218108</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.928492313600429</c:v>
+                  <c:v>7.3262125203953081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.735907417714532</c:v>
+                  <c:v>7.0851347769532884</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.961979757256026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.979082716799034</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6125400368330478</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6161527583630226</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9679867345362334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2287537142429255</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.417474897370257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,6 +2260,529 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1849058143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21280823283165554"/>
+                  <c:y val="-3.9294093340373266E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>504.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF05-604B-A166-511A37FD9E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1361741519"/>
+        <c:axId val="1361960367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1361741519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361960367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1361960367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1361741519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2306,6 +2998,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4370,20 +5102,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411292</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>115138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>277724</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>59268</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4410,15 +5658,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>728133</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4446,15 +5694,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>609602</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>186746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4483,15 +5731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>986277</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4511,6 +5759,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D423025D-C3AE-ACC5-F285-32FD18B0F38D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4816,38 +6100,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FACA8F-BEA8-A344-9B24-B4206D9D79F6}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z34" sqref="Z34"/>
+      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" style="22" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -4867,438 +6153,526 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B2" s="30">
-        <f>F2^$C$23*C2^$C$26*K2^$C$25*C2^$C$24*10000</f>
-        <v>2.4253562503633295</v>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3">
+        <f>F2^$C$33*C2^$C$36*N2^$C$35*L2^$C$34*$C$37</f>
+        <v>25.424641809046072</v>
       </c>
       <c r="C2" s="7">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="E2" s="30">
+        <v>0.34</v>
+      </c>
+      <c r="E2" s="3">
         <f>C2/D2</f>
-        <v>2.8441410693970424</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="F2" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>240</v>
+      </c>
+      <c r="J2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K2" s="36">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="L2" s="34">
+        <f>K2/100</f>
+        <v>4.55E-4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>400</v>
+      </c>
+      <c r="P2" s="11">
+        <f>(1/F2*C2)^0.5</f>
+        <v>89.442719099991592</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>($C$41*B2+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>3.3746992378553848</v>
+      </c>
+      <c r="R2" s="2">
+        <f>$C$43*(1-EXP(-1/((G2-$C$40)*$C$44)))*Q2</f>
+        <v>32.549794949373215</v>
+      </c>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="3">
+        <f>F3^$C$33*C3^$C$36*N3^$C$35*L3^$C$34*$C$37</f>
+        <v>7.1895946958663917</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3/D3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F3" s="17">
         <v>1E-4</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G3" s="2">
         <v>0.22</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="I2" s="25">
-        <f>$C$27+$C$28*C2</f>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J2" s="29">
+      <c r="I3">
+        <v>240</v>
+      </c>
+      <c r="J3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K3" s="36">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="L3" s="34">
+        <f>K3/100</f>
+        <v>5.6899999999999995E-4</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="N3" s="7">
         <v>34</v>
       </c>
-      <c r="L2" s="29">
-        <v>600</v>
-      </c>
-      <c r="M2" s="32">
-        <f>(1/F2*C2)^0.5</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="N2" s="31">
-        <f>($C$31*B2+$C$32)/($C$31*$C$29+$C$32)</f>
-        <v>0.29858486214906299</v>
-      </c>
-      <c r="O2" s="31">
-        <f>$C$33*(1-EXP(-1/((G2-$C$30)*$C$34)))*N2</f>
-        <v>2.879923617760733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30">
-        <f>F3^$C$23*C3^$C$26*K3^$C$25*C3^$C$24*10000</f>
-        <v>2.8284271247461894</v>
-      </c>
-      <c r="C3" s="7">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8">
-        <v>17.73</v>
-      </c>
-      <c r="E3" s="30">
-        <f>C3/D3</f>
-        <v>2.8200789622109417</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G3" s="31">
+      <c r="O3">
+        <v>400</v>
+      </c>
+      <c r="P3" s="11">
+        <f>(1/F3*C3)^0.5</f>
+        <v>316.22776601683796</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>($C$41*B3+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.93579345430778726</v>
+      </c>
+      <c r="R3" s="2">
+        <f>$C$43*(1-EXP(-1/((G3-$C$40)*$C$44)))*Q3</f>
+        <v>9.0259554721212236</v>
+      </c>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="3">
+        <f>F4^$C$33*C4^$C$36*N4^$C$35*L4^$C$34*$C$37</f>
+        <v>13.13019052858764</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4/D4</f>
+        <v>12.096774193548388</v>
+      </c>
+      <c r="F4" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.22</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="I3" s="25">
-        <f>$C$27+$C$28*C3</f>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J3" s="29">
+      <c r="I4">
+        <v>240</v>
+      </c>
+      <c r="J4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K4" s="36">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="L4" s="34">
+        <f>K4/100</f>
+        <v>8.5300000000000003E-4</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="K3" s="7">
-        <v>250</v>
-      </c>
-      <c r="L3" s="29">
-        <v>125</v>
-      </c>
-      <c r="M3" s="32">
-        <f>(1/F3*C3)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="N3" s="31">
-        <f t="shared" ref="N3:N20" si="0">($C$31*B3+$C$32)/($C$31*$C$29+$C$32)</f>
-        <v>0.35249488939552004</v>
-      </c>
-      <c r="O3" s="31">
-        <f t="shared" ref="O3:O20" si="1">$C$33*(1-EXP(-1/((G3-$C$30)*$C$34)))*N3</f>
-        <v>3.3998989426440396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30">
-        <f>F4^$C$23*C4^$C$26*K4^$C$25*C4^$C$24*10000</f>
-        <v>3.1622776601683786</v>
-      </c>
-      <c r="C4" s="7">
-        <v>50</v>
-      </c>
-      <c r="D4" s="8">
-        <v>15.13</v>
-      </c>
-      <c r="E4" s="30">
-        <f>C4/D4</f>
-        <v>3.3046926635822866</v>
-      </c>
-      <c r="F4" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0.22</v>
-      </c>
-      <c r="H4" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="25">
-        <f>$C$27+$C$28*C4</f>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J4" s="29">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="N4" s="7">
+        <v>34</v>
+      </c>
+      <c r="O4">
         <v>200</v>
       </c>
-      <c r="L4" s="29">
-        <v>125</v>
-      </c>
-      <c r="M4" s="32">
+      <c r="P4" s="11">
         <f>(1/F4*C4)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="N4" s="31">
-        <f t="shared" si="0"/>
-        <v>0.39714681689688314</v>
-      </c>
-      <c r="O4" s="31">
-        <f t="shared" si="1"/>
-        <v>3.8305776437146832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="30">
-        <f>F5^$C$23*C5^$C$26*K5^$C$25*C5^$C$24*10000</f>
-        <v>4.2874646285627209</v>
+        <v>173.20508075688772</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>($C$41*B4+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>1.7303377976383165</v>
+      </c>
+      <c r="R4" s="2">
+        <f>$C$43*(1-EXP(-1/((G4-$C$40)*$C$44)))*Q4</f>
+        <v>16.68952891401068</v>
+      </c>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" s="3">
+        <f>F5^$C$33*C5^$C$36*N5^$C$35*L5^$C$34*$C$37</f>
+        <v>16.062314155080887</v>
       </c>
       <c r="C5" s="7">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8">
-        <v>31.41</v>
-      </c>
-      <c r="E5" s="30">
+        <v>1.36</v>
+      </c>
+      <c r="E5" s="3">
         <f>C5/D5</f>
-        <v>5.0939191340337473</v>
+        <v>14.705882352941176</v>
       </c>
       <c r="F5" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="2">
         <v>0.22</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="25">
-        <f>$C$27+$C$28*C5</f>
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="J5" s="29">
+      <c r="I5">
+        <v>240</v>
+      </c>
+      <c r="J5">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0.114</v>
+      </c>
+      <c r="L5" s="34">
+        <f>K5/100</f>
+        <v>1.14E-3</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="N5" s="7">
         <v>34</v>
       </c>
-      <c r="L5" s="29">
-        <v>150</v>
-      </c>
-      <c r="M5" s="32">
+      <c r="O5">
+        <v>70</v>
+      </c>
+      <c r="P5" s="11">
         <f>(1/F5*C5)^0.5</f>
-        <v>400</v>
-      </c>
-      <c r="N5" s="31">
-        <f t="shared" si="0"/>
-        <v>0.54763861369656985</v>
-      </c>
-      <c r="O5" s="31">
-        <f t="shared" si="1"/>
-        <v>5.2821076267260034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="30">
-        <f>F6^$C$23*C6^$C$26*K6^$C$25*C6^$C$24*10000</f>
-        <v>4.4280744277004764</v>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>($C$41*B5+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>2.122504224538432</v>
+      </c>
+      <c r="R5" s="2">
+        <f>$C$43*(1-EXP(-1/((G5-$C$40)*$C$44)))*Q5</f>
+        <v>20.472069484867362</v>
+      </c>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="3">
+        <f>F6^$C$33*C6^$C$36*N6^$C$35*L6^$C$34*$C$37</f>
+        <v>19.67223688411584</v>
       </c>
       <c r="C6" s="7">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8">
-        <v>28.56</v>
-      </c>
-      <c r="E6" s="30">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E6" s="3">
         <f>C6/D6</f>
-        <v>5.2521008403361344</v>
+        <v>18.018018018018015</v>
       </c>
       <c r="F6" s="17">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>240</v>
+      </c>
+      <c r="J6">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0.114</v>
+      </c>
+      <c r="L6" s="34">
+        <f>K6/100</f>
+        <v>1.14E-3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>70</v>
+      </c>
+      <c r="P6" s="11">
+        <f>(1/F6*C6)^0.5</f>
+        <v>115.47005383792515</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>($C$41*B6+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>2.605325100588697</v>
+      </c>
+      <c r="R6" s="2">
+        <f>$C$43*(1-EXP(-1/((G6-$C$40)*$C$44)))*Q6</f>
+        <v>25.128994266911103</v>
+      </c>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <f>F7^$C$33*C7^$C$36*N7^$C$35*L7^$C$34*$C$37</f>
+        <v>3.2181136055347066</v>
+      </c>
+      <c r="C7" s="7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7/D7</f>
+        <v>2.8441410693970424</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>240</v>
+      </c>
+      <c r="J7">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L7" s="34">
+        <f>K7/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>600</v>
+      </c>
+      <c r="P7" s="11">
+        <f>(1/F7*C7)^0.5</f>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>($C$41*B7+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.40461477731610024</v>
+      </c>
+      <c r="R7" s="2">
+        <f>$C$43*(1-EXP(-1/((G7-$C$40)*$C$44)))*Q7</f>
+        <v>3.9026079383284422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f>F8^$C$33*C8^$C$36*N8^$C$35*L8^$C$34*$C$37</f>
+        <v>3.7529331252040077</v>
+      </c>
+      <c r="C8" s="7">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8">
+        <v>17.73</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8/D8</f>
+        <v>2.8200789622109417</v>
+      </c>
+      <c r="F8" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G8" s="2">
         <v>0.22</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H8">
         <v>0.2</v>
       </c>
-      <c r="I6" s="25">
-        <f>$C$27+$C$28*C6</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="J6" s="29">
+      <c r="I8">
+        <v>240</v>
+      </c>
+      <c r="J8">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L8" s="34">
+        <f>K8/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="K6" s="7">
-        <v>34</v>
-      </c>
-      <c r="L6" s="29">
-        <v>150</v>
-      </c>
-      <c r="M6" s="32">
-        <f>(1/F6*C6)^0.5</f>
-        <v>387.29833462074168</v>
-      </c>
-      <c r="N6" s="31">
-        <f t="shared" si="0"/>
-        <v>0.5664449293705599</v>
-      </c>
-      <c r="O6" s="31">
-        <f t="shared" si="1"/>
-        <v>5.463499115506667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="30">
-        <f>F7^$C$23*C7^$C$26*K7^$C$25*C7^$C$24*10000</f>
-        <v>4.9507377148833704</v>
-      </c>
-      <c r="C7" s="7">
-        <v>120</v>
-      </c>
-      <c r="D7" s="8">
-        <v>20.29</v>
-      </c>
-      <c r="E7" s="30">
-        <f>C7/D7</f>
-        <v>5.9142434696895023</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G7" s="31">
-        <v>0.22</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="25">
-        <f>$C$27+$C$28*C7</f>
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="J7" s="29">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>34</v>
-      </c>
-      <c r="L7" s="29">
-        <v>150</v>
-      </c>
-      <c r="M7" s="32">
-        <f>(1/F7*C7)^0.5</f>
-        <v>346.41016151377545</v>
-      </c>
-      <c r="N7" s="31">
-        <f t="shared" si="0"/>
-        <v>0.63635023348337627</v>
-      </c>
-      <c r="O7" s="31">
-        <f t="shared" si="1"/>
-        <v>6.1377527761652582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B8" s="30">
-        <f>F8^$C$23*C8^$C$26*K8^$C$25*C8^$C$24*10000</f>
-        <v>5.4232614454664034</v>
-      </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="30">
-        <f>C8/D8</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1E-4</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0.22</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="25">
-        <f>$C$27+$C$28*C8</f>
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J8" s="29">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>34</v>
-      </c>
-      <c r="L8" s="29">
-        <v>400</v>
-      </c>
-      <c r="M8" s="32">
+      <c r="N8" s="7">
+        <v>250</v>
+      </c>
+      <c r="O8">
+        <v>125</v>
+      </c>
+      <c r="P8" s="11">
         <f>(1/F8*C8)^0.5</f>
-        <v>316.22776601683796</v>
-      </c>
-      <c r="N8" s="31">
-        <f t="shared" si="0"/>
-        <v>0.69954945925063516</v>
-      </c>
-      <c r="O8" s="31">
-        <f t="shared" si="1"/>
-        <v>6.7473246801168285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
-        <f>F9^$C$23*C9^$C$26*K9^$C$25*C9^$C$24*10000</f>
-        <v>5.4232614454664034</v>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>($C$41*B8+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.47614595634622453</v>
+      </c>
+      <c r="R8" s="2">
+        <f>$C$43*(1-EXP(-1/((G8-$C$40)*$C$44)))*Q8</f>
+        <v>4.5925435580126122</v>
+      </c>
+      <c r="S8" s="29"/>
+    </row>
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f>F9^$C$33*C9^$C$36*N9^$C$35*L9^$C$34*$C$37</f>
+        <v>4.1959067914834458</v>
       </c>
       <c r="C9" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" s="8">
-        <v>15.37</v>
-      </c>
-      <c r="E9" s="30">
+        <v>15.13</v>
+      </c>
+      <c r="E9" s="3">
         <f>C9/D9</f>
-        <v>6.5061808718282368</v>
+        <v>3.3046926635822866</v>
       </c>
       <c r="F9" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="2">
         <v>0.22</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9" s="25">
-        <f>$C$27+$C$28*C9</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J9" s="29">
+      <c r="I9">
+        <v>240</v>
+      </c>
+      <c r="J9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L9" s="34">
+        <f>K9/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
-        <v>34</v>
-      </c>
-      <c r="L9" s="29">
-        <v>250</v>
-      </c>
-      <c r="M9" s="32">
+      <c r="N9" s="7">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>125</v>
+      </c>
+      <c r="P9" s="11">
         <f>(1/F9*C9)^0.5</f>
-        <v>316.22776601683796</v>
-      </c>
-      <c r="N9" s="31">
-        <f t="shared" si="0"/>
-        <v>0.69954945925063516</v>
-      </c>
-      <c r="O9" s="31">
-        <f t="shared" si="1"/>
-        <v>6.7473246801168285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="30">
-        <f>F10^$C$23*C10^$C$26*K10^$C$25*C10^$C$24*10000</f>
-        <v>7.6696498884737023</v>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>($C$41*B9+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.53539291249295973</v>
+      </c>
+      <c r="R9" s="2">
+        <f>$C$43*(1-EXP(-1/((G9-$C$40)*$C$44)))*Q9</f>
+        <v>5.1639948601962935</v>
+      </c>
+      <c r="S9" s="29"/>
+    </row>
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="3">
+        <f>F10^$C$33*C10^$C$36*N10^$C$35*L10^$C$34*$C$37</f>
+        <v>10.176568762666319</v>
       </c>
       <c r="C10" s="7">
         <v>50</v>
@@ -5306,2362 +6680,3262 @@
       <c r="D10" s="8">
         <v>5.38</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="3">
         <f>C10/D10</f>
         <v>9.2936802973977706</v>
       </c>
       <c r="F10" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="2">
         <v>0.22</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10">
         <v>0.2</v>
       </c>
-      <c r="I10" s="25">
-        <f>$C$27+$C$28*C10</f>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J10" s="29">
+      <c r="I10">
+        <v>240</v>
+      </c>
+      <c r="J10">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L10" s="34">
+        <f>K10/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="N10" s="7">
         <v>34</v>
       </c>
-      <c r="L10" s="29">
+      <c r="O10">
         <v>150</v>
       </c>
-      <c r="M10" s="32">
+      <c r="P10" s="11">
         <f>(1/F10*C10)^0.5</f>
         <v>223.60679774997897</v>
       </c>
-      <c r="N10" s="31">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O10" s="31">
-        <f t="shared" si="1"/>
-        <v>9.6452432217510911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B11" s="30">
-        <f>F11^$C$23*C11^$C$26*K11^$C$25*C11^$C$24*10000</f>
-        <v>9.9014754297667409</v>
+      <c r="Q10" s="2">
+        <f>($C$41*B10+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>1.3352960320422707</v>
+      </c>
+      <c r="R10" s="2">
+        <f>$C$43*(1-EXP(-1/((G10-$C$40)*$C$44)))*Q10</f>
+        <v>12.879255002086836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f>F11^$C$33*C11^$C$36*N11^$C$35*L11^$C$34*$C$37</f>
+        <v>14.391841562585093</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8">
-        <v>1.24</v>
-      </c>
-      <c r="E11" s="30">
+        <v>3.8</v>
+      </c>
+      <c r="E11" s="3">
         <f>C11/D11</f>
-        <v>12.096774193548388</v>
+        <v>13.157894736842106</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G11" s="31">
+        <v>2E-3</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.22</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11">
         <v>0.2</v>
       </c>
-      <c r="I11" s="25">
-        <f>$C$27+$C$28*C11</f>
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="J11" s="29">
+      <c r="I11">
+        <v>240</v>
+      </c>
+      <c r="J11">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L11" s="34">
+        <f>K11/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="N11" s="7">
         <v>34</v>
       </c>
-      <c r="L11" s="29">
-        <v>200</v>
-      </c>
-      <c r="M11" s="32">
+      <c r="O11">
+        <v>150</v>
+      </c>
+      <c r="P11" s="11">
         <f>(1/F11*C11)^0.5</f>
-        <v>173.20508075688772</v>
-      </c>
-      <c r="N11" s="31">
-        <f t="shared" si="0"/>
-        <v>1.2985027780155651</v>
-      </c>
-      <c r="O11" s="31">
-        <f t="shared" si="1"/>
-        <v>12.52437511807959</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B12" s="30">
-        <f>F12^$C$23*C12^$C$26*K12^$C$25*C12^$C$24*10000</f>
-        <v>10.846522890932807</v>
+        <v>158.11388300841898</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>($C$41*B11+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>1.8990814254741453</v>
+      </c>
+      <c r="R11" s="2">
+        <f>$C$43*(1-EXP(-1/((G11-$C$40)*$C$44)))*Q11</f>
+        <v>18.317102246607895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f>F12^$C$33*C12^$C$36*N12^$C$35*L12^$C$34*$C$37</f>
+        <v>15.321285325897389</v>
       </c>
       <c r="C12" s="7">
         <v>50</v>
       </c>
       <c r="D12" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="E12" s="30">
+        <v>3.49</v>
+      </c>
+      <c r="E12" s="3">
         <f>C12/D12</f>
-        <v>13.157894736842106</v>
+        <v>14.326647564469914</v>
       </c>
       <c r="F12" s="17">
-        <v>2E-3</v>
-      </c>
-      <c r="G12" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.22</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12">
         <v>0.2</v>
       </c>
-      <c r="I12" s="25">
-        <f>-0.0378257863 +0.00708508748*C12 -0.000022070865*C12^2</f>
-        <v>0.2612514252</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="I12">
+        <v>240</v>
+      </c>
+      <c r="J12">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L12" s="34">
+        <f>K12/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="K12" s="7">
-        <v>34</v>
-      </c>
-      <c r="L12" s="29">
-        <v>150</v>
-      </c>
-      <c r="M12" s="32">
+      <c r="N12" s="7">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>300</v>
+      </c>
+      <c r="P12" s="11">
         <f>(1/F12*C12)^0.5</f>
-        <v>158.11388300841898</v>
-      </c>
-      <c r="N12" s="31">
-        <f t="shared" si="0"/>
-        <v>1.4249012295500829</v>
-      </c>
-      <c r="O12" s="31">
-        <f t="shared" si="1"/>
-        <v>13.74351892598273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B13" s="30">
-        <f>F13^$C$23*C13^$C$26*K13^$C$25*C13^$C$24*10000</f>
-        <v>11.547005383792515</v>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>($C$41*B12+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>2.0233929096044063</v>
+      </c>
+      <c r="R12" s="2">
+        <f>$C$43*(1-EXP(-1/((G12-$C$40)*$C$44)))*Q12</f>
+        <v>19.516116746301115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3">
+        <f>F13^$C$33*C13^$C$36*N13^$C$35*L13^$C$34*$C$37</f>
+        <v>17.129717745688293</v>
       </c>
       <c r="C13" s="7">
         <v>50</v>
       </c>
       <c r="D13" s="8">
-        <v>3.49</v>
-      </c>
-      <c r="E13" s="30">
+        <v>3.1</v>
+      </c>
+      <c r="E13" s="3">
         <f>C13/D13</f>
-        <v>14.326647564469914</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="F13" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="2">
         <v>0.22</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13">
         <v>0.2</v>
       </c>
-      <c r="I13" s="25">
-        <f>-0.0378257863 +0.00708508748*C13 -0.000022070865*C13^2</f>
-        <v>0.2612514252</v>
-      </c>
-      <c r="J13" s="29">
+      <c r="I13">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L13" s="34">
+        <f>K13/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="K13" s="7">
-        <v>15</v>
-      </c>
-      <c r="L13" s="29">
+      <c r="N13" s="7">
+        <v>12</v>
+      </c>
+      <c r="O13">
         <v>300</v>
       </c>
-      <c r="M13" s="32">
+      <c r="P13" s="11">
         <f>(1/F13*C13)^0.5</f>
         <v>223.60679774997897</v>
       </c>
-      <c r="N13" s="31">
-        <f t="shared" si="0"/>
-        <v>1.5185895426378291</v>
-      </c>
-      <c r="O13" s="31">
-        <f t="shared" si="1"/>
-        <v>14.647165492749608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B14" s="30">
-        <f>F14^$C$23*C14^$C$26*K14^$C$25*C14^$C$24*10000</f>
-        <v>12.126781251816645</v>
+      <c r="Q13" s="2">
+        <f>($C$41*B13+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>2.2652675952253274</v>
+      </c>
+      <c r="R13" s="2">
+        <f>$C$43*(1-EXP(-1/((G13-$C$40)*$C$44)))*Q13</f>
+        <v>21.849056918299478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f>F14^$C$33*C14^$C$36*N14^$C$35*L14^$C$34*$C$37</f>
+        <v>22.75549953102281</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8">
-        <v>1.36</v>
-      </c>
-      <c r="E14" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="E14" s="3">
         <f>C14/D14</f>
-        <v>14.705882352941176</v>
+        <v>20.833333333333336</v>
       </c>
       <c r="F14" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G14" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="2">
         <v>0.22</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14">
         <v>0.2</v>
       </c>
-      <c r="I14" s="25">
-        <f>-0.0378257863 +0.00708508748*C14 -0.000022070865*C14^2</f>
-        <v>9.5047617300000012E-2</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="I14">
+        <v>240</v>
+      </c>
+      <c r="J14">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L14" s="34">
+        <f>K14/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="K14" s="7">
+      <c r="N14" s="7">
         <v>34</v>
       </c>
-      <c r="L14" s="29">
-        <v>70</v>
-      </c>
-      <c r="M14" s="32">
+      <c r="O14">
+        <v>80</v>
+      </c>
+      <c r="P14" s="11">
         <f>(1/F14*C14)^0.5</f>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="N14" s="31">
-        <f t="shared" si="0"/>
-        <v>1.5961335549405653</v>
-      </c>
-      <c r="O14" s="31">
-        <f t="shared" si="1"/>
-        <v>15.395096351799957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="30">
-        <f>F15^$C$23*C15^$C$26*K15^$C$25*C15^$C$24*10000</f>
-        <v>12.909944487358056</v>
+        <v>100</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>($C$41*B14+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>3.0177061081651804</v>
+      </c>
+      <c r="R14" s="2">
+        <f>$C$43*(1-EXP(-1/((G14-$C$40)*$C$44)))*Q14</f>
+        <v>29.106509385017066</v>
+      </c>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f>F15^$C$33*C15^$C$36*N15^$C$35*L15^$C$34*$C$37</f>
+        <v>26.924670145963368</v>
       </c>
       <c r="C15" s="7">
         <v>50</v>
       </c>
       <c r="D15" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="E15" s="30">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E15" s="3">
         <f>C15/D15</f>
-        <v>16.129032258064516</v>
+        <v>24.630541871921185</v>
       </c>
       <c r="F15" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>240</v>
+      </c>
+      <c r="J15">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L15" s="34">
+        <f>K15/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>34</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15" s="11">
+        <f>(1/F15*C15)^0.5</f>
+        <v>84.515425472851661</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>($C$41*B15+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>3.5753254146722626</v>
+      </c>
+      <c r="R15" s="2">
+        <f>$C$43*(1-EXP(-1/((G15-$C$40)*$C$44)))*Q15</f>
+        <v>34.484883221422045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="3">
+        <f>F16^$C$33*C16^$C$36*N16^$C$35*L16^$C$34*$C$37</f>
+        <v>28.783683125170185</v>
+      </c>
+      <c r="C16" s="7">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="E16" s="3">
+        <f>C16/D16</f>
+        <v>26.315789473684212</v>
+      </c>
+      <c r="F16" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>240</v>
+      </c>
+      <c r="J16">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L16" s="34">
+        <f>K16/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>34</v>
+      </c>
+      <c r="O16">
+        <v>70</v>
+      </c>
+      <c r="P16" s="11">
+        <f>(1/F16*C16)^0.5</f>
+        <v>79.05694150420949</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>($C$41*B16+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>3.8239651619971031</v>
+      </c>
+      <c r="R16" s="2">
+        <f>$C$43*(1-EXP(-1/((G16-$C$40)*$C$44)))*Q16</f>
+        <v>36.883074058964866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" s="3">
+        <f>F17^$C$33*C17^$C$36*N17^$C$35*L17^$C$34*$C$37</f>
+        <v>7.1895946958663899</v>
+      </c>
+      <c r="C17" s="7">
+        <v>100</v>
+      </c>
+      <c r="D17" s="8">
+        <v>15.37</v>
+      </c>
+      <c r="E17" s="3">
+        <f>C17/D17</f>
+        <v>6.5061808718282368</v>
+      </c>
+      <c r="F17" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G17" s="2">
         <v>0.22</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H17">
         <v>0.2</v>
       </c>
-      <c r="I15" s="25">
-        <f>-0.0378257863 +0.00708508748*C15 -0.000022070865*C15^2</f>
-        <v>0.2612514252</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="I17">
+        <v>240</v>
+      </c>
+      <c r="J17">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L17" s="34">
+        <f>K17/100</f>
+        <v>5.6899999999999997E-3</v>
+      </c>
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="K15" s="7">
-        <v>12</v>
-      </c>
-      <c r="L15" s="29">
-        <v>300</v>
-      </c>
-      <c r="M15" s="32">
-        <f>(1/F15*C15)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="N15" s="31">
-        <f t="shared" si="0"/>
-        <v>1.7008802733213075</v>
-      </c>
-      <c r="O15" s="31">
-        <f t="shared" si="1"/>
-        <v>16.40540392726248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30">
-        <f>F16^$C$23*C16^$C$26*K16^$C$25*C16^$C$24*10000</f>
-        <v>14.852213144650111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E16" s="30">
-        <f>C16/D16</f>
-        <v>18.018018018018015</v>
-      </c>
-      <c r="F16" s="17">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G16" s="31">
-        <v>0.22</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="25">
-        <f>-0.0378257863 +0.00708508748*C16 -0.000022070865*C16^2</f>
-        <v>9.5047617300000012E-2</v>
-      </c>
-      <c r="J16" s="29">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="N17" s="7">
         <v>34</v>
       </c>
-      <c r="L16" s="29">
-        <v>70</v>
-      </c>
-      <c r="M16" s="32">
-        <f>(1/F16*C16)^0.5</f>
-        <v>115.47005383792515</v>
-      </c>
-      <c r="N16" s="31">
-        <f t="shared" si="0"/>
-        <v>1.9606553225477539</v>
-      </c>
-      <c r="O16" s="31">
-        <f t="shared" si="1"/>
-        <v>18.910997459993919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30">
-        <f>F17^$C$23*C17^$C$26*K17^$C$25*C17^$C$24*10000</f>
-        <v>17.149858514250884</v>
-      </c>
-      <c r="C17" s="7">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="E17" s="30">
-        <f>C17/D17</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="F17" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G17" s="31">
-        <v>0.22</v>
-      </c>
-      <c r="H17" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="25">
-        <f>-0.0378257863 +0.00708508748*C17 -0.000022070865*C17^2</f>
-        <v>0.2612514252</v>
-      </c>
-      <c r="J17" s="29">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>34</v>
-      </c>
-      <c r="L17" s="29">
-        <v>80</v>
-      </c>
-      <c r="M17" s="32">
+      <c r="O17">
+        <v>250</v>
+      </c>
+      <c r="P17" s="11">
         <f>(1/F17*C17)^0.5</f>
-        <v>100</v>
-      </c>
-      <c r="N17" s="31">
-        <f t="shared" si="0"/>
-        <v>2.2679613879327172</v>
-      </c>
-      <c r="O17" s="31">
-        <f t="shared" si="1"/>
-        <v>21.875039204151232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B18" s="30">
-        <f>F18^$C$23*C18^$C$26*K18^$C$25*C18^$C$24*10000</f>
-        <v>19.174124721184256</v>
+        <v>316.22776601683796</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>($C$41*B17+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.93579345430778715</v>
+      </c>
+      <c r="R17" s="2">
+        <f>$C$43*(1-EXP(-1/((G17-$C$40)*$C$44)))*Q17</f>
+        <v>9.0259554721212218</v>
+      </c>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3">
+        <f>F18^$C$33*C18^$C$36*N18^$C$35*L18^$C$34*$C$37</f>
+        <v>6.5622109871109169</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="D18" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="E18" s="30">
+        <v>20.29</v>
+      </c>
+      <c r="E18" s="3">
         <f>C18/D18</f>
-        <v>23.52941176470588</v>
+        <v>5.9142434696895023</v>
       </c>
       <c r="F18" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="2">
         <v>0.22</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18">
         <v>0.2</v>
       </c>
-      <c r="I18" s="25">
-        <f>$C$27+$C$28*C18</f>
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="I18">
+        <v>240</v>
+      </c>
+      <c r="J18">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="L18" s="34">
+        <f>K18/100</f>
+        <v>6.8300000000000001E-3</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="K18" s="7">
+      <c r="N18" s="7">
         <v>34</v>
       </c>
-      <c r="L18" s="29">
+      <c r="O18">
+        <v>150</v>
+      </c>
+      <c r="P18" s="11">
+        <f>(1/F18*C18)^0.5</f>
+        <v>346.41016151377545</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>($C$41*B18+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.85188197624632722</v>
+      </c>
+      <c r="R18" s="2">
+        <f>$C$43*(1-EXP(-1/((G18-$C$40)*$C$44)))*Q18</f>
+        <v>8.2166088571218108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f>F19^$C$33*C19^$C$36*N19^$C$35*L19^$C$34*$C$37</f>
+        <v>5.8719997158891726</v>
+      </c>
+      <c r="C19" s="7">
+        <v>150</v>
+      </c>
+      <c r="D19" s="8">
+        <v>28.56</v>
+      </c>
+      <c r="E19" s="3">
+        <f>C19/D19</f>
+        <v>5.2521008403361344</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>240</v>
+      </c>
+      <c r="J19">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="L19" s="34">
+        <f>K19/100</f>
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>150</v>
+      </c>
+      <c r="P19" s="11">
+        <f>(1/F19*C19)^0.5</f>
+        <v>387.29833462074168</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>($C$41*B19+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.75956742115884535</v>
+      </c>
+      <c r="R19" s="2">
+        <f>$C$43*(1-EXP(-1/((G19-$C$40)*$C$44)))*Q19</f>
+        <v>7.3262125203953081</v>
+      </c>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3">
+        <f>F20^$C$33*C20^$C$36*N20^$C$35*L20^$C$34*$C$37</f>
+        <v>5.6851227388610237</v>
+      </c>
+      <c r="C20" s="7">
+        <v>160</v>
+      </c>
+      <c r="D20" s="8">
+        <v>31.41</v>
+      </c>
+      <c r="E20" s="3">
+        <f>C20/D20</f>
+        <v>5.0939191340337473</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>240</v>
+      </c>
+      <c r="J20">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0.91</v>
+      </c>
+      <c r="L20" s="34">
+        <f>K20/100</f>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>34</v>
+      </c>
+      <c r="O20">
+        <v>150</v>
+      </c>
+      <c r="P20" s="11">
+        <f>(1/F20*C20)^0.5</f>
         <v>400</v>
       </c>
-      <c r="M18" s="32">
-        <f>(1/F18*C18)^0.5</f>
-        <v>89.442719099991592</v>
-      </c>
-      <c r="N18" s="31">
-        <f t="shared" si="0"/>
-        <v>2.5387034665732195</v>
-      </c>
-      <c r="O18" s="31">
-        <f t="shared" si="1"/>
-        <v>24.486412403001339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B19" s="30">
-        <f>F19^$C$23*C19^$C$26*K19^$C$25*C19^$C$24*10000</f>
-        <v>20.291986247835695</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="Q20" s="2">
+        <f>($C$41*B20+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.73457295104549847</v>
+      </c>
+      <c r="R20" s="2">
+        <f>$C$43*(1-EXP(-1/((G20-$C$40)*$C$44)))*Q20</f>
+        <v>7.0851347769532884</v>
+      </c>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="3">
+        <f>F21^$C$33*C21^$C$36*N21^$C$35*L21^$C$34*$C$37</f>
+        <v>9.4655216854484117</v>
+      </c>
+      <c r="C21" s="7">
         <v>50</v>
       </c>
-      <c r="D19" s="8">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E19" s="30">
-        <f>C19/D19</f>
-        <v>24.630541871921185</v>
-      </c>
-      <c r="F19" s="17">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G19" s="31">
+      <c r="D21" s="8">
+        <v>5.81</v>
+      </c>
+      <c r="E21" s="3">
+        <f>C21/D21</f>
+        <v>8.6058519793459567</v>
+      </c>
+      <c r="F21" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G21" s="2">
         <v>0.22</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H21">
         <v>0.2</v>
       </c>
-      <c r="I19" s="25">
-        <f>$C$27+$C$28*C19</f>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="I21">
+        <v>240</v>
+      </c>
+      <c r="J21">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K21" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L21" s="34">
+        <f>K21/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="K19" s="7">
-        <v>34</v>
-      </c>
-      <c r="L19" s="29">
+      <c r="N21" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O21">
+        <v>300</v>
+      </c>
+      <c r="P21" s="11">
+        <f>(1/F21*C21)^0.5</f>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>($C$41*B21+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>1.2401947242015048</v>
+      </c>
+      <c r="R21" s="2">
+        <f>$C$43*(1-EXP(-1/((G21-$C$40)*$C$44)))*Q21</f>
+        <v>11.961979757256026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="3">
+        <f>F22^$C$33*C22^$C$36*N22^$C$35*L22^$C$34*$C$37</f>
+        <v>9.4787794392833309</v>
+      </c>
+      <c r="C22" s="7">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8">
+        <v>6.07</v>
+      </c>
+      <c r="E22" s="3">
+        <f>C22/D22</f>
+        <v>8.2372322899505761</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>250</v>
+      </c>
+      <c r="J22">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0.106</v>
+      </c>
+      <c r="L22" s="34">
+        <f>K22/100</f>
+        <v>1.06E-3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>105</v>
+      </c>
+      <c r="O22">
+        <v>300</v>
+      </c>
+      <c r="P22" s="11">
+        <f>(1/F22*C22)^0.5</f>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>($C$41*B22+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>1.2419679256801819</v>
+      </c>
+      <c r="R22" s="2">
+        <f>$C$43*(1-EXP(-1/((G22-$C$40)*$C$44)))*Q22</f>
+        <v>11.979082716799034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="3">
+        <f>F23^$C$33*C23^$C$36*N23^$C$35*L23^$C$34*$C$37</f>
+        <v>2.9932607767732864</v>
+      </c>
+      <c r="C23" s="7">
+        <v>50</v>
+      </c>
+      <c r="D23" s="8">
+        <v>19.14</v>
+      </c>
+      <c r="E23" s="3">
+        <f>C23/D23</f>
+        <v>2.6123301985370948</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>240</v>
+      </c>
+      <c r="J23">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K23" s="36">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L23" s="34">
+        <f>K23/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O23" s="11">
+        <f>P23</f>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="P23" s="11">
+        <f>(1/F23*C23)^0.5</f>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>($C$41*B23+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.37454110319233536</v>
+      </c>
+      <c r="R23" s="2">
+        <f>$C$43*(1-EXP(-1/((G23-$C$40)*$C$44)))*Q23</f>
+        <v>3.6125400368330478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <f>F24^$C$33*C24^$C$36*N24^$C$35*L24^$C$34*$C$37</f>
+        <v>4.5464074222856494</v>
+      </c>
+      <c r="C24" s="18">
+        <v>50</v>
+      </c>
+      <c r="D24" s="31">
+        <v>12.25</v>
+      </c>
+      <c r="E24" s="10">
+        <f>C24/D24</f>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="F24" s="39">
+        <v>2.307E-4</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="9">
+        <v>240</v>
+      </c>
+      <c r="J24" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K24" s="40">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L24" s="41">
+        <f>K24/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="18">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O24" s="33">
+        <f>P24</f>
+        <v>465.54450503954871</v>
+      </c>
+      <c r="P24" s="33">
+        <f>(1/F24*C24)^0.5</f>
+        <v>465.54450503954871</v>
+      </c>
+      <c r="Q24" s="32">
+        <f>($C$41*B24+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.58227176124475299</v>
+      </c>
+      <c r="R24" s="32">
+        <f>$C$43*(1-EXP(-1/((G24-$C$40)*$C$44)))*Q24</f>
+        <v>5.6161527583630226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <f>F25^$C$33*C25^$C$36*N25^$C$35*L25^$C$34*$C$37</f>
+        <v>4.0439665689090836</v>
+      </c>
+      <c r="C25" s="18">
         <v>100</v>
       </c>
-      <c r="M19" s="32">
-        <f>(1/F19*C19)^0.5</f>
-        <v>84.515425472851661</v>
-      </c>
-      <c r="N19" s="31">
-        <f t="shared" si="0"/>
-        <v>2.6882154983016719</v>
-      </c>
-      <c r="O19" s="31">
-        <f t="shared" si="1"/>
-        <v>25.928492313600429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="30">
-        <f>F20^$C$23*C20^$C$26*K20^$C$25*C20^$C$24*10000</f>
-        <v>21.693045781865614</v>
-      </c>
-      <c r="C20" s="7">
-        <v>50</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="E20" s="30">
-        <f>C20/D20</f>
-        <v>26.315789473684212</v>
-      </c>
-      <c r="F20" s="17">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G20" s="31">
+      <c r="D25" s="31">
+        <v>29.18</v>
+      </c>
+      <c r="E25" s="10">
+        <f>C25/D25</f>
+        <v>3.4270047978067169</v>
+      </c>
+      <c r="F25" s="39">
+        <v>3.6460000000000003E-4</v>
+      </c>
+      <c r="G25" s="32">
         <v>0.22</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H25" s="9">
         <v>0.2</v>
       </c>
-      <c r="I20" s="25">
-        <f>$C$27+$C$28*C20</f>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="I25" s="9">
+        <v>250</v>
+      </c>
+      <c r="J25" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0.21229000000000001</v>
+      </c>
+      <c r="L25" s="41">
+        <f>K25/100</f>
+        <v>2.1229E-3</v>
+      </c>
+      <c r="M25" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="7">
-        <v>34</v>
-      </c>
-      <c r="L20" s="29">
-        <v>70</v>
-      </c>
-      <c r="M20" s="32">
-        <f>(1/F20*C20)^0.5</f>
-        <v>79.05694150420949</v>
-      </c>
-      <c r="N20" s="31">
-        <f t="shared" si="0"/>
-        <v>2.8756047701489784</v>
-      </c>
-      <c r="O20" s="31">
-        <f t="shared" si="1"/>
-        <v>27.735907417714532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="24"/>
-      <c r="K21" s="15"/>
-      <c r="M21" s="27"/>
-    </row>
-    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="N25" s="18">
+        <v>105.02</v>
+      </c>
+      <c r="O25" s="33">
+        <f>P25</f>
+        <v>523.71096616681518</v>
+      </c>
+      <c r="P25" s="33">
+        <f>(1/F25*C25)^0.5</f>
+        <v>523.71096616681518</v>
+      </c>
+      <c r="Q25" s="32">
+        <f>($C$41*B25+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.51507117242340494</v>
+      </c>
+      <c r="R25" s="32">
+        <f>$C$43*(1-EXP(-1/((G25-$C$40)*$C$44)))*Q25</f>
+        <v>4.9679867345362334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="10">
+        <f>F26^$C$33*C26^$C$36*N26^$C$35*L26^$C$34*$C$37</f>
+        <v>4.2461061118655543</v>
+      </c>
+      <c r="C26" s="18">
+        <v>150</v>
+      </c>
+      <c r="D26" s="31">
+        <v>45.6</v>
+      </c>
+      <c r="E26" s="10">
+        <f>C26/D26</f>
+        <v>3.2894736842105261</v>
+      </c>
+      <c r="F26" s="39">
+        <v>5.5639999999999997E-4</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="9">
+        <v>260</v>
+      </c>
+      <c r="J26" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0.1188</v>
+      </c>
+      <c r="L26" s="41">
+        <f>K26/100</f>
+        <v>1.188E-3</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="18">
+        <v>259.77</v>
+      </c>
+      <c r="O26" s="33">
+        <f>P26</f>
+        <v>519.22078431169427</v>
+      </c>
+      <c r="P26" s="33">
+        <f>(1/F26*C26)^0.5</f>
+        <v>519.22078431169427</v>
+      </c>
+      <c r="Q26" s="32">
+        <f>($C$41*B26+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.54210698414027636</v>
+      </c>
+      <c r="R26" s="32">
+        <f>$C$43*(1-EXP(-1/((G26-$C$40)*$C$44)))*Q26</f>
+        <v>5.2287537142429255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="10">
+        <f>F27^$C$33*C27^$C$36*N27^$C$35*L27^$C$34*$C$37</f>
+        <v>9.0434361758540334</v>
+      </c>
+      <c r="C27" s="18">
+        <v>20</v>
+      </c>
+      <c r="D27" s="31">
+        <v>2.54</v>
+      </c>
+      <c r="E27" s="10">
+        <f>C27/D27</f>
+        <v>7.8740157480314963</v>
+      </c>
+      <c r="F27" s="39">
+        <v>3.6460000000000003E-4</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>250</v>
+      </c>
+      <c r="J27" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K27" s="40">
+        <v>4.2450000000000002E-2</v>
+      </c>
+      <c r="L27" s="41">
+        <f>K27/100</f>
+        <v>4.2450000000000002E-4</v>
+      </c>
+      <c r="M27" s="9">
+        <v>1</v>
+      </c>
+      <c r="N27" s="18">
+        <v>105.02</v>
+      </c>
+      <c r="O27" s="33">
+        <f>P27</f>
+        <v>234.21066418221824</v>
+      </c>
+      <c r="P27" s="33">
+        <f>(1/F27*C27)^0.5</f>
+        <v>234.21066418221824</v>
+      </c>
+      <c r="Q27" s="32">
+        <f>($C$41*B27+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>1.1837415226214918</v>
+      </c>
+      <c r="R27" s="32">
+        <f>$C$43*(1-EXP(-1/((G27-$C$40)*$C$44)))*Q27</f>
+        <v>11.417474897370257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+    </row>
+    <row r="29" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+    </row>
+    <row r="30" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+    </row>
+    <row r="31" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="12"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="24"/>
+      <c r="N31" s="15"/>
+      <c r="P31" s="27"/>
+    </row>
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16">
-        <f>MAX(C2:C20)/MIN(C2:C20)</f>
+      <c r="C32" s="16">
+        <f>MAX(C2:C26)/MIN(C2:C26)</f>
         <v>20</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="F22" s="16">
-        <f>MAX(F2:F20)/MIN(F2:F20)</f>
+      <c r="D32" s="23"/>
+      <c r="F32" s="16">
+        <f>MAX(F2:F26)/MIN(F2:F26)</f>
         <v>80</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="I22" s="5"/>
-      <c r="K22" s="16">
-        <f>MAX(K2:K20)/MIN(K2:K20)</f>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="G32" s="2"/>
+      <c r="K32" s="16">
+        <f>MAX(K2:K26)/MIN(K2:K26)</f>
+        <v>20</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="N32" s="16">
+        <f>MAX(N2:N26)/MIN(N2:N26)</f>
+        <v>21.647499999999997</v>
+      </c>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C33" s="7">
         <v>0.5</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="17" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G33" s="19">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24">
-        <v>-0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="34">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="34">
-        <v>7.6696498884736997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="34">
-        <v>1.2348433000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="34">
-        <v>-0.23822225</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="34">
-        <v>9.64886439</v>
-      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="34">
-        <v>6.3389040699999999</v>
+        <v>8</v>
+      </c>
+      <c r="C34" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>-0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="30">
+        <f>1/175.4</f>
+        <v>5.7012542759407071E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="30">
+        <v>7.6696498884736997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="30">
+        <v>1.2348433000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="30">
+        <v>-0.23822225</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="30">
+        <v>9.64886439</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="30">
+        <v>6.3389040699999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>240</v>
+      </c>
+      <c r="C47" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>240</v>
+      </c>
+      <c r="C48" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>240</v>
+      </c>
+      <c r="C49" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>240</v>
+      </c>
+      <c r="C50" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>240</v>
+      </c>
+      <c r="C51" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>240</v>
+      </c>
+      <c r="C52" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>240</v>
+      </c>
+      <c r="C53" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>240</v>
+      </c>
+      <c r="C54" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>240</v>
+      </c>
+      <c r="C55" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>240</v>
+      </c>
+      <c r="C56" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>240</v>
+      </c>
+      <c r="C57" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>240</v>
+      </c>
+      <c r="C58" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>240</v>
+      </c>
+      <c r="C59" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>240</v>
+      </c>
+      <c r="C60" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>240</v>
+      </c>
+      <c r="C61" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>240</v>
+      </c>
+      <c r="C62" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>240</v>
+      </c>
+      <c r="C63" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>240</v>
+      </c>
+      <c r="C64" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>240</v>
+      </c>
+      <c r="C65" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>240</v>
+      </c>
+      <c r="C66" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>240</v>
+      </c>
+      <c r="C67" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>240</v>
+      </c>
+      <c r="C68" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>240</v>
+      </c>
+      <c r="C69" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>240</v>
+      </c>
+      <c r="C70" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>240</v>
+      </c>
+      <c r="C71" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>240</v>
+      </c>
+      <c r="C72" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>240</v>
+      </c>
+      <c r="C73" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>240</v>
+      </c>
+      <c r="C74" s="7">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>250</v>
+      </c>
+      <c r="C75" s="7">
+        <v>504.2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>260</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>270</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
-        <f t="shared" ref="B40:B69" si="2">G40</f>
+    <row r="82" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B82" s="26">
+        <f t="shared" ref="B82:B111" si="0">G82</f>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C82" s="15">
         <v>50</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D82" s="13">
         <v>18.66</v>
       </c>
-      <c r="E40" s="14">
-        <f t="shared" ref="E40:E69" si="3">C40/D40</f>
+      <c r="E82" s="14">
+        <f t="shared" ref="E82:E111" si="1">C82/D82</f>
         <v>2.679528403001072</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F82" s="20">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G82" s="26">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H82" s="6">
         <v>0.2</v>
       </c>
-      <c r="I40" s="24">
-        <f t="shared" ref="I40:I69" si="4">$C$27+$C$28*C40</f>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J40" s="6">
+      <c r="K82" s="38">
+        <f t="shared" ref="K82:K111" si="2">$C$37+$C$38*C82</f>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L82" s="24"/>
+      <c r="M82" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="15">
+      <c r="N82" s="15">
         <v>34</v>
       </c>
-      <c r="L40" s="6">
+      <c r="O82" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B41" s="26">
+    <row r="83" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B83" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="C83" s="15">
+        <v>50</v>
+      </c>
+      <c r="D83" s="13">
+        <v>16.86</v>
+      </c>
+      <c r="E83" s="14">
+        <f t="shared" si="1"/>
+        <v>2.9655990510083039</v>
+      </c>
+      <c r="F83" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G83" s="26">
+        <v>-0.5</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K83" s="38">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="C41" s="15">
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L83" s="24"/>
+      <c r="M83" s="6">
+        <v>1</v>
+      </c>
+      <c r="N83" s="15">
+        <v>34</v>
+      </c>
+      <c r="O83" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B84" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.45</v>
+      </c>
+      <c r="C84" s="15">
         <v>50</v>
       </c>
-      <c r="D41" s="13">
-        <v>16.86</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="D84" s="13">
+        <v>15.02</v>
+      </c>
+      <c r="E84" s="14">
+        <f t="shared" si="1"/>
+        <v>3.3288948069241013</v>
+      </c>
+      <c r="F84" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G84" s="26">
+        <v>-0.45</v>
+      </c>
+      <c r="H84" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K84" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L84" s="24"/>
+      <c r="M84" s="6">
+        <v>1</v>
+      </c>
+      <c r="N84" s="15">
+        <v>34</v>
+      </c>
+      <c r="O84" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B85" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="C85" s="15">
+        <v>50</v>
+      </c>
+      <c r="D85" s="13">
+        <v>13.37</v>
+      </c>
+      <c r="E85" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7397157816005984</v>
+      </c>
+      <c r="F85" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G85" s="26">
+        <v>-0.4</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K85" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L85" s="24"/>
+      <c r="M85" s="6">
+        <v>1</v>
+      </c>
+      <c r="N85" s="15">
+        <v>34</v>
+      </c>
+      <c r="O85" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B86" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="C86" s="15">
+        <v>50</v>
+      </c>
+      <c r="D86" s="13">
+        <v>10.14</v>
+      </c>
+      <c r="E86" s="14">
+        <f t="shared" si="1"/>
+        <v>4.9309664694280073</v>
+      </c>
+      <c r="F86" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G86" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="H86" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K86" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L86" s="24"/>
+      <c r="M86" s="6">
+        <v>1</v>
+      </c>
+      <c r="N86" s="15">
+        <v>34</v>
+      </c>
+      <c r="O86" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B87" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="C87" s="15">
+        <v>50</v>
+      </c>
+      <c r="D87" s="13">
+        <v>8.58</v>
+      </c>
+      <c r="E87" s="14">
+        <f t="shared" si="1"/>
+        <v>5.8275058275058278</v>
+      </c>
+      <c r="F87" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G87" s="26">
+        <v>-0.25</v>
+      </c>
+      <c r="H87" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L87" s="24"/>
+      <c r="M87" s="6">
+        <v>1</v>
+      </c>
+      <c r="N87" s="15">
+        <v>34</v>
+      </c>
+      <c r="O87" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B88" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="C88" s="15">
+        <v>50</v>
+      </c>
+      <c r="D88" s="13">
+        <v>7.06</v>
+      </c>
+      <c r="E88" s="14">
+        <f t="shared" si="1"/>
+        <v>7.0821529745042495</v>
+      </c>
+      <c r="F88" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G88" s="26">
+        <v>-0.2</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K88" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L88" s="24"/>
+      <c r="M88" s="6">
+        <v>1</v>
+      </c>
+      <c r="N88" s="15">
+        <v>34</v>
+      </c>
+      <c r="O88" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B89" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+      <c r="C89" s="15">
+        <v>50</v>
+      </c>
+      <c r="D89" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="E89" s="14">
+        <f t="shared" si="1"/>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="F89" s="20">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G89" s="26">
+        <v>-0.15</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K89" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L89" s="24"/>
+      <c r="M89" s="6">
+        <v>1</v>
+      </c>
+      <c r="N89" s="15">
+        <v>34</v>
+      </c>
+      <c r="O89" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B90" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
+      <c r="C90" s="15">
+        <v>50</v>
+      </c>
+      <c r="D90" s="13">
+        <v>4.84</v>
+      </c>
+      <c r="E90" s="14">
+        <f t="shared" si="1"/>
+        <v>10.330578512396695</v>
+      </c>
+      <c r="F90" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G90" s="26">
+        <v>-0.125</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K90" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L90" s="24"/>
+      <c r="M90" s="6">
+        <v>1</v>
+      </c>
+      <c r="N90" s="15">
+        <v>34</v>
+      </c>
+      <c r="O90" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B91" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="C91" s="15">
+        <v>50</v>
+      </c>
+      <c r="D91" s="13">
+        <v>4.13</v>
+      </c>
+      <c r="E91" s="14">
+        <f t="shared" si="1"/>
+        <v>12.106537530266344</v>
+      </c>
+      <c r="F91" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G91" s="26">
+        <v>-0.1</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K91" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L91" s="24"/>
+      <c r="M91" s="6">
+        <v>1</v>
+      </c>
+      <c r="N91" s="15">
+        <v>34</v>
+      </c>
+      <c r="O91" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B92" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.09</v>
+      </c>
+      <c r="C92" s="15">
+        <v>50</v>
+      </c>
+      <c r="D92" s="13">
+        <v>3.84</v>
+      </c>
+      <c r="E92" s="14">
+        <f t="shared" si="1"/>
+        <v>13.020833333333334</v>
+      </c>
+      <c r="F92" s="20">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="G92" s="26">
+        <v>-0.09</v>
+      </c>
+      <c r="H92" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K92" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L92" s="24"/>
+      <c r="M92" s="6">
+        <v>1</v>
+      </c>
+      <c r="N92" s="15">
+        <v>34</v>
+      </c>
+      <c r="O92" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B93" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.08</v>
+      </c>
+      <c r="C93" s="15">
+        <v>50</v>
+      </c>
+      <c r="D93" s="13">
+        <v>3.54</v>
+      </c>
+      <c r="E93" s="14">
+        <f t="shared" si="1"/>
+        <v>14.124293785310734</v>
+      </c>
+      <c r="F93" s="20">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="G93" s="26">
+        <v>-0.08</v>
+      </c>
+      <c r="H93" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K93" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L93" s="24"/>
+      <c r="M93" s="6">
+        <v>1</v>
+      </c>
+      <c r="N93" s="15">
+        <v>34</v>
+      </c>
+      <c r="O93" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B94" s="26">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C94" s="15">
+        <v>50</v>
+      </c>
+      <c r="D94" s="13">
+        <v>3.23</v>
+      </c>
+      <c r="E94" s="14">
+        <f t="shared" si="1"/>
+        <v>15.479876160990711</v>
+      </c>
+      <c r="F94" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G94" s="26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K94" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L94" s="24"/>
+      <c r="M94" s="6">
+        <v>1</v>
+      </c>
+      <c r="N94" s="15">
+        <v>34</v>
+      </c>
+      <c r="O94" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B95" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.06</v>
+      </c>
+      <c r="C95" s="15">
+        <v>50</v>
+      </c>
+      <c r="D95" s="13">
+        <v>2.93</v>
+      </c>
+      <c r="E95" s="14">
+        <f t="shared" si="1"/>
+        <v>17.064846416382252</v>
+      </c>
+      <c r="F95" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G95" s="26">
+        <v>-0.06</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K95" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L95" s="24"/>
+      <c r="M95" s="6">
+        <v>1</v>
+      </c>
+      <c r="N95" s="15">
+        <v>34</v>
+      </c>
+      <c r="O95" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B96" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.05</v>
+      </c>
+      <c r="C96" s="15">
+        <v>50</v>
+      </c>
+      <c r="D96" s="13">
+        <v>2.75</v>
+      </c>
+      <c r="E96" s="14">
+        <f t="shared" si="1"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="F96" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G96" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K96" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L96" s="24"/>
+      <c r="M96" s="6">
+        <v>1</v>
+      </c>
+      <c r="N96" s="15">
+        <v>34</v>
+      </c>
+      <c r="O96" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B97" s="26">
+        <f t="shared" si="0"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="C97" s="15">
+        <v>50</v>
+      </c>
+      <c r="D97" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E97" s="14">
+        <f t="shared" si="1"/>
+        <v>20.242914979757085</v>
+      </c>
+      <c r="F97" s="20">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G97" s="26">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K97" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L97" s="24"/>
+      <c r="M97" s="6">
+        <v>1</v>
+      </c>
+      <c r="N97" s="15">
+        <v>34</v>
+      </c>
+      <c r="O97" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B98" s="26">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="C98" s="15">
+        <v>50</v>
+      </c>
+      <c r="D98" s="13">
+        <v>2.15</v>
+      </c>
+      <c r="E98" s="14">
+        <f t="shared" si="1"/>
+        <v>23.255813953488374</v>
+      </c>
+      <c r="F98" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G98" s="26">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K98" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L98" s="24"/>
+      <c r="M98" s="6">
+        <v>1</v>
+      </c>
+      <c r="N98" s="15">
+        <v>34</v>
+      </c>
+      <c r="O98" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B99" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="C99" s="15">
+        <v>50</v>
+      </c>
+      <c r="D99" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="E99" s="14">
+        <f t="shared" si="1"/>
+        <v>27.624309392265193</v>
+      </c>
+      <c r="F99" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G99" s="26">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K99" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L99" s="24"/>
+      <c r="M99" s="6">
+        <v>1</v>
+      </c>
+      <c r="N99" s="15">
+        <v>34</v>
+      </c>
+      <c r="O99" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B100" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2499999999999999E-2</v>
+      </c>
+      <c r="C100" s="15">
+        <v>50</v>
+      </c>
+      <c r="D100" s="13">
+        <v>1.72</v>
+      </c>
+      <c r="E100" s="14">
+        <f t="shared" si="1"/>
+        <v>29.069767441860467</v>
+      </c>
+      <c r="F100" s="20">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G100" s="26">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+      <c r="H100" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K100" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L100" s="24"/>
+      <c r="M100" s="6">
+        <v>1</v>
+      </c>
+      <c r="N100" s="15">
+        <v>34</v>
+      </c>
+      <c r="O100" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B101" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2225</v>
+      </c>
+      <c r="C101" s="15">
+        <v>50</v>
+      </c>
+      <c r="D101" s="13">
+        <v>5.45</v>
+      </c>
+      <c r="E101" s="14">
+        <f t="shared" si="1"/>
+        <v>9.1743119266055047</v>
+      </c>
+      <c r="F101" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G101" s="26">
+        <v>0.2225</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K101" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L101" s="24"/>
+      <c r="M101" s="6">
+        <v>1</v>
+      </c>
+      <c r="N101" s="15">
+        <v>34</v>
+      </c>
+      <c r="O101" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B102" s="26">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C102" s="15">
+        <v>50</v>
+      </c>
+      <c r="D102" s="13">
+        <v>5.46</v>
+      </c>
+      <c r="E102" s="14">
+        <f t="shared" si="1"/>
+        <v>9.1575091575091569</v>
+      </c>
+      <c r="F102" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G102" s="26">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K102" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L102" s="24"/>
+      <c r="M102" s="6">
+        <v>1</v>
+      </c>
+      <c r="N102" s="15">
+        <v>34</v>
+      </c>
+      <c r="O102" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B103" s="26">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="C103" s="15">
+        <v>50</v>
+      </c>
+      <c r="D103" s="13">
+        <v>5.52</v>
+      </c>
+      <c r="E103" s="14">
+        <f t="shared" si="1"/>
+        <v>9.0579710144927539</v>
+      </c>
+      <c r="F103" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G103" s="26">
+        <v>0.23</v>
+      </c>
+      <c r="H103" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K103" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L103" s="24"/>
+      <c r="M103" s="6">
+        <v>1</v>
+      </c>
+      <c r="N103" s="15">
+        <v>34</v>
+      </c>
+      <c r="O103" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B104" s="26">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="C104" s="15">
+        <v>50</v>
+      </c>
+      <c r="D104" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="E104" s="14">
+        <f t="shared" si="1"/>
+        <v>8.7719298245614024</v>
+      </c>
+      <c r="F104" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G104" s="26">
+        <v>0.24</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K104" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L104" s="24"/>
+      <c r="M104" s="6">
+        <v>1</v>
+      </c>
+      <c r="N104" s="15">
+        <v>34</v>
+      </c>
+      <c r="O104" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B105" s="26">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="C105" s="15">
+        <v>50</v>
+      </c>
+      <c r="D105" s="13">
+        <v>6.14</v>
+      </c>
+      <c r="E105" s="14">
+        <f t="shared" si="1"/>
+        <v>8.1433224755700326</v>
+      </c>
+      <c r="F105" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G105" s="26">
+        <v>0.26</v>
+      </c>
+      <c r="H105" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K105" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L105" s="24"/>
+      <c r="M105" s="6">
+        <v>1</v>
+      </c>
+      <c r="N105" s="15">
+        <v>34</v>
+      </c>
+      <c r="O105" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B106" s="26">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C106" s="15">
+        <v>50</v>
+      </c>
+      <c r="D106" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="E106" s="14">
+        <f t="shared" si="1"/>
+        <v>7.5075075075075075</v>
+      </c>
+      <c r="F106" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G106" s="26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K106" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L106" s="24"/>
+      <c r="M106" s="6">
+        <v>1</v>
+      </c>
+      <c r="N106" s="15">
+        <v>34</v>
+      </c>
+      <c r="O106" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B107" s="26">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="C107" s="15">
+        <v>50</v>
+      </c>
+      <c r="D107" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="E107" s="14">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="F107" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G107" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="H107" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K107" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L107" s="24"/>
+      <c r="M107" s="6">
+        <v>1</v>
+      </c>
+      <c r="N107" s="15">
+        <v>34</v>
+      </c>
+      <c r="O107" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B108" s="26">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="C108" s="15">
+        <v>50</v>
+      </c>
+      <c r="D108" s="13">
+        <v>8.61</v>
+      </c>
+      <c r="E108" s="14">
+        <f t="shared" si="1"/>
+        <v>5.8072009291521489</v>
+      </c>
+      <c r="F108" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G108" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="H108" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K108" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L108" s="24"/>
+      <c r="M108" s="6">
+        <v>1</v>
+      </c>
+      <c r="N108" s="15">
+        <v>34</v>
+      </c>
+      <c r="O108" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B109" s="26">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C109" s="15">
+        <v>50</v>
+      </c>
+      <c r="D109" s="13">
+        <v>10.09</v>
+      </c>
+      <c r="E109" s="14">
+        <f t="shared" si="1"/>
+        <v>4.9554013875123886</v>
+      </c>
+      <c r="F109" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G109" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H109" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K109" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L109" s="24"/>
+      <c r="M109" s="6">
+        <v>1</v>
+      </c>
+      <c r="N109" s="15">
+        <v>34</v>
+      </c>
+      <c r="O109" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B110" s="26">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C110" s="15">
+        <v>50</v>
+      </c>
+      <c r="D110" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="E110" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7878787878787881</v>
+      </c>
+      <c r="F110" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G110" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H110" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K110" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L110" s="24"/>
+      <c r="M110" s="6">
+        <v>1</v>
+      </c>
+      <c r="N110" s="15">
+        <v>34</v>
+      </c>
+      <c r="O110" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B111" s="26">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="C111" s="15">
+        <v>50</v>
+      </c>
+      <c r="D111" s="13">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="E111" s="14">
+        <f t="shared" si="1"/>
+        <v>3.0193236714975846</v>
+      </c>
+      <c r="F111" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="G111" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H111" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K111" s="38">
+        <f t="shared" si="2"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L111" s="24"/>
+      <c r="M111" s="6">
+        <v>1</v>
+      </c>
+      <c r="N111" s="15">
+        <v>34</v>
+      </c>
+      <c r="O111" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B112" s="28"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="9"/>
+    </row>
+    <row r="113" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B113" s="19">
+        <f t="shared" ref="B113:B125" si="3">G113</f>
+        <v>-0.3</v>
+      </c>
+      <c r="C113" s="7">
+        <v>100</v>
+      </c>
+      <c r="D113" s="8">
+        <v>29.91</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" ref="E113:E125" si="4">C113/D113</f>
+        <v>3.3433634236041456</v>
+      </c>
+      <c r="F113" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G113" s="19">
+        <v>-0.3</v>
+      </c>
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+      <c r="K113" s="37">
+        <f t="shared" ref="K113:K125" si="5">$C$37+$C$38*C113</f>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L113" s="25"/>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113" s="7">
+        <v>34</v>
+      </c>
+      <c r="O113">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B114" s="19">
         <f t="shared" si="3"/>
-        <v>2.9655990510083039</v>
-      </c>
-      <c r="F41" s="20">
+        <v>-0.2</v>
+      </c>
+      <c r="C114" s="7">
+        <v>100</v>
+      </c>
+      <c r="D114" s="8">
+        <v>20.72</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8262548262548268</v>
+      </c>
+      <c r="F114" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G41" s="26">
-        <v>-0.5</v>
-      </c>
-      <c r="H41" s="6">
+      <c r="G114" s="19">
+        <v>-0.2</v>
+      </c>
+      <c r="H114">
         <v>0.2</v>
       </c>
-      <c r="I41" s="24">
+      <c r="K114" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L114" s="25"/>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" s="7">
+        <v>34</v>
+      </c>
+      <c r="O114">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B115" s="19">
+        <f t="shared" si="3"/>
+        <v>-0.1</v>
+      </c>
+      <c r="C115" s="7">
+        <v>100</v>
+      </c>
+      <c r="D115" s="8">
+        <v>12.02</v>
+      </c>
+      <c r="E115" s="3">
         <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J41" s="6">
+        <v>8.3194675540765388</v>
+      </c>
+      <c r="F115" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G115" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="H115">
+        <v>0.2</v>
+      </c>
+      <c r="K115" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L115" s="25"/>
+      <c r="M115">
         <v>1</v>
       </c>
-      <c r="K41" s="15">
+      <c r="N115" s="7">
         <v>34</v>
       </c>
-      <c r="L41" s="6">
+      <c r="O115">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B116" s="19">
+        <f t="shared" si="3"/>
+        <v>-0.05</v>
+      </c>
+      <c r="C116" s="7">
+        <v>100</v>
+      </c>
+      <c r="D116" s="8">
+        <v>7.62</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="4"/>
+        <v>13.123359580052494</v>
+      </c>
+      <c r="F116" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G116" s="19">
+        <v>-0.05</v>
+      </c>
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+      <c r="K116" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L116" s="25"/>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116" s="7">
+        <v>34</v>
+      </c>
+      <c r="O116">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B117" s="19">
+        <f t="shared" si="3"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="C117" s="7">
+        <v>100</v>
+      </c>
+      <c r="D117" s="8">
+        <v>7.17</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="4"/>
+        <v>13.947001394700139</v>
+      </c>
+      <c r="F117" s="17">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G117" s="19">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="H117">
+        <v>0.2</v>
+      </c>
+      <c r="K117" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L117" s="25"/>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" s="7">
+        <v>34</v>
+      </c>
+      <c r="O117">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B118" s="19">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="C118" s="7">
+        <v>100</v>
+      </c>
+      <c r="D118" s="8">
+        <v>6.22</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="4"/>
+        <v>16.077170418006432</v>
+      </c>
+      <c r="F118" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G118" s="19">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+      <c r="K118" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L118" s="25"/>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" s="7">
+        <v>34</v>
+      </c>
+      <c r="O118">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B119" s="19">
+        <f t="shared" si="3"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="C119" s="7">
+        <v>100</v>
+      </c>
+      <c r="D119" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="E119" s="3">
+        <f t="shared" si="4"/>
+        <v>19.120458891013381</v>
+      </c>
+      <c r="F119" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G119" s="19">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="H119">
+        <v>0.2</v>
+      </c>
+      <c r="K119" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L119" s="25"/>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" s="7">
+        <v>34</v>
+      </c>
+      <c r="O119">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B120" s="19">
+        <f t="shared" si="3"/>
+        <v>0.2225</v>
+      </c>
+      <c r="C120" s="7">
+        <v>100</v>
+      </c>
+      <c r="D120" s="8">
+        <v>15.99</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" si="4"/>
+        <v>6.2539086929330834</v>
+      </c>
+      <c r="F120" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G120" s="19">
+        <v>0.2225</v>
+      </c>
+      <c r="H120">
+        <v>0.2</v>
+      </c>
+      <c r="K120" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L120" s="25"/>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120" s="7">
+        <v>34</v>
+      </c>
+      <c r="O120">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B121" s="19">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C121" s="7">
+        <v>100</v>
+      </c>
+      <c r="D121" s="8">
+        <v>16.02</v>
+      </c>
+      <c r="E121" s="3">
+        <f t="shared" si="4"/>
+        <v>6.2421972534332086</v>
+      </c>
+      <c r="F121" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G121" s="19">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="K121" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L121" s="25"/>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121" s="7">
+        <v>34</v>
+      </c>
+      <c r="O121">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B122" s="19">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="C122" s="7">
+        <v>100</v>
+      </c>
+      <c r="D122" s="8">
+        <v>16.61</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" si="4"/>
+        <v>6.0204695966285371</v>
+      </c>
+      <c r="F122" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G122" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+      <c r="K122" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L122" s="25"/>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122" s="7">
+        <v>34</v>
+      </c>
+      <c r="O122">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B123" s="19">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="C123" s="7">
+        <v>100</v>
+      </c>
+      <c r="D123" s="8">
+        <v>17.87</v>
+      </c>
+      <c r="E123" s="3">
+        <f t="shared" si="4"/>
+        <v>5.5959709009513148</v>
+      </c>
+      <c r="F123" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G123" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+      <c r="K123" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L123" s="25"/>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" s="7">
+        <v>34</v>
+      </c>
+      <c r="O123">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B124" s="19">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="C124" s="7">
+        <v>100</v>
+      </c>
+      <c r="D124" s="8">
+        <v>21.02</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="4"/>
+        <v>4.7573739295908659</v>
+      </c>
+      <c r="F124" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="G124" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="H124">
+        <v>0.2</v>
+      </c>
+      <c r="K124" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L124" s="25"/>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" s="7">
+        <v>34</v>
+      </c>
+      <c r="O124">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B42" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.45</v>
-      </c>
-      <c r="C42" s="15">
-        <v>50</v>
-      </c>
-      <c r="D42" s="13">
-        <v>15.02</v>
-      </c>
-      <c r="E42" s="14">
+    <row r="125" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B125" s="19">
         <f t="shared" si="3"/>
-        <v>3.3288948069241013</v>
-      </c>
-      <c r="F42" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C125" s="7">
+        <v>100</v>
+      </c>
+      <c r="D125" s="8">
+        <v>29.66</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3715441672285906</v>
+      </c>
+      <c r="F125" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G42" s="26">
-        <v>-0.45</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="G125" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="H125">
         <v>0.2</v>
       </c>
-      <c r="I42" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J42" s="6">
+      <c r="K125" s="37">
+        <f t="shared" si="5"/>
+        <v>100.57012542759406</v>
+      </c>
+      <c r="L125" s="25"/>
+      <c r="M125">
         <v>1</v>
       </c>
-      <c r="K42" s="15">
+      <c r="N125" s="7">
         <v>34</v>
       </c>
-      <c r="L42" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B43" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.4</v>
-      </c>
-      <c r="C43" s="15">
-        <v>50</v>
-      </c>
-      <c r="D43" s="13">
-        <v>13.37</v>
-      </c>
-      <c r="E43" s="14">
-        <f t="shared" si="3"/>
-        <v>3.7397157816005984</v>
-      </c>
-      <c r="F43" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G43" s="26">
-        <v>-0.4</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I43" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J43" s="6">
-        <v>1</v>
-      </c>
-      <c r="K43" s="15">
-        <v>34</v>
-      </c>
-      <c r="L43" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B44" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.3</v>
-      </c>
-      <c r="C44" s="15">
-        <v>50</v>
-      </c>
-      <c r="D44" s="13">
-        <v>10.14</v>
-      </c>
-      <c r="E44" s="14">
-        <f t="shared" si="3"/>
-        <v>4.9309664694280073</v>
-      </c>
-      <c r="F44" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G44" s="26">
-        <v>-0.3</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I44" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J44" s="6">
-        <v>1</v>
-      </c>
-      <c r="K44" s="15">
-        <v>34</v>
-      </c>
-      <c r="L44" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B45" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.25</v>
-      </c>
-      <c r="C45" s="15">
-        <v>50</v>
-      </c>
-      <c r="D45" s="13">
-        <v>8.58</v>
-      </c>
-      <c r="E45" s="14">
-        <f t="shared" si="3"/>
-        <v>5.8275058275058278</v>
-      </c>
-      <c r="F45" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G45" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I45" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1</v>
-      </c>
-      <c r="K45" s="15">
-        <v>34</v>
-      </c>
-      <c r="L45" s="6">
+      <c r="O125">
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B46" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.2</v>
-      </c>
-      <c r="C46" s="15">
-        <v>50</v>
-      </c>
-      <c r="D46" s="13">
-        <v>7.06</v>
-      </c>
-      <c r="E46" s="14">
-        <f t="shared" si="3"/>
-        <v>7.0821529745042495</v>
-      </c>
-      <c r="F46" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G46" s="26">
-        <v>-0.2</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I46" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J46" s="6">
-        <v>1</v>
-      </c>
-      <c r="K46" s="15">
-        <v>34</v>
-      </c>
-      <c r="L46" s="6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B47" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.15</v>
-      </c>
-      <c r="C47" s="15">
-        <v>50</v>
-      </c>
-      <c r="D47" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="E47" s="14">
-        <f t="shared" si="3"/>
-        <v>8.9285714285714288</v>
-      </c>
-      <c r="F47" s="20">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G47" s="26">
-        <v>-0.15</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I47" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1</v>
-      </c>
-      <c r="K47" s="15">
-        <v>34</v>
-      </c>
-      <c r="L47" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B48" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.125</v>
-      </c>
-      <c r="C48" s="15">
-        <v>50</v>
-      </c>
-      <c r="D48" s="13">
-        <v>4.84</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" si="3"/>
-        <v>10.330578512396695</v>
-      </c>
-      <c r="F48" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G48" s="26">
-        <v>-0.125</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I48" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J48" s="6">
-        <v>1</v>
-      </c>
-      <c r="K48" s="15">
-        <v>34</v>
-      </c>
-      <c r="L48" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B49" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.1</v>
-      </c>
-      <c r="C49" s="15">
-        <v>50</v>
-      </c>
-      <c r="D49" s="13">
-        <v>4.13</v>
-      </c>
-      <c r="E49" s="14">
-        <f t="shared" si="3"/>
-        <v>12.106537530266344</v>
-      </c>
-      <c r="F49" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G49" s="26">
-        <v>-0.1</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I49" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1</v>
-      </c>
-      <c r="K49" s="15">
-        <v>34</v>
-      </c>
-      <c r="L49" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B50" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.09</v>
-      </c>
-      <c r="C50" s="15">
-        <v>50</v>
-      </c>
-      <c r="D50" s="13">
-        <v>3.84</v>
-      </c>
-      <c r="E50" s="14">
-        <f t="shared" si="3"/>
-        <v>13.020833333333334</v>
-      </c>
-      <c r="F50" s="20">
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="G50" s="26">
-        <v>-0.09</v>
-      </c>
-      <c r="H50" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="I50" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="15">
-        <v>34</v>
-      </c>
-      <c r="L50" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B51" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.08</v>
-      </c>
-      <c r="C51" s="15">
-        <v>50</v>
-      </c>
-      <c r="D51" s="13">
-        <v>3.54</v>
-      </c>
-      <c r="E51" s="14">
-        <f t="shared" si="3"/>
-        <v>14.124293785310734</v>
-      </c>
-      <c r="F51" s="20">
-        <v>2.0009999999999999</v>
-      </c>
-      <c r="G51" s="26">
-        <v>-0.08</v>
-      </c>
-      <c r="H51" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I51" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J51" s="6">
-        <v>1</v>
-      </c>
-      <c r="K51" s="15">
-        <v>34</v>
-      </c>
-      <c r="L51" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B52" s="26">
-        <f t="shared" si="2"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C52" s="15">
-        <v>50</v>
-      </c>
-      <c r="D52" s="13">
-        <v>3.23</v>
-      </c>
-      <c r="E52" s="14">
-        <f t="shared" si="3"/>
-        <v>15.479876160990711</v>
-      </c>
-      <c r="F52" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G52" s="26">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I52" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J52" s="6">
-        <v>1</v>
-      </c>
-      <c r="K52" s="15">
-        <v>34</v>
-      </c>
-      <c r="L52" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B53" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.06</v>
-      </c>
-      <c r="C53" s="15">
-        <v>50</v>
-      </c>
-      <c r="D53" s="13">
-        <v>2.93</v>
-      </c>
-      <c r="E53" s="14">
-        <f t="shared" si="3"/>
-        <v>17.064846416382252</v>
-      </c>
-      <c r="F53" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G53" s="26">
-        <v>-0.06</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I53" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J53" s="6">
-        <v>1</v>
-      </c>
-      <c r="K53" s="15">
-        <v>34</v>
-      </c>
-      <c r="L53" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B54" s="26">
-        <f t="shared" si="2"/>
-        <v>-0.05</v>
-      </c>
-      <c r="C54" s="15">
-        <v>50</v>
-      </c>
-      <c r="D54" s="13">
-        <v>2.75</v>
-      </c>
-      <c r="E54" s="14">
-        <f t="shared" si="3"/>
-        <v>18.181818181818183</v>
-      </c>
-      <c r="F54" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G54" s="26">
-        <v>-0.05</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I54" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J54" s="6">
-        <v>1</v>
-      </c>
-      <c r="K54" s="15">
-        <v>34</v>
-      </c>
-      <c r="L54" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B55" s="26">
-        <f t="shared" si="2"/>
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="C55" s="15">
-        <v>50</v>
-      </c>
-      <c r="D55" s="13">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E55" s="14">
-        <f t="shared" si="3"/>
-        <v>20.242914979757085</v>
-      </c>
-      <c r="F55" s="20">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G55" s="26">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I55" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J55" s="6">
-        <v>1</v>
-      </c>
-      <c r="K55" s="15">
-        <v>34</v>
-      </c>
-      <c r="L55" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B56" s="26">
-        <f t="shared" si="2"/>
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="C56" s="15">
-        <v>50</v>
-      </c>
-      <c r="D56" s="13">
-        <v>2.15</v>
-      </c>
-      <c r="E56" s="14">
-        <f t="shared" si="3"/>
-        <v>23.255813953488374</v>
-      </c>
-      <c r="F56" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G56" s="26">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I56" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J56" s="6">
-        <v>1</v>
-      </c>
-      <c r="K56" s="15">
-        <v>34</v>
-      </c>
-      <c r="L56" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B57" s="26">
-        <f t="shared" si="2"/>
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="C57" s="15">
-        <v>50</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1.81</v>
-      </c>
-      <c r="E57" s="14">
-        <f t="shared" si="3"/>
-        <v>27.624309392265193</v>
-      </c>
-      <c r="F57" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G57" s="26">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I57" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J57" s="6">
-        <v>1</v>
-      </c>
-      <c r="K57" s="15">
-        <v>34</v>
-      </c>
-      <c r="L57" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B58" s="26">
-        <f t="shared" si="2"/>
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="C58" s="15">
-        <v>50</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1.72</v>
-      </c>
-      <c r="E58" s="14">
-        <f t="shared" si="3"/>
-        <v>29.069767441860467</v>
-      </c>
-      <c r="F58" s="20">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G58" s="26">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="H58" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I58" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J58" s="6">
-        <v>1</v>
-      </c>
-      <c r="K58" s="15">
-        <v>34</v>
-      </c>
-      <c r="L58" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B59" s="26">
-        <f t="shared" si="2"/>
-        <v>0.2225</v>
-      </c>
-      <c r="C59" s="15">
-        <v>50</v>
-      </c>
-      <c r="D59" s="13">
-        <v>5.45</v>
-      </c>
-      <c r="E59" s="14">
-        <f t="shared" si="3"/>
-        <v>9.1743119266055047</v>
-      </c>
-      <c r="F59" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G59" s="26">
-        <v>0.2225</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I59" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J59" s="6">
-        <v>1</v>
-      </c>
-      <c r="K59" s="15">
-        <v>34</v>
-      </c>
-      <c r="L59" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B60" s="26">
-        <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C60" s="15">
-        <v>50</v>
-      </c>
-      <c r="D60" s="13">
-        <v>5.46</v>
-      </c>
-      <c r="E60" s="14">
-        <f t="shared" si="3"/>
-        <v>9.1575091575091569</v>
-      </c>
-      <c r="F60" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G60" s="26">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I60" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J60" s="6">
-        <v>1</v>
-      </c>
-      <c r="K60" s="15">
-        <v>34</v>
-      </c>
-      <c r="L60" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B61" s="26">
-        <f t="shared" si="2"/>
-        <v>0.23</v>
-      </c>
-      <c r="C61" s="15">
-        <v>50</v>
-      </c>
-      <c r="D61" s="13">
-        <v>5.52</v>
-      </c>
-      <c r="E61" s="14">
-        <f t="shared" si="3"/>
-        <v>9.0579710144927539</v>
-      </c>
-      <c r="F61" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G61" s="26">
-        <v>0.23</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I61" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J61" s="6">
-        <v>1</v>
-      </c>
-      <c r="K61" s="15">
-        <v>34</v>
-      </c>
-      <c r="L61" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B62" s="26">
-        <f t="shared" si="2"/>
-        <v>0.24</v>
-      </c>
-      <c r="C62" s="15">
-        <v>50</v>
-      </c>
-      <c r="D62" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="E62" s="14">
-        <f t="shared" si="3"/>
-        <v>8.7719298245614024</v>
-      </c>
-      <c r="F62" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G62" s="26">
-        <v>0.24</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I62" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J62" s="6">
-        <v>1</v>
-      </c>
-      <c r="K62" s="15">
-        <v>34</v>
-      </c>
-      <c r="L62" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B63" s="26">
-        <f t="shared" si="2"/>
-        <v>0.26</v>
-      </c>
-      <c r="C63" s="15">
-        <v>50</v>
-      </c>
-      <c r="D63" s="13">
-        <v>6.14</v>
-      </c>
-      <c r="E63" s="14">
-        <f t="shared" si="3"/>
-        <v>8.1433224755700326</v>
-      </c>
-      <c r="F63" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G63" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I63" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J63" s="6">
-        <v>1</v>
-      </c>
-      <c r="K63" s="15">
-        <v>34</v>
-      </c>
-      <c r="L63" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B64" s="26">
-        <f t="shared" si="2"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C64" s="15">
-        <v>50</v>
-      </c>
-      <c r="D64" s="13">
-        <v>6.66</v>
-      </c>
-      <c r="E64" s="14">
-        <f t="shared" si="3"/>
-        <v>7.5075075075075075</v>
-      </c>
-      <c r="F64" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G64" s="26">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I64" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J64" s="6">
-        <v>1</v>
-      </c>
-      <c r="K64" s="15">
-        <v>34</v>
-      </c>
-      <c r="L64" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B65" s="26">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="C65" s="15">
-        <v>50</v>
-      </c>
-      <c r="D65" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="E65" s="14">
-        <f t="shared" si="3"/>
-        <v>6.9444444444444446</v>
-      </c>
-      <c r="F65" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G65" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="H65" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I65" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J65" s="6">
-        <v>1</v>
-      </c>
-      <c r="K65" s="15">
-        <v>34</v>
-      </c>
-      <c r="L65" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B66" s="26">
-        <f t="shared" si="2"/>
-        <v>0.35</v>
-      </c>
-      <c r="C66" s="15">
-        <v>50</v>
-      </c>
-      <c r="D66" s="13">
-        <v>8.61</v>
-      </c>
-      <c r="E66" s="14">
-        <f t="shared" si="3"/>
-        <v>5.8072009291521489</v>
-      </c>
-      <c r="F66" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G66" s="26">
-        <v>0.35</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I66" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J66" s="6">
-        <v>1</v>
-      </c>
-      <c r="K66" s="15">
-        <v>34</v>
-      </c>
-      <c r="L66" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B67" s="26">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="C67" s="15">
-        <v>50</v>
-      </c>
-      <c r="D67" s="13">
-        <v>10.09</v>
-      </c>
-      <c r="E67" s="14">
-        <f t="shared" si="3"/>
-        <v>4.9554013875123886</v>
-      </c>
-      <c r="F67" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G67" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="H67" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I67" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J67" s="6">
-        <v>1</v>
-      </c>
-      <c r="K67" s="15">
-        <v>34</v>
-      </c>
-      <c r="L67" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B68" s="26">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="C68" s="15">
-        <v>50</v>
-      </c>
-      <c r="D68" s="13">
-        <v>13.2</v>
-      </c>
-      <c r="E68" s="14">
-        <f t="shared" si="3"/>
-        <v>3.7878787878787881</v>
-      </c>
-      <c r="F68" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G68" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I68" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J68" s="6">
-        <v>1</v>
-      </c>
-      <c r="K68" s="15">
-        <v>34</v>
-      </c>
-      <c r="L68" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B69" s="26">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="C69" s="15">
-        <v>50</v>
-      </c>
-      <c r="D69" s="13">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="E69" s="14">
-        <f t="shared" si="3"/>
-        <v>3.0193236714975846</v>
-      </c>
-      <c r="F69" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G69" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I69" s="24">
-        <f t="shared" si="4"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="J69" s="6">
-        <v>1</v>
-      </c>
-      <c r="K69" s="15">
-        <v>34</v>
-      </c>
-      <c r="L69" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
-        <f t="shared" ref="B71:B83" si="5">G71</f>
-        <v>-0.3</v>
-      </c>
-      <c r="C71" s="7">
-        <v>100</v>
-      </c>
-      <c r="D71" s="8">
-        <v>29.91</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" ref="E71:E83" si="6">C71/D71</f>
-        <v>3.3433634236041456</v>
-      </c>
-      <c r="F71" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G71" s="19">
-        <v>-0.3</v>
-      </c>
-      <c r="H71">
-        <v>0.2</v>
-      </c>
-      <c r="I71" s="25">
-        <f t="shared" ref="I71:I83" si="7">$C$27+$C$28*C71</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" s="7">
-        <v>34</v>
-      </c>
-      <c r="L71">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B72" s="19">
-        <f t="shared" si="5"/>
-        <v>-0.2</v>
-      </c>
-      <c r="C72" s="7">
-        <v>100</v>
-      </c>
-      <c r="D72" s="8">
-        <v>20.72</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="6"/>
-        <v>4.8262548262548268</v>
-      </c>
-      <c r="F72" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G72" s="19">
-        <v>-0.2</v>
-      </c>
-      <c r="H72">
-        <v>0.2</v>
-      </c>
-      <c r="I72" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72" s="7">
-        <v>34</v>
-      </c>
-      <c r="L72">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
-        <f t="shared" si="5"/>
-        <v>-0.1</v>
-      </c>
-      <c r="C73" s="7">
-        <v>100</v>
-      </c>
-      <c r="D73" s="8">
-        <v>12.02</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="6"/>
-        <v>8.3194675540765388</v>
-      </c>
-      <c r="F73" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G73" s="19">
-        <v>-0.1</v>
-      </c>
-      <c r="H73">
-        <v>0.2</v>
-      </c>
-      <c r="I73" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" s="7">
-        <v>34</v>
-      </c>
-      <c r="L73">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B74" s="19">
-        <f t="shared" si="5"/>
-        <v>-0.05</v>
-      </c>
-      <c r="C74" s="7">
-        <v>100</v>
-      </c>
-      <c r="D74" s="8">
-        <v>7.62</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="6"/>
-        <v>13.123359580052494</v>
-      </c>
-      <c r="F74" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G74" s="19">
-        <v>-0.05</v>
-      </c>
-      <c r="H74">
-        <v>0.2</v>
-      </c>
-      <c r="I74" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" s="7">
-        <v>34</v>
-      </c>
-      <c r="L74">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B75" s="19">
-        <f t="shared" si="5"/>
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="C75" s="7">
-        <v>100</v>
-      </c>
-      <c r="D75" s="8">
-        <v>7.17</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="6"/>
-        <v>13.947001394700139</v>
-      </c>
-      <c r="F75" s="17">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G75" s="19">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="H75">
-        <v>0.2</v>
-      </c>
-      <c r="I75" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" s="7">
-        <v>34</v>
-      </c>
-      <c r="L75">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B76" s="19">
-        <f t="shared" si="5"/>
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="C76" s="7">
-        <v>100</v>
-      </c>
-      <c r="D76" s="8">
-        <v>6.22</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" si="6"/>
-        <v>16.077170418006432</v>
-      </c>
-      <c r="F76" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G76" s="19">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="H76">
-        <v>0.2</v>
-      </c>
-      <c r="I76" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76" s="7">
-        <v>34</v>
-      </c>
-      <c r="L76">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B77" s="19">
-        <f t="shared" si="5"/>
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="C77" s="7">
-        <v>100</v>
-      </c>
-      <c r="D77" s="8">
-        <v>5.23</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="6"/>
-        <v>19.120458891013381</v>
-      </c>
-      <c r="F77" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G77" s="19">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="H77">
-        <v>0.2</v>
-      </c>
-      <c r="I77" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" s="7">
-        <v>34</v>
-      </c>
-      <c r="L77">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B78" s="19">
-        <f t="shared" si="5"/>
-        <v>0.2225</v>
-      </c>
-      <c r="C78" s="7">
-        <v>100</v>
-      </c>
-      <c r="D78" s="8">
-        <v>15.99</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" si="6"/>
-        <v>6.2539086929330834</v>
-      </c>
-      <c r="F78" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G78" s="19">
-        <v>0.2225</v>
-      </c>
-      <c r="H78">
-        <v>0.2</v>
-      </c>
-      <c r="I78" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" s="7">
-        <v>34</v>
-      </c>
-      <c r="L78">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B79" s="19">
-        <f t="shared" si="5"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C79" s="7">
-        <v>100</v>
-      </c>
-      <c r="D79" s="8">
-        <v>16.02</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" si="6"/>
-        <v>6.2421972534332086</v>
-      </c>
-      <c r="F79" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G79" s="19">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="H79">
-        <v>0.2</v>
-      </c>
-      <c r="I79" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" s="7">
-        <v>34</v>
-      </c>
-      <c r="L79">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B80" s="19">
-        <f t="shared" si="5"/>
-        <v>0.24</v>
-      </c>
-      <c r="C80" s="7">
-        <v>100</v>
-      </c>
-      <c r="D80" s="8">
-        <v>16.61</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" si="6"/>
-        <v>6.0204695966285371</v>
-      </c>
-      <c r="F80" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G80" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="H80">
-        <v>0.2</v>
-      </c>
-      <c r="I80" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="7">
-        <v>34</v>
-      </c>
-      <c r="L80">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B81" s="19">
-        <f t="shared" si="5"/>
-        <v>0.26</v>
-      </c>
-      <c r="C81" s="7">
-        <v>100</v>
-      </c>
-      <c r="D81" s="8">
-        <v>17.87</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" si="6"/>
-        <v>5.5959709009513148</v>
-      </c>
-      <c r="F81" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G81" s="19">
-        <v>0.26</v>
-      </c>
-      <c r="H81">
-        <v>0.2</v>
-      </c>
-      <c r="I81" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" s="7">
-        <v>34</v>
-      </c>
-      <c r="L81">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="C82" s="7">
-        <v>100</v>
-      </c>
-      <c r="D82" s="8">
-        <v>21.02</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" si="6"/>
-        <v>4.7573739295908659</v>
-      </c>
-      <c r="F82" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G82" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="H82">
-        <v>0.2</v>
-      </c>
-      <c r="I82" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" s="7">
-        <v>34</v>
-      </c>
-      <c r="L82">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B83" s="19">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="C83" s="7">
-        <v>100</v>
-      </c>
-      <c r="D83" s="8">
-        <v>29.66</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3715441672285906</v>
-      </c>
-      <c r="F83" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="G83" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="H83">
-        <v>0.2</v>
-      </c>
-      <c r="I83" s="25">
-        <f t="shared" si="7"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" s="7">
-        <v>34</v>
-      </c>
-      <c r="L83">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="F84"/>
-      <c r="K84"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="F89"/>
-      <c r="K89"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="F90"/>
-      <c r="K90"/>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="F126"/>
+      <c r="N126"/>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="F131"/>
+      <c r="N131"/>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="F132"/>
+      <c r="N132"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M20">
-    <sortCondition ref="B3:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S20">
+    <sortCondition ref="C2:C20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
+++ b/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nesh/Documents/Repositories/icecontinuum/nesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B7EA9C-F198-D743-BD7C-1CA2007DA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAEDF9-91AE-0749-AB84-2DA5E16309C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="500" windowWidth="18040" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="22280" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>D (um^2/us)</t>
   </si>
@@ -133,13 +133,19 @@
     <t>Scale for z</t>
   </si>
   <si>
-    <t>T_cr</t>
-  </si>
-  <si>
     <t>Time used (ms)</t>
   </si>
   <si>
     <t>Pressure</t>
+  </si>
+  <si>
+    <t>L_cr</t>
+  </si>
+  <si>
+    <t>P (w/T=240)</t>
+  </si>
+  <si>
+    <t>T (w/P=68.6 Pa)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,6 +258,19 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -308,7 +327,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -316,6 +334,14 @@
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +515,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>25.424641809046072</c:v>
                 </c:pt>
@@ -570,16 +596,22 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9.0434361758540334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3444209317235085</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9095463928829401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:f>Sheet1!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>23.52941176470588</c:v>
                 </c:pt>
@@ -657,6 +689,12 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.8740157480314963</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3492063492063497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9368575624082234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,7 +951,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$82:$B$125</c:f>
+              <c:f>Sheet1!$B$116:$B$159</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="44"/>
@@ -1051,7 +1089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$82:$E$125</c:f>
+              <c:f>Sheet1!$E$116:$E$159</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="44"/>
@@ -1419,420 +1457,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Estimates of computing time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$3:$O$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$P$3:$P$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>316.22776601683796</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>173.20508075688772</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>141.42135623730951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>115.47005383792515</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>707.10678118654755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>223.60679774997897</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>223.60679774997897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>223.60679774997897</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>158.11388300841898</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>223.60679774997897</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>223.60679774997897</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>84.515425472851661</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79.05694150420949</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>316.22776601683796</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>346.41016151377545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>387.29833462074168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C41A-8F46-BEFC-787485DC85FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="342782640"/>
-        <c:axId val="1275296432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="342782640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1275296432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1275296432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="342782640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Predicted vs calculated</a:t>
             </a:r>
             <a:r>
@@ -1949,10 +1573,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:f>Sheet1!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>23.52941176470588</c:v>
                 </c:pt>
@@ -2030,16 +1654,22 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.8740157480314963</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3492063492063497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9368575624082234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$27</c:f>
+              <c:f>Sheet1!$R$2:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>32.549794949373215</c:v>
                 </c:pt>
@@ -2117,6 +1747,12 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>11.417474897370257</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.2256866544189418</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7945800729730985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,7 +1951,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2783,6 +2419,529 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1361741519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27302395013123359"/>
+                  <c:y val="-0.55520727869463493"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$80:$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$80:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112.4</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>20.21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.2207000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0610-5E47-92EC-0BD701820A16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1676518943"/>
+        <c:axId val="1676487711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1676518943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1676487711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1676487711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1676518943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5622,16 +5781,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9007</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>115138</xdr:rowOff>
+      <xdr:rowOff>182870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>277724</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>40657</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5660,13 +5819,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>9104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>728133</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5694,52 +5853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>609602</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>186746</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4144</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03933692-A69E-0E8A-4013-705360BBB008}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>986277</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>656166</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>108085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>182033</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5758,7 +5881,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5783,6 +5906,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D423025D-C3AE-ACC5-F285-32FD18B0F38D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37830</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>486383</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>94573</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CFA38D-F0F6-2685-CC8E-7EF1E3261627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6100,26 +6259,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FACA8F-BEA8-A344-9B24-B4206D9D79F6}">
-  <dimension ref="A1:S132"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" style="22" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="12" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
     <col min="13" max="13" width="5.1640625" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="7" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
@@ -6128,7 +6287,7 @@
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -6157,9 +6316,9 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -6172,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
         <v>20</v>
@@ -6184,10 +6343,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3">
-        <f>F2^$C$33*C2^$C$36*N2^$C$35*L2^$C$34*$C$37</f>
+    <row r="2" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="42">
+        <f t="shared" ref="B2:B27" si="0">F2^$C$33*C2^$C$36*N2^$C$35*L2^$C$34*$C$37</f>
         <v>25.424641809046072</v>
       </c>
       <c r="C2" s="7">
@@ -6196,59 +6354,57 @@
       <c r="D2" s="8">
         <v>0.34</v>
       </c>
-      <c r="E2" s="3">
-        <f>C2/D2</f>
+      <c r="E2" s="42">
+        <f t="shared" ref="E2:E27" si="1">C2/D2</f>
         <v>23.52941176470588</v>
       </c>
       <c r="F2" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="43">
         <v>0.22</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="41">
         <v>0.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="41">
         <v>240</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="44">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="L2" s="34">
-        <f>K2/100</f>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2:L29" si="2">K2/100</f>
         <v>4.55E-4</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="41">
         <v>1</v>
       </c>
       <c r="N2" s="7">
         <v>34</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="41">
         <v>400</v>
       </c>
-      <c r="P2" s="11">
-        <f>(1/F2*C2)^0.5</f>
-        <v>89.442719099991592</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>($C$41*B2+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P2" s="46">
+        <f>(1/F2*C2)^0.5*1.5</f>
+        <v>134.1640786499874</v>
+      </c>
+      <c r="Q2" s="43">
+        <f t="shared" ref="Q2:Q27" si="3">($C$41*B2+$C$42)/($C$41*$C$39+$C$42)</f>
         <v>3.3746992378553848</v>
       </c>
-      <c r="R2" s="2">
-        <f>$C$43*(1-EXP(-1/((G2-$C$40)*$C$44)))*Q2</f>
+      <c r="R2" s="43">
+        <f t="shared" ref="R2:R27" si="4">$C$43*(1-EXP(-1/((G2-$C$40)*$C$44)))*Q2</f>
         <v>32.549794949373215</v>
       </c>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="3">
-        <f>F3^$C$33*C3^$C$36*N3^$C$35*L3^$C$34*$C$37</f>
+    </row>
+    <row r="3" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="42">
+        <f t="shared" si="0"/>
         <v>7.1895946958663917</v>
       </c>
       <c r="C3" s="7">
@@ -6257,59 +6413,57 @@
       <c r="D3" s="8">
         <v>1.5</v>
       </c>
-      <c r="E3" s="3">
-        <f>C3/D3</f>
+      <c r="E3" s="42">
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
       <c r="F3" s="17">
         <v>1E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="43">
         <v>0.22</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="41">
         <v>0.2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="41">
         <v>240</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="44">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="L3" s="34">
-        <f>K3/100</f>
+      <c r="L3" s="45">
+        <f t="shared" si="2"/>
         <v>5.6899999999999995E-4</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="41">
         <v>1</v>
       </c>
       <c r="N3" s="7">
         <v>34</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="41">
         <v>400</v>
       </c>
-      <c r="P3" s="11">
-        <f>(1/F3*C3)^0.5</f>
-        <v>316.22776601683796</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>($C$41*B3+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P3" s="46">
+        <f t="shared" ref="P3:P28" si="5">(1/F3*C3)^0.5*1.5</f>
+        <v>474.34164902525697</v>
+      </c>
+      <c r="Q3" s="43">
+        <f t="shared" si="3"/>
         <v>0.93579345430778726</v>
       </c>
-      <c r="R3" s="2">
-        <f>$C$43*(1-EXP(-1/((G3-$C$40)*$C$44)))*Q3</f>
+      <c r="R3" s="43">
+        <f t="shared" si="4"/>
         <v>9.0259554721212236</v>
       </c>
-      <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="3">
-        <f>F4^$C$33*C4^$C$36*N4^$C$35*L4^$C$34*$C$37</f>
+    </row>
+    <row r="4" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="42">
+        <f t="shared" si="0"/>
         <v>13.13019052858764</v>
       </c>
       <c r="C4" s="7">
@@ -6318,59 +6472,57 @@
       <c r="D4" s="8">
         <v>1.24</v>
       </c>
-      <c r="E4" s="3">
-        <f>C4/D4</f>
+      <c r="E4" s="42">
+        <f t="shared" si="1"/>
         <v>12.096774193548388</v>
       </c>
       <c r="F4" s="17">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="43">
         <v>0.22</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="41">
         <v>0.2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="41">
         <v>240</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="44">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="L4" s="34">
-        <f>K4/100</f>
+      <c r="L4" s="45">
+        <f t="shared" si="2"/>
         <v>8.5300000000000003E-4</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="41">
         <v>1</v>
       </c>
       <c r="N4" s="7">
         <v>34</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="41">
         <v>200</v>
       </c>
-      <c r="P4" s="11">
-        <f>(1/F4*C4)^0.5</f>
-        <v>173.20508075688772</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>($C$41*B4+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P4" s="46">
+        <f t="shared" si="5"/>
+        <v>259.8076211353316</v>
+      </c>
+      <c r="Q4" s="43">
+        <f t="shared" si="3"/>
         <v>1.7303377976383165</v>
       </c>
-      <c r="R4" s="2">
-        <f>$C$43*(1-EXP(-1/((G4-$C$40)*$C$44)))*Q4</f>
+      <c r="R4" s="43">
+        <f t="shared" si="4"/>
         <v>16.68952891401068</v>
       </c>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="3">
-        <f>F5^$C$33*C5^$C$36*N5^$C$35*L5^$C$34*$C$37</f>
+    </row>
+    <row r="5" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="42">
+        <f t="shared" si="0"/>
         <v>16.062314155080887</v>
       </c>
       <c r="C5" s="7">
@@ -6379,59 +6531,57 @@
       <c r="D5" s="8">
         <v>1.36</v>
       </c>
-      <c r="E5" s="3">
-        <f>C5/D5</f>
+      <c r="E5" s="42">
+        <f t="shared" si="1"/>
         <v>14.705882352941176</v>
       </c>
       <c r="F5" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="43">
         <v>0.22</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="41">
         <v>0.2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="41">
         <v>240</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="44">
         <v>0.114</v>
       </c>
-      <c r="L5" s="34">
-        <f>K5/100</f>
+      <c r="L5" s="45">
+        <f t="shared" si="2"/>
         <v>1.14E-3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="41">
         <v>1</v>
       </c>
       <c r="N5" s="7">
         <v>34</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="41">
         <v>70</v>
       </c>
-      <c r="P5" s="11">
-        <f>(1/F5*C5)^0.5</f>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>($C$41*B5+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P5" s="46">
+        <f t="shared" si="5"/>
+        <v>212.13203435596427</v>
+      </c>
+      <c r="Q5" s="43">
+        <f t="shared" si="3"/>
         <v>2.122504224538432</v>
       </c>
-      <c r="R5" s="2">
-        <f>$C$43*(1-EXP(-1/((G5-$C$40)*$C$44)))*Q5</f>
+      <c r="R5" s="43">
+        <f t="shared" si="4"/>
         <v>20.472069484867362</v>
       </c>
-      <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="3">
-        <f>F6^$C$33*C6^$C$36*N6^$C$35*L6^$C$34*$C$37</f>
+    </row>
+    <row r="6" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
+        <f t="shared" si="0"/>
         <v>19.67223688411584</v>
       </c>
       <c r="C6" s="7">
@@ -6440,58 +6590,57 @@
       <c r="D6" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E6" s="3">
-        <f>C6/D6</f>
+      <c r="E6" s="42">
+        <f t="shared" si="1"/>
         <v>18.018018018018015</v>
       </c>
       <c r="F6" s="17">
         <v>1.5E-3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="43">
         <v>0.22</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="41">
         <v>0.2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="41">
         <v>240</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="44">
         <v>0.114</v>
       </c>
-      <c r="L6" s="34">
-        <f>K6/100</f>
+      <c r="L6" s="45">
+        <f t="shared" si="2"/>
         <v>1.14E-3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="41">
         <v>1</v>
       </c>
       <c r="N6" s="7">
         <v>34</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="41">
         <v>70</v>
       </c>
-      <c r="P6" s="11">
-        <f>(1/F6*C6)^0.5</f>
-        <v>115.47005383792515</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>($C$41*B6+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P6" s="46">
+        <f t="shared" si="5"/>
+        <v>173.20508075688772</v>
+      </c>
+      <c r="Q6" s="43">
+        <f t="shared" si="3"/>
         <v>2.605325100588697</v>
       </c>
-      <c r="R6" s="2">
-        <f>$C$43*(1-EXP(-1/((G6-$C$40)*$C$44)))*Q6</f>
+      <c r="R6" s="43">
+        <f t="shared" si="4"/>
         <v>25.128994266911103</v>
       </c>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <f>F7^$C$33*C7^$C$36*N7^$C$35*L7^$C$34*$C$37</f>
+    </row>
+    <row r="7" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="42">
+        <f t="shared" si="0"/>
         <v>3.2181136055347066</v>
       </c>
       <c r="C7" s="7">
@@ -6500,57 +6649,57 @@
       <c r="D7" s="8">
         <v>17.579999999999998</v>
       </c>
-      <c r="E7" s="3">
-        <f>C7/D7</f>
+      <c r="E7" s="42">
+        <f t="shared" si="1"/>
         <v>2.8441410693970424</v>
       </c>
       <c r="F7" s="17">
         <v>1E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="43">
         <v>0.22</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="41">
         <v>0.2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="41">
         <v>240</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L7" s="34">
-        <f>K7/100</f>
+      <c r="L7" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="41">
         <v>1</v>
       </c>
       <c r="N7" s="7">
         <v>34</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="41">
         <v>600</v>
       </c>
-      <c r="P7" s="11">
-        <f>(1/F7*C7)^0.5</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>($C$41*B7+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P7" s="46">
+        <f t="shared" si="5"/>
+        <v>1060.6601717798212</v>
+      </c>
+      <c r="Q7" s="43">
+        <f t="shared" si="3"/>
         <v>0.40461477731610024</v>
       </c>
-      <c r="R7" s="2">
-        <f>$C$43*(1-EXP(-1/((G7-$C$40)*$C$44)))*Q7</f>
+      <c r="R7" s="43">
+        <f t="shared" si="4"/>
         <v>3.9026079383284422</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <f>F8^$C$33*C8^$C$36*N8^$C$35*L8^$C$34*$C$37</f>
+    <row r="8" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="42">
+        <f t="shared" si="0"/>
         <v>3.7529331252040077</v>
       </c>
       <c r="C8" s="7">
@@ -6559,58 +6708,57 @@
       <c r="D8" s="8">
         <v>17.73</v>
       </c>
-      <c r="E8" s="3">
-        <f>C8/D8</f>
+      <c r="E8" s="42">
+        <f t="shared" si="1"/>
         <v>2.8200789622109417</v>
       </c>
       <c r="F8" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="43">
         <v>0.22</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="41">
         <v>0.2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="41">
         <v>240</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L8" s="34">
-        <f>K8/100</f>
+      <c r="L8" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="41">
         <v>1</v>
       </c>
       <c r="N8" s="7">
         <v>250</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="41">
         <v>125</v>
       </c>
-      <c r="P8" s="11">
-        <f>(1/F8*C8)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>($C$41*B8+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P8" s="46">
+        <f t="shared" si="5"/>
+        <v>335.41019662496842</v>
+      </c>
+      <c r="Q8" s="43">
+        <f t="shared" si="3"/>
         <v>0.47614595634622453</v>
       </c>
-      <c r="R8" s="2">
-        <f>$C$43*(1-EXP(-1/((G8-$C$40)*$C$44)))*Q8</f>
+      <c r="R8" s="43">
+        <f t="shared" si="4"/>
         <v>4.5925435580126122</v>
       </c>
-      <c r="S8" s="29"/>
-    </row>
-    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <f>F9^$C$33*C9^$C$36*N9^$C$35*L9^$C$34*$C$37</f>
+    </row>
+    <row r="9" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="42">
+        <f t="shared" si="0"/>
         <v>4.1959067914834458</v>
       </c>
       <c r="C9" s="7">
@@ -6619,59 +6767,57 @@
       <c r="D9" s="8">
         <v>15.13</v>
       </c>
-      <c r="E9" s="3">
-        <f>C9/D9</f>
+      <c r="E9" s="42">
+        <f t="shared" si="1"/>
         <v>3.3046926635822866</v>
       </c>
       <c r="F9" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="43">
         <v>0.22</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="41">
         <v>0.2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="41">
         <v>240</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L9" s="34">
-        <f>K9/100</f>
+      <c r="L9" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="41">
         <v>1</v>
       </c>
       <c r="N9" s="7">
         <v>200</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="41">
         <v>125</v>
       </c>
-      <c r="P9" s="11">
-        <f>(1/F9*C9)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>($C$41*B9+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P9" s="46">
+        <f t="shared" si="5"/>
+        <v>335.41019662496842</v>
+      </c>
+      <c r="Q9" s="43">
+        <f t="shared" si="3"/>
         <v>0.53539291249295973</v>
       </c>
-      <c r="R9" s="2">
-        <f>$C$43*(1-EXP(-1/((G9-$C$40)*$C$44)))*Q9</f>
+      <c r="R9" s="43">
+        <f t="shared" si="4"/>
         <v>5.1639948601962935</v>
       </c>
-      <c r="S9" s="29"/>
-    </row>
-    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="3">
-        <f>F10^$C$33*C10^$C$36*N10^$C$35*L10^$C$34*$C$37</f>
+    </row>
+    <row r="10" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="42">
+        <f t="shared" si="0"/>
         <v>10.176568762666319</v>
       </c>
       <c r="C10" s="7">
@@ -6680,57 +6826,57 @@
       <c r="D10" s="8">
         <v>5.38</v>
       </c>
-      <c r="E10" s="3">
-        <f>C10/D10</f>
+      <c r="E10" s="42">
+        <f t="shared" si="1"/>
         <v>9.2936802973977706</v>
       </c>
       <c r="F10" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="43">
         <v>0.22</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="41">
         <v>0.2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="41">
         <v>240</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L10" s="34">
-        <f>K10/100</f>
+      <c r="L10" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="41">
         <v>1</v>
       </c>
       <c r="N10" s="7">
         <v>34</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="41">
         <v>150</v>
       </c>
-      <c r="P10" s="11">
-        <f>(1/F10*C10)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>($C$41*B10+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P10" s="46">
+        <f t="shared" si="5"/>
+        <v>335.41019662496842</v>
+      </c>
+      <c r="Q10" s="43">
+        <f t="shared" si="3"/>
         <v>1.3352960320422707</v>
       </c>
-      <c r="R10" s="2">
-        <f>$C$43*(1-EXP(-1/((G10-$C$40)*$C$44)))*Q10</f>
+      <c r="R10" s="43">
+        <f t="shared" si="4"/>
         <v>12.879255002086836</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <f>F11^$C$33*C11^$C$36*N11^$C$35*L11^$C$34*$C$37</f>
+    <row r="11" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="42">
+        <f t="shared" si="0"/>
         <v>14.391841562585093</v>
       </c>
       <c r="C11" s="7">
@@ -6739,57 +6885,57 @@
       <c r="D11" s="8">
         <v>3.8</v>
       </c>
-      <c r="E11" s="3">
-        <f>C11/D11</f>
+      <c r="E11" s="42">
+        <f t="shared" si="1"/>
         <v>13.157894736842106</v>
       </c>
       <c r="F11" s="17">
         <v>2E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="43">
         <v>0.22</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="41">
         <v>0.2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="41">
         <v>240</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L11" s="34">
-        <f>K11/100</f>
+      <c r="L11" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="41">
         <v>1</v>
       </c>
       <c r="N11" s="7">
         <v>34</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="41">
         <v>150</v>
       </c>
-      <c r="P11" s="11">
-        <f>(1/F11*C11)^0.5</f>
-        <v>158.11388300841898</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>($C$41*B11+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P11" s="46">
+        <f t="shared" si="5"/>
+        <v>237.17082451262849</v>
+      </c>
+      <c r="Q11" s="43">
+        <f t="shared" si="3"/>
         <v>1.8990814254741453</v>
       </c>
-      <c r="R11" s="2">
-        <f>$C$43*(1-EXP(-1/((G11-$C$40)*$C$44)))*Q11</f>
+      <c r="R11" s="43">
+        <f t="shared" si="4"/>
         <v>18.317102246607895</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <f>F12^$C$33*C12^$C$36*N12^$C$35*L12^$C$34*$C$37</f>
+    <row r="12" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="42">
+        <f t="shared" si="0"/>
         <v>15.321285325897389</v>
       </c>
       <c r="C12" s="7">
@@ -6798,58 +6944,57 @@
       <c r="D12" s="8">
         <v>3.49</v>
       </c>
-      <c r="E12" s="3">
-        <f>C12/D12</f>
+      <c r="E12" s="42">
+        <f t="shared" si="1"/>
         <v>14.326647564469914</v>
       </c>
       <c r="F12" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="43">
         <v>0.22</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="41">
         <v>0.2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="41">
         <v>240</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L12" s="34">
-        <f>K12/100</f>
+      <c r="L12" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="41">
         <v>1</v>
       </c>
       <c r="N12" s="7">
         <v>15</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="41">
         <v>300</v>
       </c>
-      <c r="P12" s="11">
-        <f>(1/F12*C12)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="Q12" s="2">
-        <f>($C$41*B12+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P12" s="46">
+        <f t="shared" si="5"/>
+        <v>335.41019662496842</v>
+      </c>
+      <c r="Q12" s="43">
+        <f t="shared" si="3"/>
         <v>2.0233929096044063</v>
       </c>
-      <c r="R12" s="2">
-        <f>$C$43*(1-EXP(-1/((G12-$C$40)*$C$44)))*Q12</f>
+      <c r="R12" s="43">
+        <f t="shared" si="4"/>
         <v>19.516116746301115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3">
-        <f>F13^$C$33*C13^$C$36*N13^$C$35*L13^$C$34*$C$37</f>
+    <row r="13" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="42">
+        <f t="shared" si="0"/>
         <v>17.129717745688293</v>
       </c>
       <c r="C13" s="7">
@@ -6858,57 +7003,57 @@
       <c r="D13" s="8">
         <v>3.1</v>
       </c>
-      <c r="E13" s="3">
-        <f>C13/D13</f>
+      <c r="E13" s="42">
+        <f t="shared" si="1"/>
         <v>16.129032258064516</v>
       </c>
       <c r="F13" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="43">
         <v>0.22</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="41">
         <v>0.2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="41">
         <v>240</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L13" s="34">
-        <f>K13/100</f>
+      <c r="L13" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="41">
         <v>1</v>
       </c>
       <c r="N13" s="7">
         <v>12</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="41">
         <v>300</v>
       </c>
-      <c r="P13" s="11">
-        <f>(1/F13*C13)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>($C$41*B13+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P13" s="46">
+        <f t="shared" si="5"/>
+        <v>335.41019662496842</v>
+      </c>
+      <c r="Q13" s="43">
+        <f t="shared" si="3"/>
         <v>2.2652675952253274</v>
       </c>
-      <c r="R13" s="2">
-        <f>$C$43*(1-EXP(-1/((G13-$C$40)*$C$44)))*Q13</f>
+      <c r="R13" s="43">
+        <f t="shared" si="4"/>
         <v>21.849056918299478</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f>F14^$C$33*C14^$C$36*N14^$C$35*L14^$C$34*$C$37</f>
+    <row r="14" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="42">
+        <f t="shared" si="0"/>
         <v>22.75549953102281</v>
       </c>
       <c r="C14" s="7">
@@ -6917,58 +7062,57 @@
       <c r="D14" s="8">
         <v>2.4</v>
       </c>
-      <c r="E14" s="3">
-        <f>C14/D14</f>
+      <c r="E14" s="42">
+        <f t="shared" si="1"/>
         <v>20.833333333333336</v>
       </c>
       <c r="F14" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="43">
         <v>0.22</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="41">
         <v>0.2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="41">
         <v>240</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L14" s="34">
-        <f>K14/100</f>
+      <c r="L14" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="41">
         <v>1</v>
       </c>
       <c r="N14" s="7">
         <v>34</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="41">
         <v>80</v>
       </c>
-      <c r="P14" s="11">
-        <f>(1/F14*C14)^0.5</f>
-        <v>100</v>
-      </c>
-      <c r="Q14" s="2">
-        <f>($C$41*B14+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P14" s="46">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="Q14" s="43">
+        <f t="shared" si="3"/>
         <v>3.0177061081651804</v>
       </c>
-      <c r="R14" s="2">
-        <f>$C$43*(1-EXP(-1/((G14-$C$40)*$C$44)))*Q14</f>
+      <c r="R14" s="43">
+        <f t="shared" si="4"/>
         <v>29.106509385017066</v>
       </c>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <f>F15^$C$33*C15^$C$36*N15^$C$35*L15^$C$34*$C$37</f>
+    </row>
+    <row r="15" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B15" s="42">
+        <f t="shared" si="0"/>
         <v>26.924670145963368</v>
       </c>
       <c r="C15" s="7">
@@ -6977,58 +7121,57 @@
       <c r="D15" s="8">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E15" s="3">
-        <f>C15/D15</f>
+      <c r="E15" s="42">
+        <f t="shared" si="1"/>
         <v>24.630541871921185</v>
       </c>
       <c r="F15" s="17">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="43">
         <v>0.22</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="41">
         <v>0.2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="41">
         <v>240</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L15" s="34">
-        <f>K15/100</f>
+      <c r="L15" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="41">
         <v>1</v>
       </c>
       <c r="N15" s="7">
         <v>34</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="41">
         <v>100</v>
       </c>
-      <c r="P15" s="11">
-        <f>(1/F15*C15)^0.5</f>
-        <v>84.515425472851661</v>
-      </c>
-      <c r="Q15" s="2">
-        <f>($C$41*B15+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P15" s="46">
+        <f t="shared" si="5"/>
+        <v>126.77313820927749</v>
+      </c>
+      <c r="Q15" s="43">
+        <f t="shared" si="3"/>
         <v>3.5753254146722626</v>
       </c>
-      <c r="R15" s="2">
-        <f>$C$43*(1-EXP(-1/((G15-$C$40)*$C$44)))*Q15</f>
+      <c r="R15" s="43">
+        <f t="shared" si="4"/>
         <v>34.484883221422045</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="3">
-        <f>F16^$C$33*C16^$C$36*N16^$C$35*L16^$C$34*$C$37</f>
+    <row r="16" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="42">
+        <f t="shared" si="0"/>
         <v>28.783683125170185</v>
       </c>
       <c r="C16" s="7">
@@ -7037,58 +7180,57 @@
       <c r="D16" s="8">
         <v>1.9</v>
       </c>
-      <c r="E16" s="3">
-        <f>C16/D16</f>
+      <c r="E16" s="42">
+        <f t="shared" si="1"/>
         <v>26.315789473684212</v>
       </c>
       <c r="F16" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="43">
         <v>0.22</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="41">
         <v>0.2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="41">
         <v>240</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L16" s="34">
-        <f>K16/100</f>
+      <c r="L16" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="41">
         <v>1</v>
       </c>
       <c r="N16" s="7">
         <v>34</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="41">
         <v>70</v>
       </c>
-      <c r="P16" s="11">
-        <f>(1/F16*C16)^0.5</f>
-        <v>79.05694150420949</v>
-      </c>
-      <c r="Q16" s="2">
-        <f>($C$41*B16+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P16" s="46">
+        <f t="shared" si="5"/>
+        <v>118.58541225631424</v>
+      </c>
+      <c r="Q16" s="43">
+        <f t="shared" si="3"/>
         <v>3.8239651619971031</v>
       </c>
-      <c r="R16" s="2">
-        <f>$C$43*(1-EXP(-1/((G16-$C$40)*$C$44)))*Q16</f>
+      <c r="R16" s="43">
+        <f t="shared" si="4"/>
         <v>36.883074058964866</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17" s="3">
-        <f>F17^$C$33*C17^$C$36*N17^$C$35*L17^$C$34*$C$37</f>
+    <row r="17" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B17" s="42">
+        <f t="shared" si="0"/>
         <v>7.1895946958663899</v>
       </c>
       <c r="C17" s="7">
@@ -7097,59 +7239,57 @@
       <c r="D17" s="8">
         <v>15.37</v>
       </c>
-      <c r="E17" s="3">
-        <f>C17/D17</f>
+      <c r="E17" s="42">
+        <f t="shared" si="1"/>
         <v>6.5061808718282368</v>
       </c>
       <c r="F17" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="43">
         <v>0.22</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="41">
         <v>0.2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="41">
         <v>240</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="44">
         <v>0.56899999999999995</v>
       </c>
-      <c r="L17" s="34">
-        <f>K17/100</f>
+      <c r="L17" s="45">
+        <f t="shared" si="2"/>
         <v>5.6899999999999997E-3</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="41">
         <v>1</v>
       </c>
       <c r="N17" s="7">
         <v>34</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="41">
         <v>250</v>
       </c>
-      <c r="P17" s="11">
-        <f>(1/F17*C17)^0.5</f>
-        <v>316.22776601683796</v>
-      </c>
-      <c r="Q17" s="2">
-        <f>($C$41*B17+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P17" s="46">
+        <f t="shared" si="5"/>
+        <v>474.34164902525697</v>
+      </c>
+      <c r="Q17" s="43">
+        <f t="shared" si="3"/>
         <v>0.93579345430778715</v>
       </c>
-      <c r="R17" s="2">
-        <f>$C$43*(1-EXP(-1/((G17-$C$40)*$C$44)))*Q17</f>
+      <c r="R17" s="43">
+        <f t="shared" si="4"/>
         <v>9.0259554721212218</v>
       </c>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3">
-        <f>F18^$C$33*C18^$C$36*N18^$C$35*L18^$C$34*$C$37</f>
+    </row>
+    <row r="18" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="42">
+        <f t="shared" si="0"/>
         <v>6.5622109871109169</v>
       </c>
       <c r="C18" s="7">
@@ -7158,57 +7298,57 @@
       <c r="D18" s="8">
         <v>20.29</v>
       </c>
-      <c r="E18" s="3">
-        <f>C18/D18</f>
+      <c r="E18" s="42">
+        <f t="shared" si="1"/>
         <v>5.9142434696895023</v>
       </c>
       <c r="F18" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="43">
         <v>0.22</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="41">
         <v>0.2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="41">
         <v>240</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="44">
         <v>0.68300000000000005</v>
       </c>
-      <c r="L18" s="34">
-        <f>K18/100</f>
+      <c r="L18" s="45">
+        <f t="shared" si="2"/>
         <v>6.8300000000000001E-3</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="41">
         <v>1</v>
       </c>
       <c r="N18" s="7">
         <v>34</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="41">
         <v>150</v>
       </c>
-      <c r="P18" s="11">
-        <f>(1/F18*C18)^0.5</f>
-        <v>346.41016151377545</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>($C$41*B18+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P18" s="46">
+        <f t="shared" si="5"/>
+        <v>519.6152422706632</v>
+      </c>
+      <c r="Q18" s="43">
+        <f t="shared" si="3"/>
         <v>0.85188197624632722</v>
       </c>
-      <c r="R18" s="2">
-        <f>$C$43*(1-EXP(-1/((G18-$C$40)*$C$44)))*Q18</f>
+      <c r="R18" s="43">
+        <f t="shared" si="4"/>
         <v>8.2166088571218108</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f>F19^$C$33*C19^$C$36*N19^$C$35*L19^$C$34*$C$37</f>
+    <row r="19" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" s="42">
+        <f t="shared" si="0"/>
         <v>5.8719997158891726</v>
       </c>
       <c r="C19" s="7">
@@ -7217,59 +7357,57 @@
       <c r="D19" s="8">
         <v>28.56</v>
       </c>
-      <c r="E19" s="3">
-        <f>C19/D19</f>
+      <c r="E19" s="42">
+        <f t="shared" si="1"/>
         <v>5.2521008403361344</v>
       </c>
       <c r="F19" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="43">
         <v>0.22</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="41">
         <v>0.2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="41">
         <v>240</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="44">
         <v>0.85299999999999998</v>
       </c>
-      <c r="L19" s="34">
-        <f>K19/100</f>
+      <c r="L19" s="45">
+        <f t="shared" si="2"/>
         <v>8.5299999999999994E-3</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="41">
         <v>1</v>
       </c>
       <c r="N19" s="7">
         <v>34</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="41">
         <v>150</v>
       </c>
-      <c r="P19" s="11">
-        <f>(1/F19*C19)^0.5</f>
-        <v>387.29833462074168</v>
-      </c>
-      <c r="Q19" s="2">
-        <f>($C$41*B19+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P19" s="46">
+        <f t="shared" si="5"/>
+        <v>580.94750193111258</v>
+      </c>
+      <c r="Q19" s="43">
+        <f t="shared" si="3"/>
         <v>0.75956742115884535</v>
       </c>
-      <c r="R19" s="2">
-        <f>$C$43*(1-EXP(-1/((G19-$C$40)*$C$44)))*Q19</f>
+      <c r="R19" s="43">
+        <f t="shared" si="4"/>
         <v>7.3262125203953081</v>
       </c>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:19" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3">
-        <f>F20^$C$33*C20^$C$36*N20^$C$35*L20^$C$34*$C$37</f>
+    </row>
+    <row r="20" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="42">
+        <f t="shared" si="0"/>
         <v>5.6851227388610237</v>
       </c>
       <c r="C20" s="7">
@@ -7278,59 +7416,57 @@
       <c r="D20" s="8">
         <v>31.41</v>
       </c>
-      <c r="E20" s="3">
-        <f>C20/D20</f>
+      <c r="E20" s="42">
+        <f t="shared" si="1"/>
         <v>5.0939191340337473</v>
       </c>
       <c r="F20" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="43">
         <v>0.22</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="41">
         <v>0.2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="41">
         <v>240</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="44">
         <v>0.91</v>
       </c>
-      <c r="L20" s="34">
-        <f>K20/100</f>
+      <c r="L20" s="45">
+        <f t="shared" si="2"/>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="41">
         <v>1</v>
       </c>
       <c r="N20" s="7">
         <v>34</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="41">
         <v>150</v>
       </c>
-      <c r="P20" s="11">
-        <f>(1/F20*C20)^0.5</f>
-        <v>400</v>
-      </c>
-      <c r="Q20" s="2">
-        <f>($C$41*B20+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P20" s="46">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="Q20" s="43">
+        <f t="shared" si="3"/>
         <v>0.73457295104549847</v>
       </c>
-      <c r="R20" s="2">
-        <f>$C$43*(1-EXP(-1/((G20-$C$40)*$C$44)))*Q20</f>
+      <c r="R20" s="43">
+        <f t="shared" si="4"/>
         <v>7.0851347769532884</v>
       </c>
-      <c r="S20" s="29"/>
-    </row>
-    <row r="21" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="3">
-        <f>F21^$C$33*C21^$C$36*N21^$C$35*L21^$C$34*$C$37</f>
+    </row>
+    <row r="21" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="42">
+        <f t="shared" si="0"/>
         <v>9.4655216854484117</v>
       </c>
       <c r="C21" s="7">
@@ -7339,58 +7475,57 @@
       <c r="D21" s="8">
         <v>5.81</v>
       </c>
-      <c r="E21" s="3">
-        <f>C21/D21</f>
+      <c r="E21" s="42">
+        <f t="shared" si="1"/>
         <v>8.6058519793459567</v>
       </c>
       <c r="F21" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="43">
         <v>0.22</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="41">
         <v>0.2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="41">
         <v>240</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L21" s="34">
-        <f>K21/100</f>
+      <c r="L21" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="41">
         <v>1</v>
       </c>
       <c r="N21" s="7">
         <v>39.299999999999997</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="41">
         <v>300</v>
       </c>
-      <c r="P21" s="11">
-        <f>(1/F21*C21)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="Q21" s="2">
-        <f>($C$41*B21+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P21" s="46">
+        <f t="shared" si="5"/>
+        <v>335.41019662496842</v>
+      </c>
+      <c r="Q21" s="43">
+        <f t="shared" si="3"/>
         <v>1.2401947242015048</v>
       </c>
-      <c r="R21" s="2">
-        <f>$C$43*(1-EXP(-1/((G21-$C$40)*$C$44)))*Q21</f>
+      <c r="R21" s="43">
+        <f t="shared" si="4"/>
         <v>11.961979757256026</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="3">
-        <f>F22^$C$33*C22^$C$36*N22^$C$35*L22^$C$34*$C$37</f>
+    <row r="22" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B22" s="42">
+        <f t="shared" si="0"/>
         <v>9.4787794392833309</v>
       </c>
       <c r="C22" s="7">
@@ -7399,58 +7534,57 @@
       <c r="D22" s="8">
         <v>6.07</v>
       </c>
-      <c r="E22" s="3">
-        <f>C22/D22</f>
+      <c r="E22" s="42">
+        <f t="shared" si="1"/>
         <v>8.2372322899505761</v>
       </c>
       <c r="F22" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="43">
         <v>0.22</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="41">
         <v>0.2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="41">
         <v>250</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="44">
         <v>0.106</v>
       </c>
-      <c r="L22" s="34">
-        <f>K22/100</f>
+      <c r="L22" s="45">
+        <f t="shared" si="2"/>
         <v>1.06E-3</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="41">
         <v>1</v>
       </c>
       <c r="N22" s="7">
         <v>105</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="41">
         <v>300</v>
       </c>
-      <c r="P22" s="11">
-        <f>(1/F22*C22)^0.5</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="Q22" s="2">
-        <f>($C$41*B22+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="P22" s="46">
+        <f t="shared" si="5"/>
+        <v>335.41019662496842</v>
+      </c>
+      <c r="Q22" s="43">
+        <f t="shared" si="3"/>
         <v>1.2419679256801819</v>
       </c>
-      <c r="R22" s="2">
-        <f>$C$43*(1-EXP(-1/((G22-$C$40)*$C$44)))*Q22</f>
+      <c r="R22" s="43">
+        <f t="shared" si="4"/>
         <v>11.979082716799034</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="3">
-        <f>F23^$C$33*C23^$C$36*N23^$C$35*L23^$C$34*$C$37</f>
+    <row r="23" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B23" s="42">
+        <f t="shared" si="0"/>
         <v>2.9932607767732864</v>
       </c>
       <c r="C23" s="7">
@@ -7459,58 +7593,58 @@
       <c r="D23" s="8">
         <v>19.14</v>
       </c>
-      <c r="E23" s="3">
-        <f>C23/D23</f>
+      <c r="E23" s="42">
+        <f t="shared" si="1"/>
         <v>2.6123301985370948</v>
       </c>
       <c r="F23" s="17">
         <v>1E-4</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="43">
         <v>0.22</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="41">
         <v>0.2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="41">
         <v>240</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="41">
         <v>68.599999999999994</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="44">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L23" s="34">
-        <f>K23/100</f>
+      <c r="L23" s="45">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="41">
         <v>1</v>
       </c>
       <c r="N23" s="7">
         <v>39.299999999999997</v>
       </c>
-      <c r="O23" s="11">
-        <f>P23</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="P23" s="11">
-        <f>(1/F23*C23)^0.5</f>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="Q23" s="2">
-        <f>($C$41*B23+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="O23" s="46">
+        <f t="shared" ref="O23:O29" si="6">P23</f>
+        <v>1060.6601717798212</v>
+      </c>
+      <c r="P23" s="46">
+        <f t="shared" si="5"/>
+        <v>1060.6601717798212</v>
+      </c>
+      <c r="Q23" s="43">
+        <f t="shared" si="3"/>
         <v>0.37454110319233536</v>
       </c>
-      <c r="R23" s="2">
-        <f>$C$43*(1-EXP(-1/((G23-$C$40)*$C$44)))*Q23</f>
+      <c r="R23" s="43">
+        <f t="shared" si="4"/>
         <v>3.6125400368330478</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
-        <f>F24^$C$33*C24^$C$36*N24^$C$35*L24^$C$34*$C$37</f>
+        <f t="shared" si="0"/>
         <v>4.5464074222856494</v>
       </c>
       <c r="C24" s="18">
@@ -7520,10 +7654,10 @@
         <v>12.25</v>
       </c>
       <c r="E24" s="10">
-        <f>C24/D24</f>
+        <f t="shared" si="1"/>
         <v>4.0816326530612246</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="21">
         <v>2.307E-4</v>
       </c>
       <c r="G24" s="32">
@@ -7538,11 +7672,11 @@
       <c r="J24" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="47">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L24" s="41">
-        <f>K24/100</f>
+      <c r="L24" s="48">
+        <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
       <c r="M24" s="9">
@@ -7552,25 +7686,25 @@
         <v>39.299999999999997</v>
       </c>
       <c r="O24" s="33">
-        <f>P24</f>
-        <v>465.54450503954871</v>
+        <f t="shared" si="6"/>
+        <v>698.31675755932304</v>
       </c>
       <c r="P24" s="33">
-        <f>(1/F24*C24)^0.5</f>
-        <v>465.54450503954871</v>
+        <f t="shared" si="5"/>
+        <v>698.31675755932304</v>
       </c>
       <c r="Q24" s="32">
-        <f>($C$41*B24+$C$42)/($C$41*$C$39+$C$42)</f>
+        <f t="shared" si="3"/>
         <v>0.58227176124475299</v>
       </c>
       <c r="R24" s="32">
-        <f>$C$43*(1-EXP(-1/((G24-$C$40)*$C$44)))*Q24</f>
+        <f t="shared" si="4"/>
         <v>5.6161527583630226</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
-        <f>F25^$C$33*C25^$C$36*N25^$C$35*L25^$C$34*$C$37</f>
+        <f t="shared" si="0"/>
         <v>4.0439665689090836</v>
       </c>
       <c r="C25" s="18">
@@ -7580,10 +7714,10 @@
         <v>29.18</v>
       </c>
       <c r="E25" s="10">
-        <f>C25/D25</f>
+        <f t="shared" si="1"/>
         <v>3.4270047978067169</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="21">
         <v>3.6460000000000003E-4</v>
       </c>
       <c r="G25" s="32">
@@ -7598,11 +7732,11 @@
       <c r="J25" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="47">
         <v>0.21229000000000001</v>
       </c>
-      <c r="L25" s="41">
-        <f>K25/100</f>
+      <c r="L25" s="48">
+        <f t="shared" si="2"/>
         <v>2.1229E-3</v>
       </c>
       <c r="M25" s="9">
@@ -7612,26 +7746,26 @@
         <v>105.02</v>
       </c>
       <c r="O25" s="33">
-        <f>P25</f>
-        <v>523.71096616681518</v>
+        <f t="shared" si="6"/>
+        <v>785.56644925022283</v>
       </c>
       <c r="P25" s="33">
-        <f>(1/F25*C25)^0.5</f>
-        <v>523.71096616681518</v>
+        <f t="shared" si="5"/>
+        <v>785.56644925022283</v>
       </c>
       <c r="Q25" s="32">
-        <f>($C$41*B25+$C$42)/($C$41*$C$39+$C$42)</f>
+        <f t="shared" si="3"/>
         <v>0.51507117242340494</v>
       </c>
       <c r="R25" s="32">
-        <f>$C$43*(1-EXP(-1/((G25-$C$40)*$C$44)))*Q25</f>
+        <f t="shared" si="4"/>
         <v>4.9679867345362334</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
       <c r="B26" s="10">
-        <f>F26^$C$33*C26^$C$36*N26^$C$35*L26^$C$34*$C$37</f>
+        <f t="shared" si="0"/>
         <v>4.2461061118655543</v>
       </c>
       <c r="C26" s="18">
@@ -7641,10 +7775,10 @@
         <v>45.6</v>
       </c>
       <c r="E26" s="10">
-        <f>C26/D26</f>
+        <f t="shared" si="1"/>
         <v>3.2894736842105261</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="21">
         <v>5.5639999999999997E-4</v>
       </c>
       <c r="G26" s="32">
@@ -7659,11 +7793,11 @@
       <c r="J26" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="47">
         <v>0.1188</v>
       </c>
-      <c r="L26" s="41">
-        <f>K26/100</f>
+      <c r="L26" s="48">
+        <f t="shared" si="2"/>
         <v>1.188E-3</v>
       </c>
       <c r="M26" s="9">
@@ -7673,26 +7807,26 @@
         <v>259.77</v>
       </c>
       <c r="O26" s="33">
-        <f>P26</f>
-        <v>519.22078431169427</v>
+        <f t="shared" si="6"/>
+        <v>778.83117646754135</v>
       </c>
       <c r="P26" s="33">
-        <f>(1/F26*C26)^0.5</f>
-        <v>519.22078431169427</v>
+        <f t="shared" si="5"/>
+        <v>778.83117646754135</v>
       </c>
       <c r="Q26" s="32">
-        <f>($C$41*B26+$C$42)/($C$41*$C$39+$C$42)</f>
+        <f t="shared" si="3"/>
         <v>0.54210698414027636</v>
       </c>
       <c r="R26" s="32">
-        <f>$C$43*(1-EXP(-1/((G26-$C$40)*$C$44)))*Q26</f>
+        <f t="shared" si="4"/>
         <v>5.2287537142429255</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="10">
-        <f>F27^$C$33*C27^$C$36*N27^$C$35*L27^$C$34*$C$37</f>
+        <f t="shared" si="0"/>
         <v>9.0434361758540334</v>
       </c>
       <c r="C27" s="18">
@@ -7702,10 +7836,10 @@
         <v>2.54</v>
       </c>
       <c r="E27" s="10">
-        <f>C27/D27</f>
+        <f t="shared" si="1"/>
         <v>7.8740157480314963</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="21">
         <v>3.6460000000000003E-4</v>
       </c>
       <c r="G27" s="32">
@@ -7720,11 +7854,11 @@
       <c r="J27" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="47">
         <v>4.2450000000000002E-2</v>
       </c>
-      <c r="L27" s="41">
-        <f>K27/100</f>
+      <c r="L27" s="48">
+        <f t="shared" si="2"/>
         <v>4.2450000000000002E-4</v>
       </c>
       <c r="M27" s="9">
@@ -7734,75 +7868,157 @@
         <v>105.02</v>
       </c>
       <c r="O27" s="33">
-        <f>P27</f>
-        <v>234.21066418221824</v>
+        <f t="shared" si="6"/>
+        <v>351.31599627332736</v>
       </c>
       <c r="P27" s="33">
-        <f>(1/F27*C27)^0.5</f>
-        <v>234.21066418221824</v>
+        <f t="shared" si="5"/>
+        <v>351.31599627332736</v>
       </c>
       <c r="Q27" s="32">
-        <f>($C$41*B27+$C$42)/($C$41*$C$39+$C$42)</f>
+        <f t="shared" si="3"/>
         <v>1.1837415226214918</v>
       </c>
       <c r="R27" s="32">
-        <f>$C$43*(1-EXP(-1/((G27-$C$40)*$C$44)))*Q27</f>
+        <f t="shared" si="4"/>
         <v>11.417474897370257</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-    </row>
-    <row r="29" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28" si="7">F28^$C$33*C28^$C$36*N28^$C$35*L28^$C$34*$C$37</f>
+        <v>7.3444209317235085</v>
+      </c>
+      <c r="C28" s="18">
+        <v>20</v>
+      </c>
+      <c r="D28" s="31">
+        <v>3.15</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" ref="E28" si="8">C28/D28</f>
+        <v>6.3492063492063497</v>
+      </c>
+      <c r="F28" s="21">
+        <v>3.6460000000000003E-4</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I28" s="9">
+        <v>250</v>
+      </c>
+      <c r="J28" s="9">
+        <v>100</v>
+      </c>
+      <c r="K28" s="47">
+        <v>6.4362000000000003E-2</v>
+      </c>
+      <c r="L28" s="48">
+        <f t="shared" si="2"/>
+        <v>6.4362000000000002E-4</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="18">
+        <v>105.02</v>
+      </c>
+      <c r="O28" s="33">
+        <f t="shared" si="6"/>
+        <v>351.31599627332736</v>
+      </c>
+      <c r="P28" s="33">
+        <f t="shared" si="5"/>
+        <v>351.31599627332736</v>
+      </c>
+      <c r="Q28" s="32">
+        <f t="shared" ref="Q28" si="9">($C$41*B28+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.95650119362609731</v>
+      </c>
+      <c r="R28" s="32">
+        <f t="shared" ref="R28" si="10">$C$43*(1-EXP(-1/((G28-$C$40)*$C$44)))*Q28</f>
+        <v>9.2256866544189418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-    </row>
-    <row r="30" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <f t="shared" ref="B29" si="11">F29^$C$33*C29^$C$36*N29^$C$35*L29^$C$34*$C$37</f>
+        <v>3.9095463928829401</v>
+      </c>
+      <c r="C29" s="18">
+        <v>20</v>
+      </c>
+      <c r="D29" s="31">
+        <v>6.81</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" ref="E29" si="12">C29/D29</f>
+        <v>2.9368575624082234</v>
+      </c>
+      <c r="F29" s="21">
+        <v>5.5643000000000001E-4</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>260</v>
+      </c>
+      <c r="J29" s="9">
+        <v>100</v>
+      </c>
+      <c r="K29" s="47">
+        <v>0.14013999999999999</v>
+      </c>
+      <c r="L29" s="48">
+        <f t="shared" si="2"/>
+        <v>1.4013999999999999E-3</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="18">
+        <v>259.774</v>
+      </c>
+      <c r="O29" s="33">
+        <f t="shared" si="6"/>
+        <v>284.38126935540089</v>
+      </c>
+      <c r="P29" s="33">
+        <f t="shared" ref="P29" si="13">(1/F29*C29)^0.5*1.5</f>
+        <v>284.38126935540089</v>
+      </c>
+      <c r="Q29" s="32">
+        <f t="shared" ref="Q29" si="14">($C$41*B29+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.49709270805745892</v>
+      </c>
+      <c r="R29" s="32">
+        <f t="shared" ref="R29" si="15">$C$43*(1-EXP(-1/((G29-$C$40)*$C$44)))*Q29</f>
+        <v>4.7945800729730985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="10"/>
       <c r="C30" s="18"/>
       <c r="D30" s="31"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="39"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="32"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="9"/>
       <c r="N30" s="18"/>
       <c r="O30" s="33"/>
@@ -7810,19 +8026,19 @@
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
     </row>
-    <row r="31" spans="1:19" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
       <c r="F31" s="20"/>
       <c r="G31" s="12"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="24"/>
       <c r="N31" s="15"/>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
@@ -7862,7 +8078,7 @@
       <c r="G33" s="19">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="K33" s="36"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
@@ -7963,10 +8179,10 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -8217,1721 +8433,1971 @@
         <v>3210</v>
       </c>
     </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C80" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C81" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C82" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C83" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C84" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C85" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C86" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C87" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C88" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C89" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C90" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C91" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C92" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C93" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C94" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C95" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C96" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C97" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C98" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C99" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C100" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C101" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C102" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C103" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C104" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C105" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C106" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C107" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108" s="8">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>500</v>
+      </c>
+      <c r="C109" s="7">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>1000</v>
+      </c>
+      <c r="C110" s="8">
+        <v>9.2207000000000008</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B82" s="26">
-        <f t="shared" ref="B82:B111" si="0">G82</f>
+    <row r="116" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B116" s="26">
+        <f t="shared" ref="B116:B145" si="16">G116</f>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C116" s="15">
         <v>50</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D116" s="13">
         <v>18.66</v>
       </c>
-      <c r="E82" s="14">
-        <f t="shared" ref="E82:E111" si="1">C82/D82</f>
+      <c r="E116" s="14">
+        <f t="shared" ref="E116:E145" si="17">C116/D116</f>
         <v>2.679528403001072</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F116" s="20">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G116" s="26">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H116" s="6">
         <v>0.2</v>
       </c>
-      <c r="K82" s="38">
-        <f t="shared" ref="K82:K111" si="2">$C$37+$C$38*C82</f>
+      <c r="K116" s="37">
+        <f t="shared" ref="K116:K145" si="18">$C$37+$C$38*C116</f>
         <v>100.28506271379703</v>
       </c>
-      <c r="L82" s="24"/>
-      <c r="M82" s="6">
+      <c r="L116" s="24"/>
+      <c r="M116" s="6">
         <v>1</v>
       </c>
-      <c r="N82" s="15">
+      <c r="N116" s="15">
         <v>34</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O116" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B83" s="26">
-        <f t="shared" si="0"/>
+    <row r="117" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B117" s="26">
+        <f t="shared" si="16"/>
         <v>-0.5</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C117" s="15">
         <v>50</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D117" s="13">
         <v>16.86</v>
       </c>
-      <c r="E83" s="14">
-        <f t="shared" si="1"/>
+      <c r="E117" s="14">
+        <f t="shared" si="17"/>
         <v>2.9655990510083039</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F117" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G117" s="26">
         <v>-0.5</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H117" s="6">
         <v>0.2</v>
       </c>
-      <c r="K83" s="38">
-        <f t="shared" si="2"/>
+      <c r="K117" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="6">
+      <c r="L117" s="24"/>
+      <c r="M117" s="6">
         <v>1</v>
       </c>
-      <c r="N83" s="15">
+      <c r="N117" s="15">
         <v>34</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O117" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B84" s="26">
-        <f t="shared" si="0"/>
+    <row r="118" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B118" s="26">
+        <f t="shared" si="16"/>
         <v>-0.45</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C118" s="15">
         <v>50</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D118" s="13">
         <v>15.02</v>
       </c>
-      <c r="E84" s="14">
-        <f t="shared" si="1"/>
+      <c r="E118" s="14">
+        <f t="shared" si="17"/>
         <v>3.3288948069241013</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F118" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G118" s="26">
         <v>-0.45</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H118" s="6">
         <v>0.2</v>
       </c>
-      <c r="K84" s="38">
-        <f t="shared" si="2"/>
+      <c r="K118" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L84" s="24"/>
-      <c r="M84" s="6">
+      <c r="L118" s="24"/>
+      <c r="M118" s="6">
         <v>1</v>
       </c>
-      <c r="N84" s="15">
+      <c r="N118" s="15">
         <v>34</v>
       </c>
-      <c r="O84" s="6">
+      <c r="O118" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B85" s="26">
-        <f t="shared" si="0"/>
+    <row r="119" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B119" s="26">
+        <f t="shared" si="16"/>
         <v>-0.4</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C119" s="15">
         <v>50</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D119" s="13">
         <v>13.37</v>
       </c>
-      <c r="E85" s="14">
-        <f t="shared" si="1"/>
+      <c r="E119" s="14">
+        <f t="shared" si="17"/>
         <v>3.7397157816005984</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F119" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G85" s="26">
+      <c r="G119" s="26">
         <v>-0.4</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H119" s="6">
         <v>0.2</v>
       </c>
-      <c r="K85" s="38">
-        <f t="shared" si="2"/>
+      <c r="K119" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L85" s="24"/>
-      <c r="M85" s="6">
+      <c r="L119" s="24"/>
+      <c r="M119" s="6">
         <v>1</v>
       </c>
-      <c r="N85" s="15">
+      <c r="N119" s="15">
         <v>34</v>
       </c>
-      <c r="O85" s="6">
+      <c r="O119" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="86" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B86" s="26">
-        <f t="shared" si="0"/>
+    <row r="120" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B120" s="26">
+        <f t="shared" si="16"/>
         <v>-0.3</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C120" s="15">
         <v>50</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D120" s="13">
         <v>10.14</v>
       </c>
-      <c r="E86" s="14">
-        <f t="shared" si="1"/>
+      <c r="E120" s="14">
+        <f t="shared" si="17"/>
         <v>4.9309664694280073</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F120" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G120" s="26">
         <v>-0.3</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H120" s="6">
         <v>0.2</v>
       </c>
-      <c r="K86" s="38">
-        <f t="shared" si="2"/>
+      <c r="K120" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L86" s="24"/>
-      <c r="M86" s="6">
+      <c r="L120" s="24"/>
+      <c r="M120" s="6">
         <v>1</v>
       </c>
-      <c r="N86" s="15">
+      <c r="N120" s="15">
         <v>34</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O120" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B87" s="26">
-        <f t="shared" si="0"/>
+    <row r="121" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B121" s="26">
+        <f t="shared" si="16"/>
         <v>-0.25</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C121" s="15">
         <v>50</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D121" s="13">
         <v>8.58</v>
       </c>
-      <c r="E87" s="14">
-        <f t="shared" si="1"/>
+      <c r="E121" s="14">
+        <f t="shared" si="17"/>
         <v>5.8275058275058278</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F121" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G121" s="26">
         <v>-0.25</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H121" s="6">
         <v>0.2</v>
       </c>
-      <c r="K87" s="38">
-        <f t="shared" si="2"/>
+      <c r="K121" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L87" s="24"/>
-      <c r="M87" s="6">
+      <c r="L121" s="24"/>
+      <c r="M121" s="6">
         <v>1</v>
       </c>
-      <c r="N87" s="15">
+      <c r="N121" s="15">
         <v>34</v>
       </c>
-      <c r="O87" s="6">
+      <c r="O121" s="6">
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B88" s="26">
-        <f t="shared" si="0"/>
+    <row r="122" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B122" s="26">
+        <f t="shared" si="16"/>
         <v>-0.2</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C122" s="15">
         <v>50</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D122" s="13">
         <v>7.06</v>
       </c>
-      <c r="E88" s="14">
-        <f t="shared" si="1"/>
+      <c r="E122" s="14">
+        <f t="shared" si="17"/>
         <v>7.0821529745042495</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F122" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G88" s="26">
+      <c r="G122" s="26">
         <v>-0.2</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H122" s="6">
         <v>0.2</v>
       </c>
-      <c r="K88" s="38">
-        <f t="shared" si="2"/>
+      <c r="K122" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L88" s="24"/>
-      <c r="M88" s="6">
+      <c r="L122" s="24"/>
+      <c r="M122" s="6">
         <v>1</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N122" s="15">
         <v>34</v>
       </c>
-      <c r="O88" s="6">
+      <c r="O122" s="6">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B89" s="26">
-        <f t="shared" si="0"/>
+    <row r="123" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B123" s="26">
+        <f t="shared" si="16"/>
         <v>-0.15</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C123" s="15">
         <v>50</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D123" s="13">
         <v>5.6</v>
       </c>
-      <c r="E89" s="14">
-        <f t="shared" si="1"/>
+      <c r="E123" s="14">
+        <f t="shared" si="17"/>
         <v>8.9285714285714288</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F123" s="20">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G89" s="26">
+      <c r="G123" s="26">
         <v>-0.15</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H123" s="6">
         <v>0.2</v>
       </c>
-      <c r="K89" s="38">
-        <f t="shared" si="2"/>
+      <c r="K123" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L89" s="24"/>
-      <c r="M89" s="6">
+      <c r="L123" s="24"/>
+      <c r="M123" s="6">
         <v>1</v>
       </c>
-      <c r="N89" s="15">
+      <c r="N123" s="15">
         <v>34</v>
       </c>
-      <c r="O89" s="6">
+      <c r="O123" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B90" s="26">
-        <f t="shared" si="0"/>
+    <row r="124" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B124" s="26">
+        <f t="shared" si="16"/>
         <v>-0.125</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C124" s="15">
         <v>50</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D124" s="13">
         <v>4.84</v>
       </c>
-      <c r="E90" s="14">
-        <f t="shared" si="1"/>
+      <c r="E124" s="14">
+        <f t="shared" si="17"/>
         <v>10.330578512396695</v>
       </c>
-      <c r="F90" s="20">
+      <c r="F124" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G124" s="26">
         <v>-0.125</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H124" s="6">
         <v>0.2</v>
       </c>
-      <c r="K90" s="38">
-        <f t="shared" si="2"/>
+      <c r="K124" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L90" s="24"/>
-      <c r="M90" s="6">
+      <c r="L124" s="24"/>
+      <c r="M124" s="6">
         <v>1</v>
       </c>
-      <c r="N90" s="15">
+      <c r="N124" s="15">
         <v>34</v>
       </c>
-      <c r="O90" s="6">
+      <c r="O124" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B91" s="26">
-        <f t="shared" si="0"/>
+    <row r="125" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B125" s="26">
+        <f t="shared" si="16"/>
         <v>-0.1</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C125" s="15">
         <v>50</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D125" s="13">
         <v>4.13</v>
       </c>
-      <c r="E91" s="14">
-        <f t="shared" si="1"/>
+      <c r="E125" s="14">
+        <f t="shared" si="17"/>
         <v>12.106537530266344</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F125" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G91" s="26">
+      <c r="G125" s="26">
         <v>-0.1</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H125" s="6">
         <v>0.2</v>
       </c>
-      <c r="K91" s="38">
-        <f t="shared" si="2"/>
+      <c r="K125" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L91" s="24"/>
-      <c r="M91" s="6">
+      <c r="L125" s="24"/>
+      <c r="M125" s="6">
         <v>1</v>
       </c>
-      <c r="N91" s="15">
+      <c r="N125" s="15">
         <v>34</v>
       </c>
-      <c r="O91" s="6">
+      <c r="O125" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B92" s="26">
-        <f t="shared" si="0"/>
+    <row r="126" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B126" s="26">
+        <f t="shared" si="16"/>
         <v>-0.09</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C126" s="15">
         <v>50</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D126" s="13">
         <v>3.84</v>
       </c>
-      <c r="E92" s="14">
-        <f t="shared" si="1"/>
+      <c r="E126" s="14">
+        <f t="shared" si="17"/>
         <v>13.020833333333334</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F126" s="20">
         <v>3.0009999999999999</v>
       </c>
-      <c r="G92" s="26">
+      <c r="G126" s="26">
         <v>-0.09</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H126" s="6">
         <v>3.2</v>
       </c>
-      <c r="K92" s="38">
-        <f t="shared" si="2"/>
+      <c r="K126" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L92" s="24"/>
-      <c r="M92" s="6">
+      <c r="L126" s="24"/>
+      <c r="M126" s="6">
         <v>1</v>
       </c>
-      <c r="N92" s="15">
+      <c r="N126" s="15">
         <v>34</v>
       </c>
-      <c r="O92" s="6">
+      <c r="O126" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B93" s="26">
-        <f t="shared" si="0"/>
+    <row r="127" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B127" s="26">
+        <f t="shared" si="16"/>
         <v>-0.08</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C127" s="15">
         <v>50</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D127" s="13">
         <v>3.54</v>
       </c>
-      <c r="E93" s="14">
-        <f t="shared" si="1"/>
+      <c r="E127" s="14">
+        <f t="shared" si="17"/>
         <v>14.124293785310734</v>
       </c>
-      <c r="F93" s="20">
+      <c r="F127" s="20">
         <v>2.0009999999999999</v>
       </c>
-      <c r="G93" s="26">
+      <c r="G127" s="26">
         <v>-0.08</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H127" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K93" s="38">
-        <f t="shared" si="2"/>
+      <c r="K127" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L93" s="24"/>
-      <c r="M93" s="6">
+      <c r="L127" s="24"/>
+      <c r="M127" s="6">
         <v>1</v>
       </c>
-      <c r="N93" s="15">
+      <c r="N127" s="15">
         <v>34</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O127" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B94" s="26">
-        <f t="shared" si="0"/>
+    <row r="128" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B128" s="26">
+        <f t="shared" si="16"/>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C128" s="15">
         <v>50</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D128" s="13">
         <v>3.23</v>
       </c>
-      <c r="E94" s="14">
-        <f t="shared" si="1"/>
+      <c r="E128" s="14">
+        <f t="shared" si="17"/>
         <v>15.479876160990711</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F128" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G94" s="26">
+      <c r="G128" s="26">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H128" s="6">
         <v>0.2</v>
       </c>
-      <c r="K94" s="38">
-        <f t="shared" si="2"/>
+      <c r="K128" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L94" s="24"/>
-      <c r="M94" s="6">
+      <c r="L128" s="24"/>
+      <c r="M128" s="6">
         <v>1</v>
       </c>
-      <c r="N94" s="15">
+      <c r="N128" s="15">
         <v>34</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O128" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="95" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B95" s="26">
-        <f t="shared" si="0"/>
+    <row r="129" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B129" s="26">
+        <f t="shared" si="16"/>
         <v>-0.06</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C129" s="15">
         <v>50</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D129" s="13">
         <v>2.93</v>
       </c>
-      <c r="E95" s="14">
-        <f t="shared" si="1"/>
+      <c r="E129" s="14">
+        <f t="shared" si="17"/>
         <v>17.064846416382252</v>
       </c>
-      <c r="F95" s="20">
+      <c r="F129" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G129" s="26">
         <v>-0.06</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H129" s="6">
         <v>0.2</v>
       </c>
-      <c r="K95" s="38">
-        <f t="shared" si="2"/>
+      <c r="K129" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L95" s="24"/>
-      <c r="M95" s="6">
+      <c r="L129" s="24"/>
+      <c r="M129" s="6">
         <v>1</v>
       </c>
-      <c r="N95" s="15">
+      <c r="N129" s="15">
         <v>34</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O129" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B96" s="26">
-        <f t="shared" si="0"/>
+    <row r="130" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B130" s="26">
+        <f t="shared" si="16"/>
         <v>-0.05</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C130" s="15">
         <v>50</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D130" s="13">
         <v>2.75</v>
       </c>
-      <c r="E96" s="14">
-        <f t="shared" si="1"/>
+      <c r="E130" s="14">
+        <f t="shared" si="17"/>
         <v>18.181818181818183</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F130" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G96" s="26">
+      <c r="G130" s="26">
         <v>-0.05</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H130" s="6">
         <v>0.2</v>
       </c>
-      <c r="K96" s="38">
-        <f t="shared" si="2"/>
+      <c r="K130" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L96" s="24"/>
-      <c r="M96" s="6">
+      <c r="L130" s="24"/>
+      <c r="M130" s="6">
         <v>1</v>
       </c>
-      <c r="N96" s="15">
+      <c r="N130" s="15">
         <v>34</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O130" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B97" s="26">
-        <f t="shared" si="0"/>
+    <row r="131" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B131" s="26">
+        <f t="shared" si="16"/>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C131" s="15">
         <v>50</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D131" s="13">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E97" s="14">
-        <f t="shared" si="1"/>
+      <c r="E131" s="14">
+        <f t="shared" si="17"/>
         <v>20.242914979757085</v>
       </c>
-      <c r="F97" s="20">
+      <c r="F131" s="20">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G97" s="26">
+      <c r="G131" s="26">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H131" s="6">
         <v>0.2</v>
       </c>
-      <c r="K97" s="38">
-        <f t="shared" si="2"/>
+      <c r="K131" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L97" s="24"/>
-      <c r="M97" s="6">
+      <c r="L131" s="24"/>
+      <c r="M131" s="6">
         <v>1</v>
       </c>
-      <c r="N97" s="15">
+      <c r="N131" s="15">
         <v>34</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O131" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B98" s="26">
-        <f t="shared" si="0"/>
+    <row r="132" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B132" s="26">
+        <f t="shared" si="16"/>
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C132" s="15">
         <v>50</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D132" s="13">
         <v>2.15</v>
       </c>
-      <c r="E98" s="14">
-        <f t="shared" si="1"/>
+      <c r="E132" s="14">
+        <f t="shared" si="17"/>
         <v>23.255813953488374</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F132" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G98" s="26">
+      <c r="G132" s="26">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H132" s="6">
         <v>0.2</v>
       </c>
-      <c r="K98" s="38">
-        <f t="shared" si="2"/>
+      <c r="K132" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L98" s="24"/>
-      <c r="M98" s="6">
+      <c r="L132" s="24"/>
+      <c r="M132" s="6">
         <v>1</v>
       </c>
-      <c r="N98" s="15">
+      <c r="N132" s="15">
         <v>34</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O132" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="99" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B99" s="26">
-        <f t="shared" si="0"/>
+    <row r="133" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B133" s="26">
+        <f t="shared" si="16"/>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C133" s="15">
         <v>50</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D133" s="13">
         <v>1.81</v>
       </c>
-      <c r="E99" s="14">
-        <f t="shared" si="1"/>
+      <c r="E133" s="14">
+        <f t="shared" si="17"/>
         <v>27.624309392265193</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F133" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G99" s="26">
+      <c r="G133" s="26">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H133" s="6">
         <v>0.2</v>
       </c>
-      <c r="K99" s="38">
-        <f t="shared" si="2"/>
+      <c r="K133" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L99" s="24"/>
-      <c r="M99" s="6">
+      <c r="L133" s="24"/>
+      <c r="M133" s="6">
         <v>1</v>
       </c>
-      <c r="N99" s="15">
+      <c r="N133" s="15">
         <v>34</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O133" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="100" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B100" s="26">
-        <f t="shared" si="0"/>
+    <row r="134" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B134" s="26">
+        <f t="shared" si="16"/>
         <v>-2.2499999999999999E-2</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C134" s="15">
         <v>50</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D134" s="13">
         <v>1.72</v>
       </c>
-      <c r="E100" s="14">
-        <f t="shared" si="1"/>
+      <c r="E134" s="14">
+        <f t="shared" si="17"/>
         <v>29.069767441860467</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F134" s="20">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G100" s="26">
+      <c r="G134" s="26">
         <v>-2.2499999999999999E-2</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H134" s="6">
         <v>1.2</v>
       </c>
-      <c r="K100" s="38">
-        <f t="shared" si="2"/>
+      <c r="K134" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L100" s="24"/>
-      <c r="M100" s="6">
+      <c r="L134" s="24"/>
+      <c r="M134" s="6">
         <v>1</v>
       </c>
-      <c r="N100" s="15">
+      <c r="N134" s="15">
         <v>34</v>
       </c>
-      <c r="O100" s="6">
+      <c r="O134" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B101" s="26">
-        <f t="shared" si="0"/>
+    <row r="135" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B135" s="26">
+        <f t="shared" si="16"/>
         <v>0.2225</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C135" s="15">
         <v>50</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D135" s="13">
         <v>5.45</v>
       </c>
-      <c r="E101" s="14">
-        <f t="shared" si="1"/>
+      <c r="E135" s="14">
+        <f t="shared" si="17"/>
         <v>9.1743119266055047</v>
       </c>
-      <c r="F101" s="20">
+      <c r="F135" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G101" s="26">
+      <c r="G135" s="26">
         <v>0.2225</v>
       </c>
-      <c r="H101" s="6">
+      <c r="H135" s="6">
         <v>0.2</v>
       </c>
-      <c r="K101" s="38">
-        <f t="shared" si="2"/>
+      <c r="K135" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L101" s="24"/>
-      <c r="M101" s="6">
+      <c r="L135" s="24"/>
+      <c r="M135" s="6">
         <v>1</v>
       </c>
-      <c r="N101" s="15">
+      <c r="N135" s="15">
         <v>34</v>
       </c>
-      <c r="O101" s="6">
+      <c r="O135" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B102" s="26">
-        <f t="shared" si="0"/>
+    <row r="136" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B136" s="26">
+        <f t="shared" si="16"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C136" s="15">
         <v>50</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D136" s="13">
         <v>5.46</v>
       </c>
-      <c r="E102" s="14">
-        <f t="shared" si="1"/>
+      <c r="E136" s="14">
+        <f t="shared" si="17"/>
         <v>9.1575091575091569</v>
       </c>
-      <c r="F102" s="20">
+      <c r="F136" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G102" s="26">
+      <c r="G136" s="26">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H136" s="6">
         <v>0.2</v>
       </c>
-      <c r="K102" s="38">
-        <f t="shared" si="2"/>
+      <c r="K136" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L102" s="24"/>
-      <c r="M102" s="6">
+      <c r="L136" s="24"/>
+      <c r="M136" s="6">
         <v>1</v>
       </c>
-      <c r="N102" s="15">
+      <c r="N136" s="15">
         <v>34</v>
       </c>
-      <c r="O102" s="6">
+      <c r="O136" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B103" s="26">
-        <f t="shared" si="0"/>
+    <row r="137" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B137" s="26">
+        <f t="shared" si="16"/>
         <v>0.23</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C137" s="15">
         <v>50</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D137" s="13">
         <v>5.52</v>
       </c>
-      <c r="E103" s="14">
-        <f t="shared" si="1"/>
+      <c r="E137" s="14">
+        <f t="shared" si="17"/>
         <v>9.0579710144927539</v>
       </c>
-      <c r="F103" s="20">
+      <c r="F137" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G103" s="26">
+      <c r="G137" s="26">
         <v>0.23</v>
       </c>
-      <c r="H103" s="6">
+      <c r="H137" s="6">
         <v>0.2</v>
       </c>
-      <c r="K103" s="38">
-        <f t="shared" si="2"/>
+      <c r="K137" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L103" s="24"/>
-      <c r="M103" s="6">
+      <c r="L137" s="24"/>
+      <c r="M137" s="6">
         <v>1</v>
       </c>
-      <c r="N103" s="15">
+      <c r="N137" s="15">
         <v>34</v>
       </c>
-      <c r="O103" s="6">
+      <c r="O137" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B104" s="26">
-        <f t="shared" si="0"/>
+    <row r="138" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B138" s="26">
+        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C138" s="15">
         <v>50</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D138" s="13">
         <v>5.7</v>
       </c>
-      <c r="E104" s="14">
-        <f t="shared" si="1"/>
+      <c r="E138" s="14">
+        <f t="shared" si="17"/>
         <v>8.7719298245614024</v>
       </c>
-      <c r="F104" s="20">
+      <c r="F138" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G104" s="26">
+      <c r="G138" s="26">
         <v>0.24</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H138" s="6">
         <v>0.2</v>
       </c>
-      <c r="K104" s="38">
-        <f t="shared" si="2"/>
+      <c r="K138" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L104" s="24"/>
-      <c r="M104" s="6">
+      <c r="L138" s="24"/>
+      <c r="M138" s="6">
         <v>1</v>
       </c>
-      <c r="N104" s="15">
+      <c r="N138" s="15">
         <v>34</v>
       </c>
-      <c r="O104" s="6">
+      <c r="O138" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B105" s="26">
-        <f t="shared" si="0"/>
+    <row r="139" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B139" s="26">
+        <f t="shared" si="16"/>
         <v>0.26</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C139" s="15">
         <v>50</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D139" s="13">
         <v>6.14</v>
       </c>
-      <c r="E105" s="14">
-        <f t="shared" si="1"/>
+      <c r="E139" s="14">
+        <f t="shared" si="17"/>
         <v>8.1433224755700326</v>
       </c>
-      <c r="F105" s="20">
+      <c r="F139" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G105" s="26">
+      <c r="G139" s="26">
         <v>0.26</v>
       </c>
-      <c r="H105" s="6">
+      <c r="H139" s="6">
         <v>0.2</v>
       </c>
-      <c r="K105" s="38">
-        <f t="shared" si="2"/>
+      <c r="K139" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L105" s="24"/>
-      <c r="M105" s="6">
+      <c r="L139" s="24"/>
+      <c r="M139" s="6">
         <v>1</v>
       </c>
-      <c r="N105" s="15">
+      <c r="N139" s="15">
         <v>34</v>
       </c>
-      <c r="O105" s="6">
+      <c r="O139" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B106" s="26">
-        <f t="shared" si="0"/>
+    <row r="140" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B140" s="26">
+        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C140" s="15">
         <v>50</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D140" s="13">
         <v>6.66</v>
       </c>
-      <c r="E106" s="14">
-        <f t="shared" si="1"/>
+      <c r="E140" s="14">
+        <f t="shared" si="17"/>
         <v>7.5075075075075075</v>
       </c>
-      <c r="F106" s="20">
+      <c r="F140" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G106" s="26">
+      <c r="G140" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H140" s="6">
         <v>0.2</v>
       </c>
-      <c r="K106" s="38">
-        <f t="shared" si="2"/>
+      <c r="K140" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L106" s="24"/>
-      <c r="M106" s="6">
+      <c r="L140" s="24"/>
+      <c r="M140" s="6">
         <v>1</v>
       </c>
-      <c r="N106" s="15">
+      <c r="N140" s="15">
         <v>34</v>
       </c>
-      <c r="O106" s="6">
+      <c r="O140" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B107" s="26">
-        <f t="shared" si="0"/>
+    <row r="141" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B141" s="26">
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C141" s="15">
         <v>50</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D141" s="13">
         <v>7.2</v>
       </c>
-      <c r="E107" s="14">
-        <f t="shared" si="1"/>
+      <c r="E141" s="14">
+        <f t="shared" si="17"/>
         <v>6.9444444444444446</v>
       </c>
-      <c r="F107" s="20">
+      <c r="F141" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G107" s="26">
+      <c r="G141" s="26">
         <v>0.3</v>
       </c>
-      <c r="H107" s="6">
+      <c r="H141" s="6">
         <v>0.2</v>
       </c>
-      <c r="K107" s="38">
-        <f t="shared" si="2"/>
+      <c r="K141" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L107" s="24"/>
-      <c r="M107" s="6">
+      <c r="L141" s="24"/>
+      <c r="M141" s="6">
         <v>1</v>
       </c>
-      <c r="N107" s="15">
+      <c r="N141" s="15">
         <v>34</v>
       </c>
-      <c r="O107" s="6">
+      <c r="O141" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B108" s="26">
-        <f t="shared" si="0"/>
+    <row r="142" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B142" s="26">
+        <f t="shared" si="16"/>
         <v>0.35</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C142" s="15">
         <v>50</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D142" s="13">
         <v>8.61</v>
       </c>
-      <c r="E108" s="14">
-        <f t="shared" si="1"/>
+      <c r="E142" s="14">
+        <f t="shared" si="17"/>
         <v>5.8072009291521489</v>
       </c>
-      <c r="F108" s="20">
+      <c r="F142" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G108" s="26">
+      <c r="G142" s="26">
         <v>0.35</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H142" s="6">
         <v>0.2</v>
       </c>
-      <c r="K108" s="38">
-        <f t="shared" si="2"/>
+      <c r="K142" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L108" s="24"/>
-      <c r="M108" s="6">
+      <c r="L142" s="24"/>
+      <c r="M142" s="6">
         <v>1</v>
       </c>
-      <c r="N108" s="15">
+      <c r="N142" s="15">
         <v>34</v>
       </c>
-      <c r="O108" s="6">
+      <c r="O142" s="6">
         <v>350</v>
       </c>
     </row>
-    <row r="109" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B109" s="26">
-        <f t="shared" si="0"/>
+    <row r="143" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B143" s="26">
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C143" s="15">
         <v>50</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D143" s="13">
         <v>10.09</v>
       </c>
-      <c r="E109" s="14">
-        <f t="shared" si="1"/>
+      <c r="E143" s="14">
+        <f t="shared" si="17"/>
         <v>4.9554013875123886</v>
       </c>
-      <c r="F109" s="20">
+      <c r="F143" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G109" s="26">
+      <c r="G143" s="26">
         <v>0.4</v>
       </c>
-      <c r="H109" s="6">
+      <c r="H143" s="6">
         <v>0.2</v>
       </c>
-      <c r="K109" s="38">
-        <f t="shared" si="2"/>
+      <c r="K143" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L109" s="24"/>
-      <c r="M109" s="6">
+      <c r="L143" s="24"/>
+      <c r="M143" s="6">
         <v>1</v>
       </c>
-      <c r="N109" s="15">
+      <c r="N143" s="15">
         <v>34</v>
       </c>
-      <c r="O109" s="6">
+      <c r="O143" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B110" s="26">
-        <f t="shared" si="0"/>
+    <row r="144" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B144" s="26">
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C144" s="15">
         <v>50</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D144" s="13">
         <v>13.2</v>
       </c>
-      <c r="E110" s="14">
-        <f t="shared" si="1"/>
+      <c r="E144" s="14">
+        <f t="shared" si="17"/>
         <v>3.7878787878787881</v>
       </c>
-      <c r="F110" s="20">
+      <c r="F144" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G110" s="26">
+      <c r="G144" s="26">
         <v>0.5</v>
       </c>
-      <c r="H110" s="6">
+      <c r="H144" s="6">
         <v>0.2</v>
       </c>
-      <c r="K110" s="38">
-        <f t="shared" si="2"/>
+      <c r="K144" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L110" s="24"/>
-      <c r="M110" s="6">
+      <c r="L144" s="24"/>
+      <c r="M144" s="6">
         <v>1</v>
       </c>
-      <c r="N110" s="15">
+      <c r="N144" s="15">
         <v>34</v>
       </c>
-      <c r="O110" s="6">
+      <c r="O144" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B111" s="26">
-        <f t="shared" si="0"/>
+    <row r="145" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B145" s="26">
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C145" s="15">
         <v>50</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D145" s="13">
         <v>16.559999999999999</v>
       </c>
-      <c r="E111" s="14">
-        <f t="shared" si="1"/>
+      <c r="E145" s="14">
+        <f t="shared" si="17"/>
         <v>3.0193236714975846</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F145" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G111" s="26">
+      <c r="G145" s="26">
         <v>0.6</v>
       </c>
-      <c r="H111" s="6">
+      <c r="H145" s="6">
         <v>0.2</v>
       </c>
-      <c r="K111" s="38">
-        <f t="shared" si="2"/>
+      <c r="K145" s="37">
+        <f t="shared" si="18"/>
         <v>100.28506271379703</v>
       </c>
-      <c r="L111" s="24"/>
-      <c r="M111" s="6">
+      <c r="L145" s="24"/>
+      <c r="M145" s="6">
         <v>1</v>
       </c>
-      <c r="N111" s="15">
+      <c r="N145" s="15">
         <v>34</v>
       </c>
-      <c r="O111" s="6">
+      <c r="O145" s="6">
         <v>350</v>
       </c>
     </row>
-    <row r="112" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="24"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="9"/>
-    </row>
-    <row r="113" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B113" s="19">
-        <f t="shared" ref="B113:B125" si="3">G113</f>
+    <row r="146" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B146" s="28"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="37"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="18"/>
+      <c r="O146" s="9"/>
+    </row>
+    <row r="147" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B147" s="19">
+        <f t="shared" ref="B147:B159" si="19">G147</f>
         <v>-0.3</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C147" s="7">
         <v>100</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D147" s="8">
         <v>29.91</v>
       </c>
-      <c r="E113" s="3">
-        <f t="shared" ref="E113:E125" si="4">C113/D113</f>
+      <c r="E147" s="3">
+        <f t="shared" ref="E147:E159" si="20">C147/D147</f>
         <v>3.3433634236041456</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F147" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G113" s="19">
+      <c r="G147" s="19">
         <v>-0.3</v>
       </c>
-      <c r="H113">
+      <c r="H147">
         <v>0.2</v>
       </c>
-      <c r="K113" s="37">
-        <f t="shared" ref="K113:K125" si="5">$C$37+$C$38*C113</f>
+      <c r="K147" s="36">
+        <f t="shared" ref="K147:K159" si="21">$C$37+$C$38*C147</f>
         <v>100.57012542759406</v>
       </c>
-      <c r="L113" s="25"/>
-      <c r="M113">
+      <c r="L147" s="25"/>
+      <c r="M147">
         <v>1</v>
       </c>
-      <c r="N113" s="7">
+      <c r="N147" s="7">
         <v>34</v>
       </c>
-      <c r="O113">
+      <c r="O147">
         <v>700</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B114" s="19">
-        <f t="shared" si="3"/>
+    <row r="148" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B148" s="19">
+        <f t="shared" si="19"/>
         <v>-0.2</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C148" s="7">
         <v>100</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D148" s="8">
         <v>20.72</v>
       </c>
-      <c r="E114" s="3">
-        <f t="shared" si="4"/>
+      <c r="E148" s="3">
+        <f t="shared" si="20"/>
         <v>4.8262548262548268</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F148" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G114" s="19">
+      <c r="G148" s="19">
         <v>-0.2</v>
       </c>
-      <c r="H114">
+      <c r="H148">
         <v>0.2</v>
       </c>
-      <c r="K114" s="37">
-        <f t="shared" si="5"/>
+      <c r="K148" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L114" s="25"/>
-      <c r="M114">
+      <c r="L148" s="25"/>
+      <c r="M148">
         <v>1</v>
       </c>
-      <c r="N114" s="7">
+      <c r="N148" s="7">
         <v>34</v>
       </c>
-      <c r="O114">
+      <c r="O148">
         <v>700</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B115" s="19">
-        <f t="shared" si="3"/>
+    <row r="149" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B149" s="19">
+        <f t="shared" si="19"/>
         <v>-0.1</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C149" s="7">
         <v>100</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D149" s="8">
         <v>12.02</v>
       </c>
-      <c r="E115" s="3">
-        <f t="shared" si="4"/>
+      <c r="E149" s="3">
+        <f t="shared" si="20"/>
         <v>8.3194675540765388</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F149" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G115" s="19">
+      <c r="G149" s="19">
         <v>-0.1</v>
       </c>
-      <c r="H115">
+      <c r="H149">
         <v>0.2</v>
       </c>
-      <c r="K115" s="37">
-        <f t="shared" si="5"/>
+      <c r="K149" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L115" s="25"/>
-      <c r="M115">
+      <c r="L149" s="25"/>
+      <c r="M149">
         <v>1</v>
       </c>
-      <c r="N115" s="7">
+      <c r="N149" s="7">
         <v>34</v>
       </c>
-      <c r="O115">
+      <c r="O149">
         <v>700</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B116" s="19">
-        <f t="shared" si="3"/>
+    <row r="150" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B150" s="19">
+        <f t="shared" si="19"/>
         <v>-0.05</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C150" s="7">
         <v>100</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D150" s="8">
         <v>7.62</v>
       </c>
-      <c r="E116" s="3">
-        <f t="shared" si="4"/>
+      <c r="E150" s="3">
+        <f t="shared" si="20"/>
         <v>13.123359580052494</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F150" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G116" s="19">
+      <c r="G150" s="19">
         <v>-0.05</v>
       </c>
-      <c r="H116">
+      <c r="H150">
         <v>0.2</v>
       </c>
-      <c r="K116" s="37">
-        <f t="shared" si="5"/>
+      <c r="K150" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L116" s="25"/>
-      <c r="M116">
+      <c r="L150" s="25"/>
+      <c r="M150">
         <v>1</v>
       </c>
-      <c r="N116" s="7">
+      <c r="N150" s="7">
         <v>34</v>
       </c>
-      <c r="O116">
+      <c r="O150">
         <v>700</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B117" s="19">
-        <f t="shared" si="3"/>
+    <row r="151" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B151" s="19">
+        <f t="shared" si="19"/>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C151" s="7">
         <v>100</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D151" s="8">
         <v>7.17</v>
       </c>
-      <c r="E117" s="3">
-        <f t="shared" si="4"/>
+      <c r="E151" s="3">
+        <f t="shared" si="20"/>
         <v>13.947001394700139</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F151" s="17">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G117" s="19">
+      <c r="G151" s="19">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="H117">
+      <c r="H151">
         <v>0.2</v>
       </c>
-      <c r="K117" s="37">
-        <f t="shared" si="5"/>
+      <c r="K151" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L117" s="25"/>
-      <c r="M117">
+      <c r="L151" s="25"/>
+      <c r="M151">
         <v>1</v>
       </c>
-      <c r="N117" s="7">
+      <c r="N151" s="7">
         <v>34</v>
       </c>
-      <c r="O117">
+      <c r="O151">
         <v>700</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B118" s="19">
-        <f t="shared" si="3"/>
+    <row r="152" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B152" s="19">
+        <f t="shared" si="19"/>
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C152" s="7">
         <v>100</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D152" s="8">
         <v>6.22</v>
       </c>
-      <c r="E118" s="3">
-        <f t="shared" si="4"/>
+      <c r="E152" s="3">
+        <f t="shared" si="20"/>
         <v>16.077170418006432</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F152" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G152" s="19">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="H118">
+      <c r="H152">
         <v>0.2</v>
       </c>
-      <c r="K118" s="37">
-        <f t="shared" si="5"/>
+      <c r="K152" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L118" s="25"/>
-      <c r="M118">
+      <c r="L152" s="25"/>
+      <c r="M152">
         <v>1</v>
       </c>
-      <c r="N118" s="7">
+      <c r="N152" s="7">
         <v>34</v>
       </c>
-      <c r="O118">
+      <c r="O152">
         <v>700</v>
       </c>
     </row>
-    <row r="119" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B119" s="19">
-        <f t="shared" si="3"/>
+    <row r="153" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B153" s="19">
+        <f t="shared" si="19"/>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C153" s="7">
         <v>100</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D153" s="8">
         <v>5.23</v>
       </c>
-      <c r="E119" s="3">
-        <f t="shared" si="4"/>
+      <c r="E153" s="3">
+        <f t="shared" si="20"/>
         <v>19.120458891013381</v>
       </c>
-      <c r="F119" s="17">
+      <c r="F153" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G119" s="19">
+      <c r="G153" s="19">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="H119">
+      <c r="H153">
         <v>0.2</v>
       </c>
-      <c r="K119" s="37">
-        <f t="shared" si="5"/>
+      <c r="K153" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L119" s="25"/>
-      <c r="M119">
+      <c r="L153" s="25"/>
+      <c r="M153">
         <v>1</v>
       </c>
-      <c r="N119" s="7">
+      <c r="N153" s="7">
         <v>34</v>
       </c>
-      <c r="O119">
+      <c r="O153">
         <v>700</v>
       </c>
     </row>
-    <row r="120" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B120" s="19">
-        <f t="shared" si="3"/>
+    <row r="154" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B154" s="19">
+        <f t="shared" si="19"/>
         <v>0.2225</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C154" s="7">
         <v>100</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D154" s="8">
         <v>15.99</v>
       </c>
-      <c r="E120" s="3">
-        <f t="shared" si="4"/>
+      <c r="E154" s="3">
+        <f t="shared" si="20"/>
         <v>6.2539086929330834</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F154" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G120" s="19">
+      <c r="G154" s="19">
         <v>0.2225</v>
       </c>
-      <c r="H120">
+      <c r="H154">
         <v>0.2</v>
       </c>
-      <c r="K120" s="37">
-        <f t="shared" si="5"/>
+      <c r="K154" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L120" s="25"/>
-      <c r="M120">
+      <c r="L154" s="25"/>
+      <c r="M154">
         <v>1</v>
       </c>
-      <c r="N120" s="7">
+      <c r="N154" s="7">
         <v>34</v>
       </c>
-      <c r="O120">
+      <c r="O154">
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B121" s="19">
-        <f t="shared" si="3"/>
+    <row r="155" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B155" s="19">
+        <f t="shared" si="19"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C155" s="7">
         <v>100</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D155" s="8">
         <v>16.02</v>
       </c>
-      <c r="E121" s="3">
-        <f t="shared" si="4"/>
+      <c r="E155" s="3">
+        <f t="shared" si="20"/>
         <v>6.2421972534332086</v>
       </c>
-      <c r="F121" s="17">
+      <c r="F155" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G121" s="19">
+      <c r="G155" s="19">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H121">
+      <c r="H155">
         <v>0.2</v>
       </c>
-      <c r="K121" s="37">
-        <f t="shared" si="5"/>
+      <c r="K155" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L121" s="25"/>
-      <c r="M121">
+      <c r="L155" s="25"/>
+      <c r="M155">
         <v>1</v>
       </c>
-      <c r="N121" s="7">
+      <c r="N155" s="7">
         <v>34</v>
       </c>
-      <c r="O121">
+      <c r="O155">
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B122" s="19">
-        <f t="shared" si="3"/>
+    <row r="156" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B156" s="19">
+        <f t="shared" si="19"/>
         <v>0.24</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C156" s="7">
         <v>100</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D156" s="8">
         <v>16.61</v>
       </c>
-      <c r="E122" s="3">
-        <f t="shared" si="4"/>
+      <c r="E156" s="3">
+        <f t="shared" si="20"/>
         <v>6.0204695966285371</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F156" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G122" s="19">
+      <c r="G156" s="19">
         <v>0.24</v>
       </c>
-      <c r="H122">
+      <c r="H156">
         <v>0.2</v>
       </c>
-      <c r="K122" s="37">
-        <f t="shared" si="5"/>
+      <c r="K156" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L122" s="25"/>
-      <c r="M122">
+      <c r="L156" s="25"/>
+      <c r="M156">
         <v>1</v>
       </c>
-      <c r="N122" s="7">
+      <c r="N156" s="7">
         <v>34</v>
       </c>
-      <c r="O122">
+      <c r="O156">
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B123" s="19">
-        <f t="shared" si="3"/>
+    <row r="157" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B157" s="19">
+        <f t="shared" si="19"/>
         <v>0.26</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C157" s="7">
         <v>100</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D157" s="8">
         <v>17.87</v>
       </c>
-      <c r="E123" s="3">
-        <f t="shared" si="4"/>
+      <c r="E157" s="3">
+        <f t="shared" si="20"/>
         <v>5.5959709009513148</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F157" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G157" s="19">
         <v>0.26</v>
       </c>
-      <c r="H123">
+      <c r="H157">
         <v>0.2</v>
       </c>
-      <c r="K123" s="37">
-        <f t="shared" si="5"/>
+      <c r="K157" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L123" s="25"/>
-      <c r="M123">
+      <c r="L157" s="25"/>
+      <c r="M157">
         <v>1</v>
       </c>
-      <c r="N123" s="7">
+      <c r="N157" s="7">
         <v>34</v>
       </c>
-      <c r="O123">
+      <c r="O157">
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B124" s="19">
-        <f t="shared" si="3"/>
+    <row r="158" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B158" s="19">
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C158" s="7">
         <v>100</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D158" s="8">
         <v>21.02</v>
       </c>
-      <c r="E124" s="3">
-        <f t="shared" si="4"/>
+      <c r="E158" s="3">
+        <f t="shared" si="20"/>
         <v>4.7573739295908659</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F158" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G124" s="19">
+      <c r="G158" s="19">
         <v>0.3</v>
       </c>
-      <c r="H124">
+      <c r="H158">
         <v>0.2</v>
       </c>
-      <c r="K124" s="37">
-        <f t="shared" si="5"/>
+      <c r="K158" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L124" s="25"/>
-      <c r="M124">
+      <c r="L158" s="25"/>
+      <c r="M158">
         <v>1</v>
       </c>
-      <c r="N124" s="7">
+      <c r="N158" s="7">
         <v>34</v>
       </c>
-      <c r="O124">
+      <c r="O158">
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="2:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="B125" s="19">
-        <f t="shared" si="3"/>
+    <row r="159" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B159" s="19">
+        <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C159" s="7">
         <v>100</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D159" s="8">
         <v>29.66</v>
       </c>
-      <c r="E125" s="3">
-        <f t="shared" si="4"/>
+      <c r="E159" s="3">
+        <f t="shared" si="20"/>
         <v>3.3715441672285906</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F159" s="17">
         <v>1E-3</v>
       </c>
-      <c r="G125" s="19">
+      <c r="G159" s="19">
         <v>0.4</v>
       </c>
-      <c r="H125">
+      <c r="H159">
         <v>0.2</v>
       </c>
-      <c r="K125" s="37">
-        <f t="shared" si="5"/>
+      <c r="K159" s="36">
+        <f t="shared" si="21"/>
         <v>100.57012542759406</v>
       </c>
-      <c r="L125" s="25"/>
-      <c r="M125">
+      <c r="L159" s="25"/>
+      <c r="M159">
         <v>1</v>
       </c>
-      <c r="N125" s="7">
+      <c r="N159" s="7">
         <v>34</v>
       </c>
-      <c r="O125">
+      <c r="O159">
         <v>450</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="F126"/>
-      <c r="N126"/>
-    </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="F131"/>
-      <c r="N131"/>
-    </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="F132"/>
-      <c r="N132"/>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="F160"/>
+      <c r="N160"/>
+    </row>
+    <row r="165" spans="11:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K165" s="7"/>
+    </row>
+    <row r="166" spans="11:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K166" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S20">

--- a/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
+++ b/nesh/lambda calculations with revised sigma_m and c_r prop to L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nesh/Documents/Repositories/icecontinuum/nesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAEDF9-91AE-0749-AB84-2DA5E16309C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA54E11-050C-0D49-9334-6D10D149D302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="500" windowWidth="22280" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
+    <workbookView xWindow="6320" yWindow="500" windowWidth="21980" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>D (um^2/us)</t>
   </si>
@@ -147,18 +147,37 @@
   <si>
     <t>T (w/P=68.6 Pa)</t>
   </si>
+  <si>
+    <t>g (v2d)</t>
+  </si>
+  <si>
+    <t>g (QLC)</t>
+  </si>
+  <si>
+    <t>-sigmaIcorner</t>
+  </si>
+  <si>
+    <t>gice (w/T=240,P=68.6)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>1/L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,19 +277,6 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -334,14 +340,16 @@
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +594,7 @@
                   <c:v>2.9932607767732864</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5464074222856494</c:v>
+                  <c:v>4.5368326680517743</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.0439665689090836</c:v>
@@ -601,7 +609,7 @@
                   <c:v>7.3444209317235085</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.9095463928829401</c:v>
+                  <c:v>3.9094208604765694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,8 +923,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.2250596195376321E-2"/>
-          <c:y val="2.0343213680740331E-2"/>
+          <c:x val="7.5047192166263613E-2"/>
+          <c:y val="2.0343293784099568E-2"/>
           <c:w val="0.92115309205169371"/>
           <c:h val="0.90955053079330039"/>
         </c:manualLayout>
@@ -1015,7 +1023,7 @@
                 <c:pt idx="19">
                   <c:v>0.2225</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.000">
                   <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
@@ -1091,7 +1099,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$116:$E$159</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2.679528403001072</c:v>
@@ -1329,7 +1337,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1666,7 +1674,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$29</c:f>
+              <c:f>Sheet1!$U$2:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1737,7 +1745,7 @@
                   <c:v>3.6125400368330478</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6161527583630226</c:v>
+                  <c:v>5.6038009952864671</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.9679867345362334</c:v>
@@ -1752,7 +1760,7 @@
                   <c:v>9.2256866544189418</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7945800729730985</c:v>
+                  <c:v>4.7944181318408212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,6 +3005,876 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21812795275590557"/>
+                  <c:y val="-0.43746901428988044"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$166:$B$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$166:$C$196</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.78</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>36.39</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-528A-C545-84A1-D004D64FD779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="779883936"/>
+        <c:axId val="779605328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="779883936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779605328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="779605328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779883936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$201:$C$210</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11733333333370881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0285714285875201E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5200000000112641E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5142857315265305E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0705882352964562E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6761904764458956E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4666666666842668E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2571428571500409E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1354838709687969E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0057142857225613E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$201:$D$210</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24314512280474099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.238777617220292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.236264297911009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23354874997525399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.231870501683342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23000867849074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22884855091666201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.227569063618036</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.226785709403413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22594851854699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-949E-E749-A1FD-283059B1A414}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1810422431"/>
+        <c:axId val="1809876639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810422431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809876639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1809876639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810422431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3197,6 +4075,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5777,20 +6735,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9007</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>584740</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>182870</xdr:rowOff>
+      <xdr:rowOff>199803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>40657</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>616390</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>108265</xdr:rowOff>
+      <xdr:rowOff>125198</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5817,16 +7807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>9104</xdr:rowOff>
+      <xdr:rowOff>127638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>728133</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5853,14 +7843,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>4144</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>630677</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>74219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>656166</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>452965</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>182033</xdr:rowOff>
     </xdr:to>
@@ -5895,7 +7885,7 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -5931,7 +7921,7 @@
       <xdr:rowOff>47016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>486383</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>94573</xdr:rowOff>
@@ -5954,6 +7944,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>717764</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>112445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109877</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>58791</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68F7269-A6E9-812F-C6DD-87904F038CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159926</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>199437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310444</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>205082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB34C6E2-C800-3F85-BD91-7898AE06F3ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6259,11 +8321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FACA8F-BEA8-A344-9B24-B4206D9D79F6}">
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:V210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C201" sqref="C201:D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6272,22 +8334,26 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
     <col min="4" max="4" width="8" style="22" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="12" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -6324,28 +8390,40 @@
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="42">
-        <f t="shared" ref="B2:B27" si="0">F2^$C$33*C2^$C$36*N2^$C$35*L2^$C$34*$C$37</f>
+      <c r="V1" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B27" si="0">F2^$C$33*C2^$C$36*O2^$C$35*L2^$C$34*$C$37</f>
         <v>25.424641809046072</v>
       </c>
       <c r="C2" s="7">
@@ -6354,56 +8432,67 @@
       <c r="D2" s="8">
         <v>0.34</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E27" si="1">C2/D2</f>
         <v>23.52941176470588</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="2">
         <v>0.22</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2">
         <v>0.2</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2">
         <v>240</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2">
         <v>68.599999999999994</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="49">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="50">
         <f t="shared" ref="L2:L29" si="2">K2/100</f>
         <v>4.55E-4</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="4">
+        <f>C2/K2</f>
+        <v>175.82417582417582</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>34</v>
       </c>
-      <c r="O2" s="41">
+      <c r="Q2" s="43">
+        <v>2</v>
+      </c>
+      <c r="R2">
         <v>400</v>
       </c>
-      <c r="P2" s="46">
+      <c r="S2" s="11">
         <f>(1/F2*C2)^0.5*1.5</f>
         <v>134.1640786499874</v>
       </c>
-      <c r="Q2" s="43">
-        <f t="shared" ref="Q2:Q27" si="3">($C$41*B2+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="T2" s="2">
+        <f t="shared" ref="T2:T27" si="3">($C$41*B2+$C$42)/($C$41*$C$39+$C$42)</f>
         <v>3.3746992378553848</v>
       </c>
-      <c r="R2" s="43">
-        <f t="shared" ref="R2:R27" si="4">$C$43*(1-EXP(-1/((G2-$C$40)*$C$44)))*Q2</f>
+      <c r="U2" s="2">
+        <f t="shared" ref="U2:U27" si="4">$C$43*(1-EXP(-1/((G2-$C$40)*$C$44)))*T2</f>
         <v>32.549794949373215</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="42">
+      <c r="V2" s="2">
+        <f>-G2</f>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
         <f t="shared" si="0"/>
         <v>7.1895946958663917</v>
       </c>
@@ -6413,56 +8502,67 @@
       <c r="D3" s="8">
         <v>1.5</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="3">
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="47">
         <v>1E-4</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="2">
         <v>0.22</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3">
         <v>240</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3">
         <v>68.599999999999994</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="49">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="50">
         <f t="shared" si="2"/>
         <v>5.6899999999999995E-4</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M29" si="5">C3/K3</f>
+        <v>175.7469244288225</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>34</v>
       </c>
-      <c r="O3" s="41">
+      <c r="Q3" s="43">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>400</v>
       </c>
-      <c r="P3" s="46">
-        <f t="shared" ref="P3:P28" si="5">(1/F3*C3)^0.5*1.5</f>
+      <c r="S3" s="11">
+        <f t="shared" ref="S3:S28" si="6">(1/F3*C3)^0.5*1.5</f>
         <v>474.34164902525697</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="T3" s="2">
         <f t="shared" si="3"/>
         <v>0.93579345430778726</v>
       </c>
-      <c r="R3" s="43">
+      <c r="U3" s="2">
         <f t="shared" si="4"/>
         <v>9.0259554721212236</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V29" si="7">-G3</f>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>13.13019052858764</v>
       </c>
@@ -6472,56 +8572,67 @@
       <c r="D4" s="8">
         <v>1.24</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>12.096774193548388</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="2">
         <v>0.22</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4">
         <v>240</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4">
         <v>68.599999999999994</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="49">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="50">
         <f t="shared" si="2"/>
         <v>8.5300000000000003E-4</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="4">
+        <f t="shared" si="5"/>
+        <v>175.84994138335287</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>34</v>
       </c>
-      <c r="O4" s="41">
+      <c r="Q4" s="43">
+        <v>2</v>
+      </c>
+      <c r="R4">
         <v>200</v>
       </c>
-      <c r="P4" s="46">
-        <f t="shared" si="5"/>
+      <c r="S4" s="11">
+        <f t="shared" si="6"/>
         <v>259.8076211353316</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="T4" s="2">
         <f t="shared" si="3"/>
         <v>1.7303377976383165</v>
       </c>
-      <c r="R4" s="43">
+      <c r="U4" s="2">
         <f t="shared" si="4"/>
         <v>16.68952891401068</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="42">
+      <c r="V4" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>16.062314155080887</v>
       </c>
@@ -6531,56 +8642,67 @@
       <c r="D5" s="8">
         <v>1.36</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>14.705882352941176</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="2">
         <v>0.22</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5">
         <v>240</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5">
         <v>68.599999999999994</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="49">
         <v>0.114</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="50">
         <f t="shared" si="2"/>
         <v>1.14E-3</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="4">
+        <f t="shared" si="5"/>
+        <v>175.43859649122805</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>34</v>
       </c>
-      <c r="O5" s="41">
+      <c r="Q5" s="43">
+        <v>2</v>
+      </c>
+      <c r="R5">
         <v>70</v>
       </c>
-      <c r="P5" s="46">
-        <f t="shared" si="5"/>
+      <c r="S5" s="11">
+        <f t="shared" si="6"/>
         <v>212.13203435596427</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="T5" s="2">
         <f t="shared" si="3"/>
         <v>2.122504224538432</v>
       </c>
-      <c r="R5" s="43">
+      <c r="U5" s="2">
         <f t="shared" si="4"/>
         <v>20.472069484867362</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
+      <c r="V5" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>19.67223688411584</v>
       </c>
@@ -6590,56 +8712,67 @@
       <c r="D6" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>18.018018018018015</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="47">
         <v>1.5E-3</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="2">
         <v>0.22</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6">
         <v>0.2</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6">
         <v>240</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6">
         <v>68.599999999999994</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="49">
         <v>0.114</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="50">
         <f t="shared" si="2"/>
         <v>1.14E-3</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="4">
+        <f t="shared" si="5"/>
+        <v>175.43859649122805</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>34</v>
       </c>
-      <c r="O6" s="41">
+      <c r="Q6" s="43">
+        <v>2</v>
+      </c>
+      <c r="R6">
         <v>70</v>
       </c>
-      <c r="P6" s="46">
-        <f t="shared" si="5"/>
+      <c r="S6" s="11">
+        <f t="shared" si="6"/>
         <v>173.20508075688772</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="T6" s="2">
         <f t="shared" si="3"/>
         <v>2.605325100588697</v>
       </c>
-      <c r="R6" s="43">
+      <c r="U6" s="2">
         <f t="shared" si="4"/>
         <v>25.128994266911103</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
+      <c r="V6" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>3.2181136055347066</v>
       </c>
@@ -6649,56 +8782,67 @@
       <c r="D7" s="8">
         <v>17.579999999999998</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>2.8441410693970424</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="47">
         <v>1E-4</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="2">
         <v>0.22</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7">
         <v>240</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7">
         <v>68.599999999999994</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>34</v>
       </c>
-      <c r="O7" s="41">
+      <c r="Q7" s="43">
+        <v>2</v>
+      </c>
+      <c r="R7">
         <v>600</v>
       </c>
-      <c r="P7" s="46">
-        <f t="shared" si="5"/>
+      <c r="S7" s="11">
+        <f t="shared" si="6"/>
         <v>1060.6601717798212</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="T7" s="2">
         <f t="shared" si="3"/>
         <v>0.40461477731610024</v>
       </c>
-      <c r="R7" s="43">
+      <c r="U7" s="2">
         <f t="shared" si="4"/>
         <v>3.9026079383284422</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
+      <c r="V7" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>3.7529331252040077</v>
       </c>
@@ -6708,56 +8852,67 @@
       <c r="D8" s="8">
         <v>17.73</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>2.8200789622109417</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="2">
         <v>0.22</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8">
         <v>0.2</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8">
         <v>240</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8">
         <v>68.599999999999994</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>250</v>
       </c>
-      <c r="O8" s="41">
+      <c r="Q8" s="43">
+        <v>2</v>
+      </c>
+      <c r="R8">
         <v>125</v>
       </c>
-      <c r="P8" s="46">
-        <f t="shared" si="5"/>
+      <c r="S8" s="11">
+        <f t="shared" si="6"/>
         <v>335.41019662496842</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="T8" s="2">
         <f t="shared" si="3"/>
         <v>0.47614595634622453</v>
       </c>
-      <c r="R8" s="43">
+      <c r="U8" s="2">
         <f t="shared" si="4"/>
         <v>4.5925435580126122</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
+      <c r="V8" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>4.1959067914834458</v>
       </c>
@@ -6767,56 +8922,67 @@
       <c r="D9" s="8">
         <v>15.13</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>3.3046926635822866</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="2">
         <v>0.22</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9">
         <v>240</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>200</v>
       </c>
-      <c r="O9" s="41">
+      <c r="Q9" s="43">
+        <v>2</v>
+      </c>
+      <c r="R9">
         <v>125</v>
       </c>
-      <c r="P9" s="46">
-        <f t="shared" si="5"/>
+      <c r="S9" s="11">
+        <f t="shared" si="6"/>
         <v>335.41019662496842</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="T9" s="2">
         <f t="shared" si="3"/>
         <v>0.53539291249295973</v>
       </c>
-      <c r="R9" s="43">
+      <c r="U9" s="2">
         <f t="shared" si="4"/>
         <v>5.1639948601962935</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
+      <c r="V9" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>10.176568762666319</v>
       </c>
@@ -6826,56 +8992,67 @@
       <c r="D10" s="8">
         <v>5.38</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>9.2936802973977706</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="2">
         <v>0.22</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10">
         <v>0.2</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10">
         <v>240</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10">
         <v>68.599999999999994</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <v>34</v>
       </c>
-      <c r="O10" s="41">
+      <c r="Q10" s="43">
+        <v>2</v>
+      </c>
+      <c r="R10">
         <v>150</v>
       </c>
-      <c r="P10" s="46">
-        <f t="shared" si="5"/>
+      <c r="S10" s="11">
+        <f t="shared" si="6"/>
         <v>335.41019662496842</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="T10" s="2">
         <f t="shared" si="3"/>
         <v>1.3352960320422707</v>
       </c>
-      <c r="R10" s="43">
+      <c r="U10" s="2">
         <f t="shared" si="4"/>
         <v>12.879255002086836</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
+      <c r="V10" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>14.391841562585093</v>
       </c>
@@ -6885,56 +9062,67 @@
       <c r="D11" s="8">
         <v>3.8</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>13.157894736842106</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="47">
         <v>2E-3</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="2">
         <v>0.22</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11">
         <v>0.2</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11">
         <v>240</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11">
         <v>68.599999999999994</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <v>34</v>
       </c>
-      <c r="O11" s="41">
+      <c r="Q11" s="43">
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>150</v>
       </c>
-      <c r="P11" s="46">
-        <f t="shared" si="5"/>
+      <c r="S11" s="11">
+        <f t="shared" si="6"/>
         <v>237.17082451262849</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="T11" s="2">
         <f t="shared" si="3"/>
         <v>1.8990814254741453</v>
       </c>
-      <c r="R11" s="43">
+      <c r="U11" s="2">
         <f t="shared" si="4"/>
         <v>18.317102246607895</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="42">
+      <c r="V11" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>15.321285325897389</v>
       </c>
@@ -6944,56 +9132,67 @@
       <c r="D12" s="8">
         <v>3.49</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>14.326647564469914</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="2">
         <v>0.22</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12">
         <v>0.2</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12">
         <v>240</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12">
         <v>68.599999999999994</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>15</v>
       </c>
-      <c r="O12" s="41">
+      <c r="Q12" s="43">
+        <v>2</v>
+      </c>
+      <c r="R12">
         <v>300</v>
       </c>
-      <c r="P12" s="46">
-        <f t="shared" si="5"/>
+      <c r="S12" s="11">
+        <f t="shared" si="6"/>
         <v>335.41019662496842</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="T12" s="2">
         <f t="shared" si="3"/>
         <v>2.0233929096044063</v>
       </c>
-      <c r="R12" s="43">
+      <c r="U12" s="2">
         <f t="shared" si="4"/>
         <v>19.516116746301115</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="42">
+      <c r="V12" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>17.129717745688293</v>
       </c>
@@ -7003,56 +9202,67 @@
       <c r="D13" s="8">
         <v>3.1</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>16.129032258064516</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="2">
         <v>0.22</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13">
         <v>0.2</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13">
         <v>240</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13">
         <v>68.599999999999994</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>12</v>
       </c>
-      <c r="O13" s="41">
+      <c r="Q13" s="43">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <v>300</v>
       </c>
-      <c r="P13" s="46">
-        <f t="shared" si="5"/>
+      <c r="S13" s="11">
+        <f t="shared" si="6"/>
         <v>335.41019662496842</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="T13" s="2">
         <f t="shared" si="3"/>
         <v>2.2652675952253274</v>
       </c>
-      <c r="R13" s="43">
+      <c r="U13" s="2">
         <f t="shared" si="4"/>
         <v>21.849056918299478</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
+      <c r="V13" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>22.75549953102281</v>
       </c>
@@ -7062,56 +9272,67 @@
       <c r="D14" s="8">
         <v>2.4</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>20.833333333333336</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="47">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="2">
         <v>0.22</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14">
         <v>0.2</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14">
         <v>240</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14">
         <v>68.599999999999994</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>34</v>
       </c>
-      <c r="O14" s="41">
+      <c r="Q14" s="43">
+        <v>2</v>
+      </c>
+      <c r="R14">
         <v>80</v>
       </c>
-      <c r="P14" s="46">
-        <f t="shared" si="5"/>
+      <c r="S14" s="11">
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="T14" s="2">
         <f t="shared" si="3"/>
         <v>3.0177061081651804</v>
       </c>
-      <c r="R14" s="43">
+      <c r="U14" s="2">
         <f t="shared" si="4"/>
         <v>29.106509385017066</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="42">
+      <c r="V14" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>26.924670145963368</v>
       </c>
@@ -7121,56 +9342,67 @@
       <c r="D15" s="8">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>24.630541871921185</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="47">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="2">
         <v>0.22</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15">
         <v>0.2</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15">
         <v>240</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15">
         <v>68.599999999999994</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>34</v>
       </c>
-      <c r="O15" s="41">
+      <c r="Q15" s="43">
+        <v>2</v>
+      </c>
+      <c r="R15">
         <v>100</v>
       </c>
-      <c r="P15" s="46">
-        <f t="shared" si="5"/>
+      <c r="S15" s="11">
+        <f t="shared" si="6"/>
         <v>126.77313820927749</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="T15" s="2">
         <f t="shared" si="3"/>
         <v>3.5753254146722626</v>
       </c>
-      <c r="R15" s="43">
+      <c r="U15" s="2">
         <f t="shared" si="4"/>
         <v>34.484883221422045</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
+      <c r="V15" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>28.783683125170185</v>
       </c>
@@ -7180,56 +9412,67 @@
       <c r="D16" s="8">
         <v>1.9</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>26.315789473684212</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="47">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="2">
         <v>0.22</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16">
         <v>240</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16">
         <v>68.599999999999994</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>34</v>
       </c>
-      <c r="O16" s="41">
+      <c r="Q16" s="43">
+        <v>2</v>
+      </c>
+      <c r="R16">
         <v>70</v>
       </c>
-      <c r="P16" s="46">
-        <f t="shared" si="5"/>
+      <c r="S16" s="11">
+        <f t="shared" si="6"/>
         <v>118.58541225631424</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="T16" s="2">
         <f t="shared" si="3"/>
         <v>3.8239651619971031</v>
       </c>
-      <c r="R16" s="43">
+      <c r="U16" s="2">
         <f t="shared" si="4"/>
         <v>36.883074058964866</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B17" s="42">
+      <c r="V16" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>7.1895946958663899</v>
       </c>
@@ -7239,56 +9482,67 @@
       <c r="D17" s="8">
         <v>15.37</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>6.5061808718282368</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="2">
         <v>0.22</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17">
         <v>0.2</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17">
         <v>240</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17">
         <v>68.599999999999994</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="49">
         <v>0.56899999999999995</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="50">
         <f t="shared" si="2"/>
         <v>5.6899999999999997E-3</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="4">
+        <f t="shared" si="5"/>
+        <v>175.74692442882252</v>
+      </c>
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="O17" s="7">
         <v>34</v>
       </c>
-      <c r="O17" s="41">
+      <c r="Q17" s="43">
+        <v>2</v>
+      </c>
+      <c r="R17">
         <v>250</v>
       </c>
-      <c r="P17" s="46">
-        <f t="shared" si="5"/>
+      <c r="S17" s="11">
+        <f t="shared" si="6"/>
         <v>474.34164902525697</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="T17" s="2">
         <f t="shared" si="3"/>
         <v>0.93579345430778715</v>
       </c>
-      <c r="R17" s="43">
+      <c r="U17" s="2">
         <f t="shared" si="4"/>
         <v>9.0259554721212218</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="42">
+      <c r="V17" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>6.5622109871109169</v>
       </c>
@@ -7298,56 +9552,67 @@
       <c r="D18" s="8">
         <v>20.29</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>5.9142434696895023</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="2">
         <v>0.22</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18">
         <v>0.2</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18">
         <v>240</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18">
         <v>68.599999999999994</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="49">
         <v>0.68300000000000005</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="50">
         <f t="shared" si="2"/>
         <v>6.8300000000000001E-3</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="4">
+        <f t="shared" si="5"/>
+        <v>175.69546120058564</v>
+      </c>
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>34</v>
       </c>
-      <c r="O18" s="41">
+      <c r="Q18" s="43">
+        <v>2</v>
+      </c>
+      <c r="R18">
         <v>150</v>
       </c>
-      <c r="P18" s="46">
-        <f t="shared" si="5"/>
+      <c r="S18" s="11">
+        <f t="shared" si="6"/>
         <v>519.6152422706632</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="T18" s="2">
         <f t="shared" si="3"/>
         <v>0.85188197624632722</v>
       </c>
-      <c r="R18" s="43">
+      <c r="U18" s="2">
         <f t="shared" si="4"/>
         <v>8.2166088571218108</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="42">
+      <c r="V18" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>5.8719997158891726</v>
       </c>
@@ -7357,56 +9622,67 @@
       <c r="D19" s="8">
         <v>28.56</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>5.2521008403361344</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="2">
         <v>0.22</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19">
         <v>0.2</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19">
         <v>240</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19">
         <v>68.599999999999994</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="49">
         <v>0.85299999999999998</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="50">
         <f t="shared" si="2"/>
         <v>8.5299999999999994E-3</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="4">
+        <f t="shared" si="5"/>
+        <v>175.84994138335287</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>34</v>
       </c>
-      <c r="O19" s="41">
+      <c r="Q19" s="43">
+        <v>2</v>
+      </c>
+      <c r="R19">
         <v>150</v>
       </c>
-      <c r="P19" s="46">
-        <f t="shared" si="5"/>
+      <c r="S19" s="11">
+        <f t="shared" si="6"/>
         <v>580.94750193111258</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="T19" s="2">
         <f t="shared" si="3"/>
         <v>0.75956742115884535</v>
       </c>
-      <c r="R19" s="43">
+      <c r="U19" s="2">
         <f t="shared" si="4"/>
         <v>7.3262125203953081</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="42">
+      <c r="V19" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>5.6851227388610237</v>
       </c>
@@ -7416,56 +9692,67 @@
       <c r="D20" s="8">
         <v>31.41</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>5.0939191340337473</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="2">
         <v>0.22</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20">
         <v>0.2</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20">
         <v>240</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20">
         <v>68.599999999999994</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="49">
         <v>0.91</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="50">
         <f t="shared" si="2"/>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="4">
+        <f t="shared" si="5"/>
+        <v>175.82417582417582</v>
+      </c>
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>34</v>
       </c>
-      <c r="O20" s="41">
+      <c r="Q20" s="43">
+        <v>2</v>
+      </c>
+      <c r="R20">
         <v>150</v>
       </c>
-      <c r="P20" s="46">
-        <f t="shared" si="5"/>
+      <c r="S20" s="11">
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="T20" s="2">
         <f t="shared" si="3"/>
         <v>0.73457295104549847</v>
       </c>
-      <c r="R20" s="43">
+      <c r="U20" s="2">
         <f t="shared" si="4"/>
         <v>7.0851347769532884</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="42">
+      <c r="V20" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>9.4655216854484117</v>
       </c>
@@ -7475,56 +9762,67 @@
       <c r="D21" s="8">
         <v>5.81</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>8.6058519793459567</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="2">
         <v>0.22</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21">
         <v>0.2</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21">
         <v>240</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21">
         <v>68.599999999999994</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>39.299999999999997</v>
       </c>
-      <c r="O21" s="41">
+      <c r="Q21" s="43">
+        <v>2</v>
+      </c>
+      <c r="R21">
         <v>300</v>
       </c>
-      <c r="P21" s="46">
-        <f t="shared" si="5"/>
+      <c r="S21" s="11">
+        <f t="shared" si="6"/>
         <v>335.41019662496842</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="T21" s="2">
         <f t="shared" si="3"/>
         <v>1.2401947242015048</v>
       </c>
-      <c r="R21" s="43">
+      <c r="U21" s="2">
         <f t="shared" si="4"/>
         <v>11.961979757256026</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="42">
+      <c r="V21" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>9.4787794392833309</v>
       </c>
@@ -7534,56 +9832,67 @@
       <c r="D22" s="8">
         <v>6.07</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>8.2372322899505761</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="47">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="2">
         <v>0.22</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22">
         <v>0.2</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22">
         <v>250</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22">
         <v>68.599999999999994</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="49">
         <v>0.106</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="50">
         <f t="shared" si="2"/>
         <v>1.06E-3</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="4">
+        <f t="shared" si="5"/>
+        <v>471.69811320754718</v>
+      </c>
+      <c r="N22">
         <v>1</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>105</v>
       </c>
-      <c r="O22" s="41">
+      <c r="Q22" s="43">
+        <v>2</v>
+      </c>
+      <c r="R22">
         <v>300</v>
       </c>
-      <c r="P22" s="46">
-        <f t="shared" si="5"/>
+      <c r="S22" s="11">
+        <f t="shared" si="6"/>
         <v>335.41019662496842</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="T22" s="2">
         <f t="shared" si="3"/>
         <v>1.2419679256801819</v>
       </c>
-      <c r="R22" s="43">
+      <c r="U22" s="2">
         <f t="shared" si="4"/>
         <v>11.979082716799034</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B23" s="42">
+      <c r="V22" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>2.9932607767732864</v>
       </c>
@@ -7593,59 +9902,70 @@
       <c r="D23" s="8">
         <v>19.14</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>2.6123301985370948</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="47">
         <v>1E-4</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="2">
         <v>0.22</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23">
         <v>0.2</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23">
         <v>240</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23">
         <v>68.599999999999994</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="49">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="50">
         <f t="shared" si="2"/>
         <v>2.8399999999999996E-3</v>
       </c>
-      <c r="M23" s="41">
+      <c r="M23" s="4">
+        <f t="shared" si="5"/>
+        <v>176.05633802816902</v>
+      </c>
+      <c r="N23">
         <v>1</v>
       </c>
-      <c r="N23" s="7">
+      <c r="O23" s="7">
         <v>39.299999999999997</v>
       </c>
-      <c r="O23" s="46">
-        <f t="shared" ref="O23:O29" si="6">P23</f>
+      <c r="Q23" s="43">
+        <v>2</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" ref="R23:R29" si="8">S23</f>
         <v>1060.6601717798212</v>
       </c>
-      <c r="P23" s="46">
-        <f t="shared" si="5"/>
+      <c r="S23" s="11">
+        <f t="shared" si="6"/>
         <v>1060.6601717798212</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="T23" s="2">
         <f t="shared" si="3"/>
         <v>0.37454110319233536</v>
       </c>
-      <c r="R23" s="43">
+      <c r="U23" s="2">
         <f t="shared" si="4"/>
         <v>3.6125400368330478</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <f t="shared" si="0"/>
-        <v>4.5464074222856494</v>
+        <v>4.5368326680517743</v>
       </c>
       <c r="C24" s="18">
         <v>50</v>
@@ -7657,7 +9977,7 @@
         <f t="shared" si="1"/>
         <v>4.0816326530612246</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="48">
         <v>2.307E-4</v>
       </c>
       <c r="G24" s="32">
@@ -7672,37 +9992,51 @@
       <c r="J24" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K24" s="47">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="L24" s="48">
+      <c r="K24" s="41">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="L24" s="42">
         <f t="shared" si="2"/>
-        <v>2.8399999999999996E-3</v>
-      </c>
-      <c r="M24" s="9">
+        <v>2.8519999999999999E-3</v>
+      </c>
+      <c r="M24" s="46">
+        <f t="shared" si="5"/>
+        <v>175.31556802244037</v>
+      </c>
+      <c r="N24" s="9">
         <v>1</v>
       </c>
-      <c r="N24" s="18">
+      <c r="O24" s="18">
         <v>39.299999999999997</v>
       </c>
-      <c r="O24" s="33">
+      <c r="P24" s="18">
+        <v>2.36</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>2</v>
+      </c>
+      <c r="R24" s="33">
+        <f t="shared" si="8"/>
+        <v>698.31675755932304</v>
+      </c>
+      <c r="S24" s="33">
         <f t="shared" si="6"/>
         <v>698.31675755932304</v>
       </c>
-      <c r="P24" s="33">
-        <f t="shared" si="5"/>
-        <v>698.31675755932304</v>
-      </c>
-      <c r="Q24" s="32">
+      <c r="T24" s="32">
         <f t="shared" si="3"/>
-        <v>0.58227176124475299</v>
-      </c>
-      <c r="R24" s="32">
+        <v>0.58099115454644801</v>
+      </c>
+      <c r="U24" s="32">
         <f t="shared" si="4"/>
-        <v>5.6161527583630226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5.6038009952864671</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>4.0439665689090836</v>
@@ -7717,7 +10051,7 @@
         <f t="shared" si="1"/>
         <v>3.4270047978067169</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="48">
         <v>3.6460000000000003E-4</v>
       </c>
       <c r="G25" s="32">
@@ -7732,38 +10066,49 @@
       <c r="J25" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="41">
         <v>0.21229000000000001</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="42">
         <f t="shared" si="2"/>
         <v>2.1229E-3</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="46">
+        <f t="shared" si="5"/>
+        <v>471.0537472325592</v>
+      </c>
+      <c r="N25" s="9">
         <v>1</v>
       </c>
-      <c r="N25" s="18">
+      <c r="O25" s="18">
         <v>105.02</v>
       </c>
-      <c r="O25" s="33">
+      <c r="P25" s="18"/>
+      <c r="Q25" s="44">
+        <v>2</v>
+      </c>
+      <c r="R25" s="33">
+        <f t="shared" si="8"/>
+        <v>785.56644925022283</v>
+      </c>
+      <c r="S25" s="33">
         <f t="shared" si="6"/>
         <v>785.56644925022283</v>
       </c>
-      <c r="P25" s="33">
-        <f t="shared" si="5"/>
-        <v>785.56644925022283</v>
-      </c>
-      <c r="Q25" s="32">
+      <c r="T25" s="32">
         <f t="shared" si="3"/>
         <v>0.51507117242340494</v>
       </c>
-      <c r="R25" s="32">
+      <c r="U25" s="32">
         <f t="shared" si="4"/>
         <v>4.9679867345362334</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+      <c r="V25" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>4.2461061118655543</v>
@@ -7778,7 +10123,7 @@
         <f t="shared" si="1"/>
         <v>3.2894736842105261</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="48">
         <v>5.5639999999999997E-4</v>
       </c>
       <c r="G26" s="32">
@@ -7793,38 +10138,49 @@
       <c r="J26" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="41">
         <v>0.1188</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="42">
         <f t="shared" si="2"/>
         <v>1.188E-3</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="46">
+        <f t="shared" si="5"/>
+        <v>1262.6262626262626</v>
+      </c>
+      <c r="N26" s="9">
         <v>1</v>
       </c>
-      <c r="N26" s="18">
+      <c r="O26" s="18">
         <v>259.77</v>
       </c>
-      <c r="O26" s="33">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="44">
+        <v>2</v>
+      </c>
+      <c r="R26" s="33">
+        <f t="shared" si="8"/>
+        <v>778.83117646754135</v>
+      </c>
+      <c r="S26" s="33">
         <f t="shared" si="6"/>
         <v>778.83117646754135</v>
       </c>
-      <c r="P26" s="33">
-        <f t="shared" si="5"/>
-        <v>778.83117646754135</v>
-      </c>
-      <c r="Q26" s="32">
+      <c r="T26" s="32">
         <f t="shared" si="3"/>
         <v>0.54210698414027636</v>
       </c>
-      <c r="R26" s="32">
+      <c r="U26" s="32">
         <f t="shared" si="4"/>
         <v>5.2287537142429255</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="V26" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>9.0434361758540334</v>
@@ -7839,7 +10195,7 @@
         <f t="shared" si="1"/>
         <v>7.8740157480314963</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="48">
         <v>3.6460000000000003E-4</v>
       </c>
       <c r="G27" s="32">
@@ -7854,40 +10210,51 @@
       <c r="J27" s="9">
         <v>68.599999999999994</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="41">
         <v>4.2450000000000002E-2</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="42">
         <f t="shared" si="2"/>
         <v>4.2450000000000002E-4</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="46">
+        <f t="shared" si="5"/>
+        <v>471.14252061248527</v>
+      </c>
+      <c r="N27" s="9">
         <v>1</v>
       </c>
-      <c r="N27" s="18">
+      <c r="O27" s="18">
         <v>105.02</v>
       </c>
-      <c r="O27" s="33">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="44">
+        <v>2</v>
+      </c>
+      <c r="R27" s="33">
+        <f t="shared" si="8"/>
+        <v>351.31599627332736</v>
+      </c>
+      <c r="S27" s="33">
         <f t="shared" si="6"/>
         <v>351.31599627332736</v>
       </c>
-      <c r="P27" s="33">
-        <f t="shared" si="5"/>
-        <v>351.31599627332736</v>
-      </c>
-      <c r="Q27" s="32">
+      <c r="T27" s="32">
         <f t="shared" si="3"/>
         <v>1.1837415226214918</v>
       </c>
-      <c r="R27" s="32">
+      <c r="U27" s="32">
         <f t="shared" si="4"/>
         <v>11.417474897370257</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+      <c r="V27" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
-        <f t="shared" ref="B28" si="7">F28^$C$33*C28^$C$36*N28^$C$35*L28^$C$34*$C$37</f>
+        <f t="shared" ref="B28" si="9">F28^$C$33*C28^$C$36*O28^$C$35*L28^$C$34*$C$37</f>
         <v>7.3444209317235085</v>
       </c>
       <c r="C28" s="18">
@@ -7897,10 +10264,10 @@
         <v>3.15</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" ref="E28" si="8">C28/D28</f>
+        <f t="shared" ref="E28" si="10">C28/D28</f>
         <v>6.3492063492063497</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="48">
         <v>3.6460000000000003E-4</v>
       </c>
       <c r="G28" s="32">
@@ -7915,41 +10282,52 @@
       <c r="J28" s="9">
         <v>100</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="41">
         <v>6.4362000000000003E-2</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="42">
         <f t="shared" si="2"/>
         <v>6.4362000000000002E-4</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="46">
+        <f t="shared" si="5"/>
+        <v>310.74236350641684</v>
+      </c>
+      <c r="N28" s="9">
         <v>1</v>
       </c>
-      <c r="N28" s="18">
+      <c r="O28" s="18">
         <v>105.02</v>
       </c>
-      <c r="O28" s="33">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="44">
+        <v>2</v>
+      </c>
+      <c r="R28" s="33">
+        <f t="shared" si="8"/>
+        <v>351.31599627332736</v>
+      </c>
+      <c r="S28" s="33">
         <f t="shared" si="6"/>
         <v>351.31599627332736</v>
       </c>
-      <c r="P28" s="33">
-        <f t="shared" si="5"/>
-        <v>351.31599627332736</v>
-      </c>
-      <c r="Q28" s="32">
-        <f t="shared" ref="Q28" si="9">($C$41*B28+$C$42)/($C$41*$C$39+$C$42)</f>
+      <c r="T28" s="32">
+        <f t="shared" ref="T28" si="11">($C$41*B28+$C$42)/($C$41*$C$39+$C$42)</f>
         <v>0.95650119362609731</v>
       </c>
-      <c r="R28" s="32">
-        <f t="shared" ref="R28" si="10">$C$43*(1-EXP(-1/((G28-$C$40)*$C$44)))*Q28</f>
+      <c r="U28" s="32">
+        <f t="shared" ref="U28" si="12">$C$43*(1-EXP(-1/((G28-$C$40)*$C$44)))*T28</f>
         <v>9.2256866544189418</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="V28" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
-        <f t="shared" ref="B29" si="11">F29^$C$33*C29^$C$36*N29^$C$35*L29^$C$34*$C$37</f>
-        <v>3.9095463928829401</v>
+        <f t="shared" ref="B29" si="13">F29^$C$33*C29^$C$36*O29^$C$35*L29^$C$34*$C$37</f>
+        <v>3.9094208604765694</v>
       </c>
       <c r="C29" s="18">
         <v>20</v>
@@ -7958,10 +10336,10 @@
         <v>6.81</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29" si="12">C29/D29</f>
+        <f t="shared" ref="E29" si="14">C29/D29</f>
         <v>2.9368575624082234</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="48">
         <v>5.5643000000000001E-4</v>
       </c>
       <c r="G29" s="32">
@@ -7974,39 +10352,53 @@
         <v>260</v>
       </c>
       <c r="J29" s="9">
-        <v>100</v>
-      </c>
-      <c r="K29" s="47">
-        <v>0.14013999999999999</v>
-      </c>
-      <c r="L29" s="48">
+        <v>500</v>
+      </c>
+      <c r="K29" s="41">
+        <v>0.140149</v>
+      </c>
+      <c r="L29" s="42">
         <f t="shared" si="2"/>
-        <v>1.4013999999999999E-3</v>
-      </c>
-      <c r="M29" s="9">
+        <v>1.40149E-3</v>
+      </c>
+      <c r="M29" s="46">
+        <f t="shared" si="5"/>
+        <v>142.70526368365097</v>
+      </c>
+      <c r="N29" s="9">
         <v>1</v>
       </c>
-      <c r="N29" s="18">
+      <c r="O29" s="18">
         <v>259.774</v>
       </c>
-      <c r="O29" s="33">
-        <f t="shared" si="6"/>
+      <c r="P29" s="18">
+        <v>10.8</v>
+      </c>
+      <c r="Q29" s="44">
+        <v>2</v>
+      </c>
+      <c r="R29" s="33">
+        <f t="shared" si="8"/>
         <v>284.38126935540089</v>
       </c>
-      <c r="P29" s="33">
-        <f t="shared" ref="P29" si="13">(1/F29*C29)^0.5*1.5</f>
+      <c r="S29" s="33">
+        <f t="shared" ref="S29" si="15">(1/F29*C29)^0.5*1.5</f>
         <v>284.38126935540089</v>
       </c>
-      <c r="Q29" s="32">
-        <f t="shared" ref="Q29" si="14">($C$41*B29+$C$42)/($C$41*$C$39+$C$42)</f>
-        <v>0.49709270805745892</v>
-      </c>
-      <c r="R29" s="32">
-        <f t="shared" ref="R29" si="15">$C$43*(1-EXP(-1/((G29-$C$40)*$C$44)))*Q29</f>
-        <v>4.7945800729730985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="T29" s="32">
+        <f t="shared" ref="T29" si="16">($C$41*B29+$C$42)/($C$41*$C$39+$C$42)</f>
+        <v>0.49707591831680081</v>
+      </c>
+      <c r="U29" s="32">
+        <f t="shared" ref="U29" si="17">$C$43*(1-EXP(-1/((G29-$C$40)*$C$44)))*T29</f>
+        <v>4.7944181318408212</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="10"/>
       <c r="C30" s="18"/>
@@ -8019,14 +10411,17 @@
       <c r="J30" s="9"/>
       <c r="K30" s="39"/>
       <c r="L30" s="40"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-    </row>
-    <row r="31" spans="1:18" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="M30" s="40"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+    </row>
+    <row r="31" spans="1:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="13"/>
@@ -8035,10 +10430,13 @@
       <c r="G31" s="12"/>
       <c r="K31" s="37"/>
       <c r="L31" s="24"/>
-      <c r="N31" s="15"/>
-      <c r="P31" s="27"/>
-    </row>
-    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+      <c r="M31" s="24"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="S31" s="27"/>
+    </row>
+    <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
@@ -8057,13 +10455,16 @@
         <v>20</v>
       </c>
       <c r="L32" s="5"/>
-      <c r="N32" s="16">
-        <f>MAX(N2:N26)/MIN(N2:N26)</f>
+      <c r="M32" s="5"/>
+      <c r="O32" s="16">
+        <f>MAX(O2:O26)/MIN(O2:O26)</f>
         <v>21.647499999999997</v>
       </c>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
@@ -8080,8 +10481,9 @@
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -8095,7 +10497,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -8103,7 +10505,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -8112,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -8120,7 +10522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>18</v>
       </c>
@@ -8129,7 +10531,7 @@
         <v>5.7012542759407071E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -8137,7 +10539,7 @@
         <v>7.6696498884736997</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>22</v>
       </c>
@@ -8145,7 +10547,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -8153,7 +10555,7 @@
         <v>1.2348433000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -8161,7 +10563,7 @@
         <v>-0.23822225</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -8169,7 +10571,7 @@
         <v>9.64886439</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>26</v>
       </c>
@@ -8177,7 +10579,7 @@
         <v>6.3389040699999999</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -8185,7 +10587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>240</v>
       </c>
@@ -8193,7 +10595,7 @@
         <v>175.4</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>240</v>
       </c>
@@ -8689,14 +11091,14 @@
         <v>9.2207000000000008</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B116" s="26">
-        <f t="shared" ref="B116:B145" si="16">G116</f>
+        <f t="shared" ref="B116:B145" si="18">G116</f>
         <v>-0.55000000000000004</v>
       </c>
       <c r="C116" s="15">
@@ -8705,8 +11107,8 @@
       <c r="D116" s="13">
         <v>18.66</v>
       </c>
-      <c r="E116" s="14">
-        <f t="shared" ref="E116:E145" si="17">C116/D116</f>
+      <c r="E116" s="12">
+        <f t="shared" ref="E116:E145" si="19">C116/D116</f>
         <v>2.679528403001072</v>
       </c>
       <c r="F116" s="20">
@@ -8719,23 +11121,30 @@
         <v>0.2</v>
       </c>
       <c r="K116" s="37">
-        <f t="shared" ref="K116:K145" si="18">$C$37+$C$38*C116</f>
+        <f t="shared" ref="K116:K145" si="20">$C$37+$C$38*C116</f>
         <v>100.28506271379703</v>
       </c>
       <c r="L116" s="24"/>
-      <c r="M116" s="6">
+      <c r="M116" s="24"/>
+      <c r="N116" s="6">
         <v>1</v>
       </c>
-      <c r="N116" s="15">
+      <c r="O116" s="15">
         <v>34</v>
       </c>
-      <c r="O116" s="6">
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="6">
         <v>400</v>
       </c>
-    </row>
-    <row r="117" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="V116" s="2">
+        <f t="shared" ref="V116:V145" si="21">-G116</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B117" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.5</v>
       </c>
       <c r="C117" s="15">
@@ -8744,8 +11153,8 @@
       <c r="D117" s="13">
         <v>16.86</v>
       </c>
-      <c r="E117" s="14">
-        <f t="shared" si="17"/>
+      <c r="E117" s="12">
+        <f t="shared" si="19"/>
         <v>2.9655990510083039</v>
       </c>
       <c r="F117" s="20">
@@ -8758,23 +11167,30 @@
         <v>0.2</v>
       </c>
       <c r="K117" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="6">
+        <v>1</v>
+      </c>
+      <c r="O117" s="15">
+        <v>34</v>
+      </c>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="6">
+        <v>400</v>
+      </c>
+      <c r="V117" s="2">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B118" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L117" s="24"/>
-      <c r="M117" s="6">
-        <v>1</v>
-      </c>
-      <c r="N117" s="15">
-        <v>34</v>
-      </c>
-      <c r="O117" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="118" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B118" s="26">
-        <f t="shared" si="16"/>
         <v>-0.45</v>
       </c>
       <c r="C118" s="15">
@@ -8783,8 +11199,8 @@
       <c r="D118" s="13">
         <v>15.02</v>
       </c>
-      <c r="E118" s="14">
-        <f t="shared" si="17"/>
+      <c r="E118" s="12">
+        <f t="shared" si="19"/>
         <v>3.3288948069241013</v>
       </c>
       <c r="F118" s="20">
@@ -8797,23 +11213,30 @@
         <v>0.2</v>
       </c>
       <c r="K118" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="6">
+        <v>1</v>
+      </c>
+      <c r="O118" s="15">
+        <v>34</v>
+      </c>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="6">
+        <v>700</v>
+      </c>
+      <c r="V118" s="2">
+        <f t="shared" si="21"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B119" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L118" s="24"/>
-      <c r="M118" s="6">
-        <v>1</v>
-      </c>
-      <c r="N118" s="15">
-        <v>34</v>
-      </c>
-      <c r="O118" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="119" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B119" s="26">
-        <f t="shared" si="16"/>
         <v>-0.4</v>
       </c>
       <c r="C119" s="15">
@@ -8822,8 +11245,8 @@
       <c r="D119" s="13">
         <v>13.37</v>
       </c>
-      <c r="E119" s="14">
-        <f t="shared" si="17"/>
+      <c r="E119" s="12">
+        <f t="shared" si="19"/>
         <v>3.7397157816005984</v>
       </c>
       <c r="F119" s="20">
@@ -8836,23 +11259,30 @@
         <v>0.2</v>
       </c>
       <c r="K119" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="6">
+        <v>1</v>
+      </c>
+      <c r="O119" s="15">
+        <v>34</v>
+      </c>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="6">
+        <v>500</v>
+      </c>
+      <c r="V119" s="2">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B120" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L119" s="24"/>
-      <c r="M119" s="6">
-        <v>1</v>
-      </c>
-      <c r="N119" s="15">
-        <v>34</v>
-      </c>
-      <c r="O119" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B120" s="26">
-        <f t="shared" si="16"/>
         <v>-0.3</v>
       </c>
       <c r="C120" s="15">
@@ -8861,8 +11291,8 @@
       <c r="D120" s="13">
         <v>10.14</v>
       </c>
-      <c r="E120" s="14">
-        <f t="shared" si="17"/>
+      <c r="E120" s="12">
+        <f t="shared" si="19"/>
         <v>4.9309664694280073</v>
       </c>
       <c r="F120" s="20">
@@ -8875,23 +11305,30 @@
         <v>0.2</v>
       </c>
       <c r="K120" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="6">
+        <v>1</v>
+      </c>
+      <c r="O120" s="15">
+        <v>34</v>
+      </c>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="6">
+        <v>500</v>
+      </c>
+      <c r="V120" s="2">
+        <f t="shared" si="21"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B121" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L120" s="24"/>
-      <c r="M120" s="6">
-        <v>1</v>
-      </c>
-      <c r="N120" s="15">
-        <v>34</v>
-      </c>
-      <c r="O120" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="121" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B121" s="26">
-        <f t="shared" si="16"/>
         <v>-0.25</v>
       </c>
       <c r="C121" s="15">
@@ -8900,8 +11337,8 @@
       <c r="D121" s="13">
         <v>8.58</v>
       </c>
-      <c r="E121" s="14">
-        <f t="shared" si="17"/>
+      <c r="E121" s="12">
+        <f t="shared" si="19"/>
         <v>5.8275058275058278</v>
       </c>
       <c r="F121" s="20">
@@ -8914,23 +11351,30 @@
         <v>0.2</v>
       </c>
       <c r="K121" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="6">
+        <v>1</v>
+      </c>
+      <c r="O121" s="15">
+        <v>34</v>
+      </c>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="6">
+        <v>450</v>
+      </c>
+      <c r="V121" s="2">
+        <f t="shared" si="21"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B122" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L121" s="24"/>
-      <c r="M121" s="6">
-        <v>1</v>
-      </c>
-      <c r="N121" s="15">
-        <v>34</v>
-      </c>
-      <c r="O121" s="6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="122" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B122" s="26">
-        <f t="shared" si="16"/>
         <v>-0.2</v>
       </c>
       <c r="C122" s="15">
@@ -8939,8 +11383,8 @@
       <c r="D122" s="13">
         <v>7.06</v>
       </c>
-      <c r="E122" s="14">
-        <f t="shared" si="17"/>
+      <c r="E122" s="12">
+        <f t="shared" si="19"/>
         <v>7.0821529745042495</v>
       </c>
       <c r="F122" s="20">
@@ -8953,23 +11397,30 @@
         <v>0.2</v>
       </c>
       <c r="K122" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="6">
+        <v>1</v>
+      </c>
+      <c r="O122" s="15">
+        <v>34</v>
+      </c>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="6">
+        <v>450</v>
+      </c>
+      <c r="V122" s="2">
+        <f t="shared" si="21"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B123" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L122" s="24"/>
-      <c r="M122" s="6">
-        <v>1</v>
-      </c>
-      <c r="N122" s="15">
-        <v>34</v>
-      </c>
-      <c r="O122" s="6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="123" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B123" s="26">
-        <f t="shared" si="16"/>
         <v>-0.15</v>
       </c>
       <c r="C123" s="15">
@@ -8978,8 +11429,8 @@
       <c r="D123" s="13">
         <v>5.6</v>
       </c>
-      <c r="E123" s="14">
-        <f t="shared" si="17"/>
+      <c r="E123" s="12">
+        <f t="shared" si="19"/>
         <v>8.9285714285714288</v>
       </c>
       <c r="F123" s="20">
@@ -8992,23 +11443,30 @@
         <v>0.2</v>
       </c>
       <c r="K123" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="6">
+        <v>1</v>
+      </c>
+      <c r="O123" s="15">
+        <v>34</v>
+      </c>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="6">
+        <v>400</v>
+      </c>
+      <c r="V123" s="2">
+        <f t="shared" si="21"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B124" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L123" s="24"/>
-      <c r="M123" s="6">
-        <v>1</v>
-      </c>
-      <c r="N123" s="15">
-        <v>34</v>
-      </c>
-      <c r="O123" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B124" s="26">
-        <f t="shared" si="16"/>
         <v>-0.125</v>
       </c>
       <c r="C124" s="15">
@@ -9017,8 +11475,8 @@
       <c r="D124" s="13">
         <v>4.84</v>
       </c>
-      <c r="E124" s="14">
-        <f t="shared" si="17"/>
+      <c r="E124" s="12">
+        <f t="shared" si="19"/>
         <v>10.330578512396695</v>
       </c>
       <c r="F124" s="20">
@@ -9031,23 +11489,30 @@
         <v>0.2</v>
       </c>
       <c r="K124" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="6">
+        <v>1</v>
+      </c>
+      <c r="O124" s="15">
+        <v>34</v>
+      </c>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="6">
+        <v>400</v>
+      </c>
+      <c r="V124" s="2">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="125" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B125" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L124" s="24"/>
-      <c r="M124" s="6">
-        <v>1</v>
-      </c>
-      <c r="N124" s="15">
-        <v>34</v>
-      </c>
-      <c r="O124" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B125" s="26">
-        <f t="shared" si="16"/>
         <v>-0.1</v>
       </c>
       <c r="C125" s="15">
@@ -9056,8 +11521,8 @@
       <c r="D125" s="13">
         <v>4.13</v>
       </c>
-      <c r="E125" s="14">
-        <f t="shared" si="17"/>
+      <c r="E125" s="12">
+        <f t="shared" si="19"/>
         <v>12.106537530266344</v>
       </c>
       <c r="F125" s="20">
@@ -9070,23 +11535,30 @@
         <v>0.2</v>
       </c>
       <c r="K125" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="6">
+        <v>1</v>
+      </c>
+      <c r="O125" s="15">
+        <v>34</v>
+      </c>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="6">
+        <v>400</v>
+      </c>
+      <c r="V125" s="2">
+        <f t="shared" si="21"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B126" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L125" s="24"/>
-      <c r="M125" s="6">
-        <v>1</v>
-      </c>
-      <c r="N125" s="15">
-        <v>34</v>
-      </c>
-      <c r="O125" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="126" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B126" s="26">
-        <f t="shared" si="16"/>
         <v>-0.09</v>
       </c>
       <c r="C126" s="15">
@@ -9095,8 +11567,8 @@
       <c r="D126" s="13">
         <v>3.84</v>
       </c>
-      <c r="E126" s="14">
-        <f t="shared" si="17"/>
+      <c r="E126" s="12">
+        <f t="shared" si="19"/>
         <v>13.020833333333334</v>
       </c>
       <c r="F126" s="20">
@@ -9109,23 +11581,30 @@
         <v>3.2</v>
       </c>
       <c r="K126" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="6">
+        <v>1</v>
+      </c>
+      <c r="O126" s="15">
+        <v>34</v>
+      </c>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="6">
+        <v>500</v>
+      </c>
+      <c r="V126" s="2">
+        <f t="shared" si="21"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B127" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L126" s="24"/>
-      <c r="M126" s="6">
-        <v>1</v>
-      </c>
-      <c r="N126" s="15">
-        <v>34</v>
-      </c>
-      <c r="O126" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B127" s="26">
-        <f t="shared" si="16"/>
         <v>-0.08</v>
       </c>
       <c r="C127" s="15">
@@ -9134,8 +11613,8 @@
       <c r="D127" s="13">
         <v>3.54</v>
       </c>
-      <c r="E127" s="14">
-        <f t="shared" si="17"/>
+      <c r="E127" s="12">
+        <f t="shared" si="19"/>
         <v>14.124293785310734</v>
       </c>
       <c r="F127" s="20">
@@ -9148,23 +11627,30 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K127" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="6">
+        <v>1</v>
+      </c>
+      <c r="O127" s="15">
+        <v>34</v>
+      </c>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="6">
+        <v>500</v>
+      </c>
+      <c r="V127" s="2">
+        <f t="shared" si="21"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B128" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L127" s="24"/>
-      <c r="M127" s="6">
-        <v>1</v>
-      </c>
-      <c r="N127" s="15">
-        <v>34</v>
-      </c>
-      <c r="O127" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B128" s="26">
-        <f t="shared" si="16"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C128" s="15">
@@ -9173,8 +11659,8 @@
       <c r="D128" s="13">
         <v>3.23</v>
       </c>
-      <c r="E128" s="14">
-        <f t="shared" si="17"/>
+      <c r="E128" s="12">
+        <f t="shared" si="19"/>
         <v>15.479876160990711</v>
       </c>
       <c r="F128" s="20">
@@ -9187,23 +11673,30 @@
         <v>0.2</v>
       </c>
       <c r="K128" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="6">
+        <v>1</v>
+      </c>
+      <c r="O128" s="15">
+        <v>34</v>
+      </c>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="6">
+        <v>500</v>
+      </c>
+      <c r="V128" s="2">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B129" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L128" s="24"/>
-      <c r="M128" s="6">
-        <v>1</v>
-      </c>
-      <c r="N128" s="15">
-        <v>34</v>
-      </c>
-      <c r="O128" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B129" s="26">
-        <f t="shared" si="16"/>
         <v>-0.06</v>
       </c>
       <c r="C129" s="15">
@@ -9212,8 +11705,8 @@
       <c r="D129" s="13">
         <v>2.93</v>
       </c>
-      <c r="E129" s="14">
-        <f t="shared" si="17"/>
+      <c r="E129" s="12">
+        <f t="shared" si="19"/>
         <v>17.064846416382252</v>
       </c>
       <c r="F129" s="20">
@@ -9226,23 +11719,30 @@
         <v>0.2</v>
       </c>
       <c r="K129" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="6">
+        <v>1</v>
+      </c>
+      <c r="O129" s="15">
+        <v>34</v>
+      </c>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="6">
+        <v>500</v>
+      </c>
+      <c r="V129" s="2">
+        <f t="shared" si="21"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="130" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B130" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L129" s="24"/>
-      <c r="M129" s="6">
-        <v>1</v>
-      </c>
-      <c r="N129" s="15">
-        <v>34</v>
-      </c>
-      <c r="O129" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="130" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B130" s="26">
-        <f t="shared" si="16"/>
         <v>-0.05</v>
       </c>
       <c r="C130" s="15">
@@ -9251,8 +11751,8 @@
       <c r="D130" s="13">
         <v>2.75</v>
       </c>
-      <c r="E130" s="14">
-        <f t="shared" si="17"/>
+      <c r="E130" s="12">
+        <f t="shared" si="19"/>
         <v>18.181818181818183</v>
       </c>
       <c r="F130" s="20">
@@ -9265,23 +11765,30 @@
         <v>0.2</v>
       </c>
       <c r="K130" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+      <c r="N130" s="6">
+        <v>1</v>
+      </c>
+      <c r="O130" s="15">
+        <v>34</v>
+      </c>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="6">
+        <v>500</v>
+      </c>
+      <c r="V130" s="2">
+        <f t="shared" si="21"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="131" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B131" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L130" s="24"/>
-      <c r="M130" s="6">
-        <v>1</v>
-      </c>
-      <c r="N130" s="15">
-        <v>34</v>
-      </c>
-      <c r="O130" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B131" s="26">
-        <f t="shared" si="16"/>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C131" s="15">
@@ -9290,8 +11797,8 @@
       <c r="D131" s="13">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E131" s="14">
-        <f t="shared" si="17"/>
+      <c r="E131" s="12">
+        <f t="shared" si="19"/>
         <v>20.242914979757085</v>
       </c>
       <c r="F131" s="20">
@@ -9304,23 +11811,30 @@
         <v>0.2</v>
       </c>
       <c r="K131" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="6">
+        <v>1</v>
+      </c>
+      <c r="O131" s="15">
+        <v>34</v>
+      </c>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="6">
+        <v>500</v>
+      </c>
+      <c r="V131" s="2">
+        <f t="shared" si="21"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B132" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L131" s="24"/>
-      <c r="M131" s="6">
-        <v>1</v>
-      </c>
-      <c r="N131" s="15">
-        <v>34</v>
-      </c>
-      <c r="O131" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B132" s="26">
-        <f t="shared" si="16"/>
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="C132" s="15">
@@ -9329,8 +11843,8 @@
       <c r="D132" s="13">
         <v>2.15</v>
       </c>
-      <c r="E132" s="14">
-        <f t="shared" si="17"/>
+      <c r="E132" s="12">
+        <f t="shared" si="19"/>
         <v>23.255813953488374</v>
       </c>
       <c r="F132" s="20">
@@ -9343,23 +11857,30 @@
         <v>0.2</v>
       </c>
       <c r="K132" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="6">
+        <v>1</v>
+      </c>
+      <c r="O132" s="15">
+        <v>34</v>
+      </c>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="6">
+        <v>700</v>
+      </c>
+      <c r="V132" s="2">
+        <f t="shared" si="21"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B133" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L132" s="24"/>
-      <c r="M132" s="6">
-        <v>1</v>
-      </c>
-      <c r="N132" s="15">
-        <v>34</v>
-      </c>
-      <c r="O132" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B133" s="26">
-        <f t="shared" si="16"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="C133" s="15">
@@ -9368,8 +11889,8 @@
       <c r="D133" s="13">
         <v>1.81</v>
       </c>
-      <c r="E133" s="14">
-        <f t="shared" si="17"/>
+      <c r="E133" s="12">
+        <f t="shared" si="19"/>
         <v>27.624309392265193</v>
       </c>
       <c r="F133" s="20">
@@ -9382,23 +11903,30 @@
         <v>0.2</v>
       </c>
       <c r="K133" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="6">
+        <v>1</v>
+      </c>
+      <c r="O133" s="15">
+        <v>34</v>
+      </c>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="6">
+        <v>700</v>
+      </c>
+      <c r="V133" s="2">
+        <f t="shared" si="21"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B134" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L133" s="24"/>
-      <c r="M133" s="6">
-        <v>1</v>
-      </c>
-      <c r="N133" s="15">
-        <v>34</v>
-      </c>
-      <c r="O133" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B134" s="26">
-        <f t="shared" si="16"/>
         <v>-2.2499999999999999E-2</v>
       </c>
       <c r="C134" s="15">
@@ -9407,8 +11935,8 @@
       <c r="D134" s="13">
         <v>1.72</v>
       </c>
-      <c r="E134" s="14">
-        <f t="shared" si="17"/>
+      <c r="E134" s="12">
+        <f t="shared" si="19"/>
         <v>29.069767441860467</v>
       </c>
       <c r="F134" s="20">
@@ -9421,23 +11949,30 @@
         <v>1.2</v>
       </c>
       <c r="K134" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="6">
+        <v>1</v>
+      </c>
+      <c r="O134" s="15">
+        <v>34</v>
+      </c>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="6">
+        <v>500</v>
+      </c>
+      <c r="V134" s="2">
+        <f t="shared" si="21"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B135" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L134" s="24"/>
-      <c r="M134" s="6">
-        <v>1</v>
-      </c>
-      <c r="N134" s="15">
-        <v>34</v>
-      </c>
-      <c r="O134" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B135" s="26">
-        <f t="shared" si="16"/>
         <v>0.2225</v>
       </c>
       <c r="C135" s="15">
@@ -9446,8 +11981,8 @@
       <c r="D135" s="13">
         <v>5.45</v>
       </c>
-      <c r="E135" s="14">
-        <f t="shared" si="17"/>
+      <c r="E135" s="12">
+        <f t="shared" si="19"/>
         <v>9.1743119266055047</v>
       </c>
       <c r="F135" s="20">
@@ -9460,23 +11995,30 @@
         <v>0.2</v>
       </c>
       <c r="K135" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="6">
+        <v>1</v>
+      </c>
+      <c r="O135" s="15">
+        <v>34</v>
+      </c>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="6">
+        <v>150</v>
+      </c>
+      <c r="V135" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.2225</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B136" s="12">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L135" s="24"/>
-      <c r="M135" s="6">
-        <v>1</v>
-      </c>
-      <c r="N135" s="15">
-        <v>34</v>
-      </c>
-      <c r="O135" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B136" s="26">
-        <f t="shared" si="16"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="C136" s="15">
@@ -9485,8 +12027,8 @@
       <c r="D136" s="13">
         <v>5.46</v>
       </c>
-      <c r="E136" s="14">
-        <f t="shared" si="17"/>
+      <c r="E136" s="12">
+        <f t="shared" si="19"/>
         <v>9.1575091575091569</v>
       </c>
       <c r="F136" s="20">
@@ -9499,23 +12041,30 @@
         <v>0.2</v>
       </c>
       <c r="K136" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="6">
+        <v>1</v>
+      </c>
+      <c r="O136" s="15">
+        <v>34</v>
+      </c>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="6">
+        <v>150</v>
+      </c>
+      <c r="V136" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B137" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L136" s="24"/>
-      <c r="M136" s="6">
-        <v>1</v>
-      </c>
-      <c r="N136" s="15">
-        <v>34</v>
-      </c>
-      <c r="O136" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B137" s="26">
-        <f t="shared" si="16"/>
         <v>0.23</v>
       </c>
       <c r="C137" s="15">
@@ -9524,8 +12073,8 @@
       <c r="D137" s="13">
         <v>5.52</v>
       </c>
-      <c r="E137" s="14">
-        <f t="shared" si="17"/>
+      <c r="E137" s="12">
+        <f t="shared" si="19"/>
         <v>9.0579710144927539</v>
       </c>
       <c r="F137" s="20">
@@ -9538,23 +12087,30 @@
         <v>0.2</v>
       </c>
       <c r="K137" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="6">
+        <v>1</v>
+      </c>
+      <c r="O137" s="15">
+        <v>34</v>
+      </c>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="6">
+        <v>150</v>
+      </c>
+      <c r="V137" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B138" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L137" s="24"/>
-      <c r="M137" s="6">
-        <v>1</v>
-      </c>
-      <c r="N137" s="15">
-        <v>34</v>
-      </c>
-      <c r="O137" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B138" s="26">
-        <f t="shared" si="16"/>
         <v>0.24</v>
       </c>
       <c r="C138" s="15">
@@ -9563,8 +12119,8 @@
       <c r="D138" s="13">
         <v>5.7</v>
       </c>
-      <c r="E138" s="14">
-        <f t="shared" si="17"/>
+      <c r="E138" s="12">
+        <f t="shared" si="19"/>
         <v>8.7719298245614024</v>
       </c>
       <c r="F138" s="20">
@@ -9577,23 +12133,30 @@
         <v>0.2</v>
       </c>
       <c r="K138" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="6">
+        <v>1</v>
+      </c>
+      <c r="O138" s="15">
+        <v>34</v>
+      </c>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="6">
+        <v>200</v>
+      </c>
+      <c r="V138" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="139" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B139" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L138" s="24"/>
-      <c r="M138" s="6">
-        <v>1</v>
-      </c>
-      <c r="N138" s="15">
-        <v>34</v>
-      </c>
-      <c r="O138" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B139" s="26">
-        <f t="shared" si="16"/>
         <v>0.26</v>
       </c>
       <c r="C139" s="15">
@@ -9602,8 +12165,8 @@
       <c r="D139" s="13">
         <v>6.14</v>
       </c>
-      <c r="E139" s="14">
-        <f t="shared" si="17"/>
+      <c r="E139" s="12">
+        <f t="shared" si="19"/>
         <v>8.1433224755700326</v>
       </c>
       <c r="F139" s="20">
@@ -9616,23 +12179,30 @@
         <v>0.2</v>
       </c>
       <c r="K139" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="6">
+        <v>1</v>
+      </c>
+      <c r="O139" s="15">
+        <v>34</v>
+      </c>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="6">
+        <v>250</v>
+      </c>
+      <c r="V139" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="140" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B140" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L139" s="24"/>
-      <c r="M139" s="6">
-        <v>1</v>
-      </c>
-      <c r="N139" s="15">
-        <v>34</v>
-      </c>
-      <c r="O139" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B140" s="26">
-        <f t="shared" si="16"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="C140" s="15">
@@ -9641,8 +12211,8 @@
       <c r="D140" s="13">
         <v>6.66</v>
       </c>
-      <c r="E140" s="14">
-        <f t="shared" si="17"/>
+      <c r="E140" s="12">
+        <f t="shared" si="19"/>
         <v>7.5075075075075075</v>
       </c>
       <c r="F140" s="20">
@@ -9655,23 +12225,30 @@
         <v>0.2</v>
       </c>
       <c r="K140" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="6">
+        <v>1</v>
+      </c>
+      <c r="O140" s="15">
+        <v>34</v>
+      </c>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+      <c r="R140" s="6">
+        <v>250</v>
+      </c>
+      <c r="V140" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B141" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L140" s="24"/>
-      <c r="M140" s="6">
-        <v>1</v>
-      </c>
-      <c r="N140" s="15">
-        <v>34</v>
-      </c>
-      <c r="O140" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B141" s="26">
-        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="C141" s="15">
@@ -9680,8 +12257,8 @@
       <c r="D141" s="13">
         <v>7.2</v>
       </c>
-      <c r="E141" s="14">
-        <f t="shared" si="17"/>
+      <c r="E141" s="12">
+        <f t="shared" si="19"/>
         <v>6.9444444444444446</v>
       </c>
       <c r="F141" s="20">
@@ -9694,23 +12271,30 @@
         <v>0.2</v>
       </c>
       <c r="K141" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L141" s="24"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="6">
+        <v>1</v>
+      </c>
+      <c r="O141" s="15">
+        <v>34</v>
+      </c>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+      <c r="R141" s="6">
+        <v>250</v>
+      </c>
+      <c r="V141" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B142" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L141" s="24"/>
-      <c r="M141" s="6">
-        <v>1</v>
-      </c>
-      <c r="N141" s="15">
-        <v>34</v>
-      </c>
-      <c r="O141" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="142" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B142" s="26">
-        <f t="shared" si="16"/>
         <v>0.35</v>
       </c>
       <c r="C142" s="15">
@@ -9719,8 +12303,8 @@
       <c r="D142" s="13">
         <v>8.61</v>
       </c>
-      <c r="E142" s="14">
-        <f t="shared" si="17"/>
+      <c r="E142" s="12">
+        <f t="shared" si="19"/>
         <v>5.8072009291521489</v>
       </c>
       <c r="F142" s="20">
@@ -9733,23 +12317,30 @@
         <v>0.2</v>
       </c>
       <c r="K142" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="6">
+        <v>1</v>
+      </c>
+      <c r="O142" s="15">
+        <v>34</v>
+      </c>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="6">
+        <v>350</v>
+      </c>
+      <c r="V142" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="143" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B143" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L142" s="24"/>
-      <c r="M142" s="6">
-        <v>1</v>
-      </c>
-      <c r="N142" s="15">
-        <v>34</v>
-      </c>
-      <c r="O142" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B143" s="26">
-        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="C143" s="15">
@@ -9758,8 +12349,8 @@
       <c r="D143" s="13">
         <v>10.09</v>
       </c>
-      <c r="E143" s="14">
-        <f t="shared" si="17"/>
+      <c r="E143" s="12">
+        <f t="shared" si="19"/>
         <v>4.9554013875123886</v>
       </c>
       <c r="F143" s="20">
@@ -9772,23 +12363,30 @@
         <v>0.2</v>
       </c>
       <c r="K143" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L143" s="24"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="6">
+        <v>1</v>
+      </c>
+      <c r="O143" s="15">
+        <v>34</v>
+      </c>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="6">
+        <v>300</v>
+      </c>
+      <c r="V143" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="144" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B144" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L143" s="24"/>
-      <c r="M143" s="6">
-        <v>1</v>
-      </c>
-      <c r="N143" s="15">
-        <v>34</v>
-      </c>
-      <c r="O143" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="144" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B144" s="26">
-        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="C144" s="15">
@@ -9797,8 +12395,8 @@
       <c r="D144" s="13">
         <v>13.2</v>
       </c>
-      <c r="E144" s="14">
-        <f t="shared" si="17"/>
+      <c r="E144" s="12">
+        <f t="shared" si="19"/>
         <v>3.7878787878787881</v>
       </c>
       <c r="F144" s="20">
@@ -9811,23 +12409,30 @@
         <v>0.2</v>
       </c>
       <c r="K144" s="37">
+        <f t="shared" si="20"/>
+        <v>100.28506271379703</v>
+      </c>
+      <c r="L144" s="24"/>
+      <c r="M144" s="24"/>
+      <c r="N144" s="6">
+        <v>1</v>
+      </c>
+      <c r="O144" s="15">
+        <v>34</v>
+      </c>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="6">
+        <v>300</v>
+      </c>
+      <c r="V144" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B145" s="26">
         <f t="shared" si="18"/>
-        <v>100.28506271379703</v>
-      </c>
-      <c r="L144" s="24"/>
-      <c r="M144" s="6">
-        <v>1</v>
-      </c>
-      <c r="N144" s="15">
-        <v>34</v>
-      </c>
-      <c r="O144" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="145" spans="2:15" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B145" s="26">
-        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="C145" s="15">
@@ -9836,8 +12441,8 @@
       <c r="D145" s="13">
         <v>16.559999999999999</v>
       </c>
-      <c r="E145" s="14">
-        <f t="shared" si="17"/>
+      <c r="E145" s="12">
+        <f t="shared" si="19"/>
         <v>3.0193236714975846</v>
       </c>
       <c r="F145" s="20">
@@ -9850,25 +12455,32 @@
         <v>0.2</v>
       </c>
       <c r="K145" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>100.28506271379703</v>
       </c>
       <c r="L145" s="24"/>
-      <c r="M145" s="6">
+      <c r="M145" s="24"/>
+      <c r="N145" s="6">
         <v>1</v>
       </c>
-      <c r="N145" s="15">
+      <c r="O145" s="15">
         <v>34</v>
       </c>
-      <c r="O145" s="6">
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="6">
         <v>350</v>
       </c>
-    </row>
-    <row r="146" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="V145" s="2">
+        <f t="shared" si="21"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="146" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="18"/>
       <c r="D146" s="23"/>
-      <c r="E146" s="10"/>
+      <c r="E146" s="32"/>
       <c r="F146" s="21"/>
       <c r="G146" s="28"/>
       <c r="H146" s="9"/>
@@ -9876,13 +12488,16 @@
       <c r="J146" s="9"/>
       <c r="K146" s="37"/>
       <c r="L146" s="24"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="9"/>
-    </row>
-    <row r="147" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="M146" s="24"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+      <c r="Q146" s="18"/>
+      <c r="R146" s="9"/>
+    </row>
+    <row r="147" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B147" s="19">
-        <f t="shared" ref="B147:B159" si="19">G147</f>
+        <f t="shared" ref="B147:B159" si="22">G147</f>
         <v>-0.3</v>
       </c>
       <c r="C147" s="7">
@@ -9891,8 +12506,8 @@
       <c r="D147" s="8">
         <v>29.91</v>
       </c>
-      <c r="E147" s="3">
-        <f t="shared" ref="E147:E159" si="20">C147/D147</f>
+      <c r="E147" s="2">
+        <f t="shared" ref="E147:E159" si="23">C147/D147</f>
         <v>3.3433634236041456</v>
       </c>
       <c r="F147" s="17">
@@ -9905,23 +12520,24 @@
         <v>0.2</v>
       </c>
       <c r="K147" s="36">
-        <f t="shared" ref="K147:K159" si="21">$C$37+$C$38*C147</f>
+        <f t="shared" ref="K147:K159" si="24">$C$37+$C$38*C147</f>
         <v>100.57012542759406</v>
       </c>
       <c r="L147" s="25"/>
-      <c r="M147">
+      <c r="M147" s="25"/>
+      <c r="N147">
         <v>1</v>
       </c>
-      <c r="N147" s="7">
+      <c r="O147" s="7">
         <v>34</v>
       </c>
-      <c r="O147">
+      <c r="R147">
         <v>700</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B148" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.2</v>
       </c>
       <c r="C148" s="7">
@@ -9930,8 +12546,8 @@
       <c r="D148" s="8">
         <v>20.72</v>
       </c>
-      <c r="E148" s="3">
-        <f t="shared" si="20"/>
+      <c r="E148" s="2">
+        <f t="shared" si="23"/>
         <v>4.8262548262548268</v>
       </c>
       <c r="F148" s="17">
@@ -9944,23 +12560,24 @@
         <v>0.2</v>
       </c>
       <c r="K148" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L148" s="25"/>
-      <c r="M148">
+      <c r="M148" s="25"/>
+      <c r="N148">
         <v>1</v>
       </c>
-      <c r="N148" s="7">
+      <c r="O148" s="7">
         <v>34</v>
       </c>
-      <c r="O148">
+      <c r="R148">
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B149" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.1</v>
       </c>
       <c r="C149" s="7">
@@ -9969,8 +12586,8 @@
       <c r="D149" s="8">
         <v>12.02</v>
       </c>
-      <c r="E149" s="3">
-        <f t="shared" si="20"/>
+      <c r="E149" s="2">
+        <f t="shared" si="23"/>
         <v>8.3194675540765388</v>
       </c>
       <c r="F149" s="17">
@@ -9983,23 +12600,24 @@
         <v>0.2</v>
       </c>
       <c r="K149" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L149" s="25"/>
-      <c r="M149">
+      <c r="M149" s="25"/>
+      <c r="N149">
         <v>1</v>
       </c>
-      <c r="N149" s="7">
+      <c r="O149" s="7">
         <v>34</v>
       </c>
-      <c r="O149">
+      <c r="R149">
         <v>700</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B150" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.05</v>
       </c>
       <c r="C150" s="7">
@@ -10008,8 +12626,8 @@
       <c r="D150" s="8">
         <v>7.62</v>
       </c>
-      <c r="E150" s="3">
-        <f t="shared" si="20"/>
+      <c r="E150" s="2">
+        <f t="shared" si="23"/>
         <v>13.123359580052494</v>
       </c>
       <c r="F150" s="17">
@@ -10022,23 +12640,24 @@
         <v>0.2</v>
       </c>
       <c r="K150" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L150" s="25"/>
-      <c r="M150">
+      <c r="M150" s="25"/>
+      <c r="N150">
         <v>1</v>
       </c>
-      <c r="N150" s="7">
+      <c r="O150" s="7">
         <v>34</v>
       </c>
-      <c r="O150">
+      <c r="R150">
         <v>700</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B151" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C151" s="7">
@@ -10047,8 +12666,8 @@
       <c r="D151" s="8">
         <v>7.17</v>
       </c>
-      <c r="E151" s="3">
-        <f t="shared" si="20"/>
+      <c r="E151" s="2">
+        <f t="shared" si="23"/>
         <v>13.947001394700139</v>
       </c>
       <c r="F151" s="17">
@@ -10061,23 +12680,24 @@
         <v>0.2</v>
       </c>
       <c r="K151" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L151" s="25"/>
-      <c r="M151">
+      <c r="M151" s="25"/>
+      <c r="N151">
         <v>1</v>
       </c>
-      <c r="N151" s="7">
+      <c r="O151" s="7">
         <v>34</v>
       </c>
-      <c r="O151">
+      <c r="R151">
         <v>700</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B152" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="C152" s="7">
@@ -10086,8 +12706,8 @@
       <c r="D152" s="8">
         <v>6.22</v>
       </c>
-      <c r="E152" s="3">
-        <f t="shared" si="20"/>
+      <c r="E152" s="2">
+        <f t="shared" si="23"/>
         <v>16.077170418006432</v>
       </c>
       <c r="F152" s="17">
@@ -10100,23 +12720,24 @@
         <v>0.2</v>
       </c>
       <c r="K152" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L152" s="25"/>
-      <c r="M152">
+      <c r="M152" s="25"/>
+      <c r="N152">
         <v>1</v>
       </c>
-      <c r="N152" s="7">
+      <c r="O152" s="7">
         <v>34</v>
       </c>
-      <c r="O152">
+      <c r="R152">
         <v>700</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B153" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="C153" s="7">
@@ -10125,8 +12746,8 @@
       <c r="D153" s="8">
         <v>5.23</v>
       </c>
-      <c r="E153" s="3">
-        <f t="shared" si="20"/>
+      <c r="E153" s="2">
+        <f t="shared" si="23"/>
         <v>19.120458891013381</v>
       </c>
       <c r="F153" s="17">
@@ -10139,23 +12760,24 @@
         <v>0.2</v>
       </c>
       <c r="K153" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L153" s="25"/>
-      <c r="M153">
+      <c r="M153" s="25"/>
+      <c r="N153">
         <v>1</v>
       </c>
-      <c r="N153" s="7">
+      <c r="O153" s="7">
         <v>34</v>
       </c>
-      <c r="O153">
+      <c r="R153">
         <v>700</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B154" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.2225</v>
       </c>
       <c r="C154" s="7">
@@ -10164,8 +12786,8 @@
       <c r="D154" s="8">
         <v>15.99</v>
       </c>
-      <c r="E154" s="3">
-        <f t="shared" si="20"/>
+      <c r="E154" s="2">
+        <f t="shared" si="23"/>
         <v>6.2539086929330834</v>
       </c>
       <c r="F154" s="17">
@@ -10178,23 +12800,24 @@
         <v>0.2</v>
       </c>
       <c r="K154" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L154" s="25"/>
-      <c r="M154">
+      <c r="M154" s="25"/>
+      <c r="N154">
         <v>1</v>
       </c>
-      <c r="N154" s="7">
+      <c r="O154" s="7">
         <v>34</v>
       </c>
-      <c r="O154">
+      <c r="R154">
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B155" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="C155" s="7">
@@ -10203,8 +12826,8 @@
       <c r="D155" s="8">
         <v>16.02</v>
       </c>
-      <c r="E155" s="3">
-        <f t="shared" si="20"/>
+      <c r="E155" s="2">
+        <f t="shared" si="23"/>
         <v>6.2421972534332086</v>
       </c>
       <c r="F155" s="17">
@@ -10217,23 +12840,24 @@
         <v>0.2</v>
       </c>
       <c r="K155" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L155" s="25"/>
-      <c r="M155">
+      <c r="M155" s="25"/>
+      <c r="N155">
         <v>1</v>
       </c>
-      <c r="N155" s="7">
+      <c r="O155" s="7">
         <v>34</v>
       </c>
-      <c r="O155">
+      <c r="R155">
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B156" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.24</v>
       </c>
       <c r="C156" s="7">
@@ -10242,8 +12866,8 @@
       <c r="D156" s="8">
         <v>16.61</v>
       </c>
-      <c r="E156" s="3">
-        <f t="shared" si="20"/>
+      <c r="E156" s="2">
+        <f t="shared" si="23"/>
         <v>6.0204695966285371</v>
       </c>
       <c r="F156" s="17">
@@ -10256,23 +12880,24 @@
         <v>0.2</v>
       </c>
       <c r="K156" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L156" s="25"/>
-      <c r="M156">
+      <c r="M156" s="25"/>
+      <c r="N156">
         <v>1</v>
       </c>
-      <c r="N156" s="7">
+      <c r="O156" s="7">
         <v>34</v>
       </c>
-      <c r="O156">
+      <c r="R156">
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B157" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.26</v>
       </c>
       <c r="C157" s="7">
@@ -10281,8 +12906,8 @@
       <c r="D157" s="8">
         <v>17.87</v>
       </c>
-      <c r="E157" s="3">
-        <f t="shared" si="20"/>
+      <c r="E157" s="2">
+        <f t="shared" si="23"/>
         <v>5.5959709009513148</v>
       </c>
       <c r="F157" s="17">
@@ -10295,23 +12920,24 @@
         <v>0.2</v>
       </c>
       <c r="K157" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L157" s="25"/>
-      <c r="M157">
+      <c r="M157" s="25"/>
+      <c r="N157">
         <v>1</v>
       </c>
-      <c r="N157" s="7">
+      <c r="O157" s="7">
         <v>34</v>
       </c>
-      <c r="O157">
+      <c r="R157">
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B158" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="C158" s="7">
@@ -10320,8 +12946,8 @@
       <c r="D158" s="8">
         <v>21.02</v>
       </c>
-      <c r="E158" s="3">
-        <f t="shared" si="20"/>
+      <c r="E158" s="2">
+        <f t="shared" si="23"/>
         <v>4.7573739295908659</v>
       </c>
       <c r="F158" s="17">
@@ -10334,23 +12960,24 @@
         <v>0.2</v>
       </c>
       <c r="K158" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L158" s="25"/>
-      <c r="M158">
+      <c r="M158" s="25"/>
+      <c r="N158">
         <v>1</v>
       </c>
-      <c r="N158" s="7">
+      <c r="O158" s="7">
         <v>34</v>
       </c>
-      <c r="O158">
+      <c r="R158">
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:22" ht="17" x14ac:dyDescent="0.25">
       <c r="B159" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
       <c r="C159" s="7">
@@ -10359,8 +12986,8 @@
       <c r="D159" s="8">
         <v>29.66</v>
       </c>
-      <c r="E159" s="3">
-        <f t="shared" si="20"/>
+      <c r="E159" s="2">
+        <f t="shared" si="23"/>
         <v>3.3715441672285906</v>
       </c>
       <c r="F159" s="17">
@@ -10373,34 +13000,420 @@
         <v>0.2</v>
       </c>
       <c r="K159" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>100.57012542759406</v>
       </c>
       <c r="L159" s="25"/>
-      <c r="M159">
+      <c r="M159" s="25"/>
+      <c r="N159">
         <v>1</v>
       </c>
-      <c r="N159" s="7">
+      <c r="O159" s="7">
         <v>34</v>
       </c>
-      <c r="O159">
+      <c r="R159">
         <v>450</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C160"/>
       <c r="D160"/>
       <c r="F160"/>
-      <c r="N160"/>
-    </row>
-    <row r="165" spans="11:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+    </row>
+    <row r="165" spans="2:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="K165" s="7"/>
     </row>
-    <row r="166" spans="11:11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166" s="8">
+        <v>175.4</v>
+      </c>
       <c r="K166" s="7"/>
     </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" s="8">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194" s="8">
+        <v>79.78</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>8</v>
+      </c>
+      <c r="C195" s="7">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>41</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B201" s="1">
+        <v>8.5227272726999992</v>
+      </c>
+      <c r="C201" s="7">
+        <f>1/B201</f>
+        <v>0.11733333333370881</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.24314512280474099</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B202" s="1">
+        <v>19.8863636363</v>
+      </c>
+      <c r="C202" s="7">
+        <f t="shared" ref="C202:C210" si="25">1/B202</f>
+        <v>5.0285714285875201E-2</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0.238777617220292</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B203" s="1">
+        <v>28.409090909</v>
+      </c>
+      <c r="C203" s="7">
+        <f t="shared" si="25"/>
+        <v>3.5200000000112641E-2</v>
+      </c>
+      <c r="D203" s="1">
+        <v>0.236264297911009</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B204" s="1">
+        <v>39.772727000000003</v>
+      </c>
+      <c r="C204" s="7">
+        <f t="shared" si="25"/>
+        <v>2.5142857315265305E-2</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0.23354874997525399</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B205" s="1">
+        <v>48.295454545399998</v>
+      </c>
+      <c r="C205" s="7">
+        <f t="shared" si="25"/>
+        <v>2.0705882352964562E-2</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0.231870501683342</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B206" s="1">
+        <v>59.659090900000002</v>
+      </c>
+      <c r="C206" s="7">
+        <f t="shared" si="25"/>
+        <v>1.6761904764458956E-2</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0.23000867849074</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B207" s="1">
+        <v>68.181818180999997</v>
+      </c>
+      <c r="C207" s="7">
+        <f t="shared" si="25"/>
+        <v>1.4666666666842668E-2</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0.22884855091666201</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B208" s="1">
+        <v>79.545454544999998</v>
+      </c>
+      <c r="C208" s="7">
+        <f t="shared" si="25"/>
+        <v>1.2571428571500409E-2</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0.227569063618036</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B209" s="1">
+        <v>88.068181818100001</v>
+      </c>
+      <c r="C209" s="7">
+        <f t="shared" si="25"/>
+        <v>1.1354838709687969E-2</v>
+      </c>
+      <c r="D209" s="1">
+        <v>0.226785709403413</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="B210" s="1">
+        <v>99.431818180999997</v>
+      </c>
+      <c r="C210" s="7">
+        <f t="shared" si="25"/>
+        <v>1.0057142857225613E-2</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0.22594851854699999</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V20">
     <sortCondition ref="C2:C20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
